--- a/Fase_1.0/Carta_Gantt.xlsx
+++ b/Fase_1.0/Carta_Gantt.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="CC2NYLJbRYTLqxTAELU8e35Ttek1HJoHFxDR18XQgEw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="w+iDIF7Tsx6+2woJqYFznX7ZnMXWHk+/3YiP7bd8Kp0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">Carta Gantt </t>
   </si>
@@ -150,7 +150,7 @@
     <t>Propuesta ERS</t>
   </si>
   <si>
-    <t>Fase de Desarrollo(Fase 2.1)</t>
+    <t>Fase desarrollo Arquitectónico(Fase 2.1)</t>
   </si>
   <si>
     <t>Documento Arquitectura (DAS)</t>
@@ -171,25 +171,25 @@
     <t>Fase de Desarrollo(Fase 2.2)</t>
   </si>
   <si>
-    <t>Desarrollo Pagina Web</t>
+    <t>Desarrollo Página Web</t>
   </si>
   <si>
-    <t xml:space="preserve">Creacion de los script de tablas base de datos </t>
+    <t xml:space="preserve">Creación de los script de tablas base de datos </t>
   </si>
   <si>
-    <t xml:space="preserve">Creacion de los script de consultas PL/SQL </t>
+    <t xml:space="preserve">Creación de los script de consultas PL/SQL </t>
   </si>
   <si>
-    <t>Programacion Base de Datos</t>
+    <t>Programación Base de Datos</t>
   </si>
   <si>
-    <t>Integracion de Api´s</t>
+    <t>Integración de Api´s</t>
   </si>
   <si>
     <t>Inteligencia de negocios</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineria de datos </t>
+    <t xml:space="preserve">Minería de datos </t>
   </si>
   <si>
     <t>Documento Informe Final Proyecto APT Fase2</t>
@@ -204,10 +204,10 @@
     <t>Matriz de control de cambios</t>
   </si>
   <si>
-    <t xml:space="preserve">Minutas de reunion </t>
+    <t xml:space="preserve">Minutas de reunión </t>
   </si>
   <si>
-    <t>Verificacion de alcances</t>
+    <t>Verificación de alcances</t>
   </si>
   <si>
     <t>Fase de implementación y cierre(Fase 3)</t>
@@ -258,7 +258,34 @@
     <t>Feriado Fiestas Patrias</t>
   </si>
   <si>
+    <t>FE</t>
+  </si>
+  <si>
     <t>Feriado</t>
+  </si>
+  <si>
+    <t>Entrega Fase 1</t>
+  </si>
+  <si>
+    <t>EF.1</t>
+  </si>
+  <si>
+    <t>Entrega Fase 2</t>
+  </si>
+  <si>
+    <t>EF.2</t>
+  </si>
+  <si>
+    <t>Entrega Fase 2.2</t>
+  </si>
+  <si>
+    <t>EF.2.2</t>
+  </si>
+  <si>
+    <t>Entrega Fase 3</t>
+  </si>
+  <si>
+    <t>EF.3</t>
   </si>
 </sst>
 </file>
@@ -325,7 +352,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,8 +427,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor rgb="FF9900FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -412,14 +451,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF00B050"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -652,7 +697,10 @@
     <xf borderId="15" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -671,6 +719,9 @@
     <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="15" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="17" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -682,14 +733,23 @@
     <xf borderId="8" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="15" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="16" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="15" fillId="16" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="17" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="16" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="18" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,10 +757,10 @@
     <xf borderId="16" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="16" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="16" fillId="19" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="15" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="19" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
@@ -713,7 +773,7 @@
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="16" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -722,7 +782,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -731,13 +791,28 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="8" fillId="16" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="17" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="18" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="19" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2726,673 +2801,673 @@
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="41"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="41"/>
-      <c r="BK12" s="41"/>
-      <c r="BL12" s="41"/>
-      <c r="BM12" s="41"/>
-      <c r="BN12" s="41"/>
-      <c r="BO12" s="41"/>
-      <c r="BP12" s="41"/>
-      <c r="BQ12" s="41"/>
-      <c r="BR12" s="41"/>
-      <c r="BS12" s="41"/>
-      <c r="BT12" s="41"/>
-      <c r="BU12" s="41"/>
-      <c r="BV12" s="41"/>
-      <c r="BW12" s="41"/>
-      <c r="BX12" s="41"/>
-      <c r="BY12" s="41"/>
-      <c r="BZ12" s="43"/>
-      <c r="CA12" s="43"/>
-      <c r="CB12" s="43"/>
-      <c r="CC12" s="43"/>
-      <c r="CD12" s="41"/>
-      <c r="CE12" s="41"/>
-      <c r="CF12" s="41"/>
-      <c r="CG12" s="41"/>
-      <c r="CH12" s="41"/>
-      <c r="CI12" s="41"/>
-      <c r="CJ12" s="41"/>
-      <c r="CK12" s="41"/>
-      <c r="CL12" s="41"/>
-      <c r="CM12" s="41"/>
-      <c r="CN12" s="41"/>
-      <c r="CO12" s="41"/>
-      <c r="CP12" s="41"/>
-      <c r="CQ12" s="41"/>
-      <c r="CR12" s="41"/>
-      <c r="CS12" s="41"/>
-      <c r="CT12" s="41"/>
-      <c r="CU12" s="41"/>
-      <c r="CV12" s="41"/>
-      <c r="CW12" s="41"/>
-      <c r="CX12" s="41"/>
-      <c r="CY12" s="41"/>
-      <c r="CZ12" s="41"/>
-      <c r="DA12" s="41"/>
-      <c r="DB12" s="41"/>
-      <c r="DC12" s="41"/>
-      <c r="DD12" s="41"/>
-      <c r="DE12" s="41"/>
-      <c r="DF12" s="41"/>
-      <c r="DG12" s="41"/>
-      <c r="DH12" s="41"/>
-      <c r="DI12" s="41"/>
-      <c r="DJ12" s="41"/>
-      <c r="DK12" s="41"/>
-      <c r="DL12" s="41"/>
-      <c r="DM12" s="41"/>
-      <c r="DN12" s="41"/>
-      <c r="DO12" s="41"/>
-      <c r="DP12" s="41"/>
-      <c r="DQ12" s="41"/>
-      <c r="DR12" s="41"/>
-      <c r="DS12" s="41"/>
-      <c r="DT12" s="41"/>
-      <c r="DU12" s="41"/>
-      <c r="DV12" s="41"/>
-      <c r="DW12" s="41"/>
-      <c r="DX12" s="41"/>
-      <c r="DY12" s="41"/>
-      <c r="DZ12" s="41"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="42"/>
+      <c r="BN12" s="42"/>
+      <c r="BO12" s="42"/>
+      <c r="BP12" s="42"/>
+      <c r="BQ12" s="42"/>
+      <c r="BR12" s="42"/>
+      <c r="BS12" s="42"/>
+      <c r="BT12" s="42"/>
+      <c r="BU12" s="42"/>
+      <c r="BV12" s="42"/>
+      <c r="BW12" s="42"/>
+      <c r="BX12" s="42"/>
+      <c r="BY12" s="42"/>
+      <c r="BZ12" s="44"/>
+      <c r="CA12" s="44"/>
+      <c r="CB12" s="44"/>
+      <c r="CC12" s="44"/>
+      <c r="CD12" s="42"/>
+      <c r="CE12" s="42"/>
+      <c r="CF12" s="42"/>
+      <c r="CG12" s="42"/>
+      <c r="CH12" s="42"/>
+      <c r="CI12" s="42"/>
+      <c r="CJ12" s="42"/>
+      <c r="CK12" s="42"/>
+      <c r="CL12" s="42"/>
+      <c r="CM12" s="42"/>
+      <c r="CN12" s="42"/>
+      <c r="CO12" s="42"/>
+      <c r="CP12" s="42"/>
+      <c r="CQ12" s="42"/>
+      <c r="CR12" s="42"/>
+      <c r="CS12" s="42"/>
+      <c r="CT12" s="42"/>
+      <c r="CU12" s="42"/>
+      <c r="CV12" s="42"/>
+      <c r="CW12" s="42"/>
+      <c r="CX12" s="42"/>
+      <c r="CY12" s="42"/>
+      <c r="CZ12" s="42"/>
+      <c r="DA12" s="42"/>
+      <c r="DB12" s="42"/>
+      <c r="DC12" s="42"/>
+      <c r="DD12" s="42"/>
+      <c r="DE12" s="42"/>
+      <c r="DF12" s="42"/>
+      <c r="DG12" s="42"/>
+      <c r="DH12" s="42"/>
+      <c r="DI12" s="42"/>
+      <c r="DJ12" s="42"/>
+      <c r="DK12" s="42"/>
+      <c r="DL12" s="42"/>
+      <c r="DM12" s="42"/>
+      <c r="DN12" s="42"/>
+      <c r="DO12" s="42"/>
+      <c r="DP12" s="42"/>
+      <c r="DQ12" s="42"/>
+      <c r="DR12" s="42"/>
+      <c r="DS12" s="42"/>
+      <c r="DT12" s="42"/>
+      <c r="DU12" s="42"/>
+      <c r="DV12" s="42"/>
+      <c r="DW12" s="42"/>
+      <c r="DX12" s="42"/>
+      <c r="DY12" s="42"/>
+      <c r="DZ12" s="42"/>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="41"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="41"/>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="41"/>
-      <c r="BI13" s="41"/>
-      <c r="BJ13" s="41"/>
-      <c r="BK13" s="41"/>
-      <c r="BL13" s="41"/>
-      <c r="BM13" s="41"/>
-      <c r="BN13" s="41"/>
-      <c r="BO13" s="41"/>
-      <c r="BP13" s="41"/>
-      <c r="BQ13" s="41"/>
-      <c r="BR13" s="41"/>
-      <c r="BS13" s="41"/>
-      <c r="BT13" s="41"/>
-      <c r="BU13" s="41"/>
-      <c r="BV13" s="41"/>
-      <c r="BW13" s="41"/>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="43"/>
-      <c r="CA13" s="43"/>
-      <c r="CB13" s="43"/>
-      <c r="CC13" s="43"/>
-      <c r="CD13" s="41"/>
-      <c r="CE13" s="41"/>
-      <c r="CF13" s="41"/>
-      <c r="CG13" s="41"/>
-      <c r="CH13" s="41"/>
-      <c r="CI13" s="41"/>
-      <c r="CJ13" s="41"/>
-      <c r="CK13" s="41"/>
-      <c r="CL13" s="41"/>
-      <c r="CM13" s="41"/>
-      <c r="CN13" s="41"/>
-      <c r="CO13" s="41"/>
-      <c r="CP13" s="41"/>
-      <c r="CQ13" s="41"/>
-      <c r="CR13" s="41"/>
-      <c r="CS13" s="41"/>
-      <c r="CT13" s="41"/>
-      <c r="CU13" s="41"/>
-      <c r="CV13" s="41"/>
-      <c r="CW13" s="41"/>
-      <c r="CX13" s="41"/>
-      <c r="CY13" s="41"/>
-      <c r="CZ13" s="41"/>
-      <c r="DA13" s="41"/>
-      <c r="DB13" s="41"/>
-      <c r="DC13" s="41"/>
-      <c r="DD13" s="41"/>
-      <c r="DE13" s="41"/>
-      <c r="DF13" s="41"/>
-      <c r="DG13" s="41"/>
-      <c r="DH13" s="41"/>
-      <c r="DI13" s="41"/>
-      <c r="DJ13" s="41"/>
-      <c r="DK13" s="41"/>
-      <c r="DL13" s="41"/>
-      <c r="DM13" s="41"/>
-      <c r="DN13" s="41"/>
-      <c r="DO13" s="41"/>
-      <c r="DP13" s="41"/>
-      <c r="DQ13" s="41"/>
-      <c r="DR13" s="41"/>
-      <c r="DS13" s="41"/>
-      <c r="DT13" s="41"/>
-      <c r="DU13" s="41"/>
-      <c r="DV13" s="41"/>
-      <c r="DW13" s="41"/>
-      <c r="DX13" s="41"/>
-      <c r="DY13" s="41"/>
-      <c r="DZ13" s="41"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="42"/>
+      <c r="AV13" s="42"/>
+      <c r="AW13" s="42"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="42"/>
+      <c r="BF13" s="42"/>
+      <c r="BG13" s="42"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="42"/>
+      <c r="BJ13" s="42"/>
+      <c r="BK13" s="42"/>
+      <c r="BL13" s="42"/>
+      <c r="BM13" s="42"/>
+      <c r="BN13" s="42"/>
+      <c r="BO13" s="42"/>
+      <c r="BP13" s="42"/>
+      <c r="BQ13" s="42"/>
+      <c r="BR13" s="42"/>
+      <c r="BS13" s="42"/>
+      <c r="BT13" s="42"/>
+      <c r="BU13" s="42"/>
+      <c r="BV13" s="42"/>
+      <c r="BW13" s="42"/>
+      <c r="BX13" s="42"/>
+      <c r="BY13" s="42"/>
+      <c r="BZ13" s="44"/>
+      <c r="CA13" s="44"/>
+      <c r="CB13" s="44"/>
+      <c r="CC13" s="44"/>
+      <c r="CD13" s="42"/>
+      <c r="CE13" s="42"/>
+      <c r="CF13" s="42"/>
+      <c r="CG13" s="42"/>
+      <c r="CH13" s="42"/>
+      <c r="CI13" s="42"/>
+      <c r="CJ13" s="42"/>
+      <c r="CK13" s="42"/>
+      <c r="CL13" s="42"/>
+      <c r="CM13" s="42"/>
+      <c r="CN13" s="42"/>
+      <c r="CO13" s="42"/>
+      <c r="CP13" s="42"/>
+      <c r="CQ13" s="42"/>
+      <c r="CR13" s="42"/>
+      <c r="CS13" s="42"/>
+      <c r="CT13" s="42"/>
+      <c r="CU13" s="42"/>
+      <c r="CV13" s="42"/>
+      <c r="CW13" s="42"/>
+      <c r="CX13" s="42"/>
+      <c r="CY13" s="42"/>
+      <c r="CZ13" s="42"/>
+      <c r="DA13" s="42"/>
+      <c r="DB13" s="42"/>
+      <c r="DC13" s="42"/>
+      <c r="DD13" s="42"/>
+      <c r="DE13" s="42"/>
+      <c r="DF13" s="42"/>
+      <c r="DG13" s="42"/>
+      <c r="DH13" s="42"/>
+      <c r="DI13" s="42"/>
+      <c r="DJ13" s="42"/>
+      <c r="DK13" s="42"/>
+      <c r="DL13" s="42"/>
+      <c r="DM13" s="42"/>
+      <c r="DN13" s="42"/>
+      <c r="DO13" s="42"/>
+      <c r="DP13" s="42"/>
+      <c r="DQ13" s="42"/>
+      <c r="DR13" s="42"/>
+      <c r="DS13" s="42"/>
+      <c r="DT13" s="42"/>
+      <c r="DU13" s="42"/>
+      <c r="DV13" s="42"/>
+      <c r="DW13" s="42"/>
+      <c r="DX13" s="42"/>
+      <c r="DY13" s="42"/>
+      <c r="DZ13" s="42"/>
     </row>
     <row r="14">
       <c r="A14" s="5"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="41"/>
-      <c r="BI14" s="41"/>
-      <c r="BJ14" s="41"/>
-      <c r="BK14" s="41"/>
-      <c r="BL14" s="41"/>
-      <c r="BM14" s="41"/>
-      <c r="BN14" s="41"/>
-      <c r="BO14" s="41"/>
-      <c r="BP14" s="41"/>
-      <c r="BQ14" s="41"/>
-      <c r="BR14" s="41"/>
-      <c r="BS14" s="41"/>
-      <c r="BT14" s="41"/>
-      <c r="BU14" s="41"/>
-      <c r="BV14" s="41"/>
-      <c r="BW14" s="41"/>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="41"/>
-      <c r="BZ14" s="43"/>
-      <c r="CA14" s="43"/>
-      <c r="CB14" s="43"/>
-      <c r="CC14" s="43"/>
-      <c r="CD14" s="41"/>
-      <c r="CE14" s="41"/>
-      <c r="CF14" s="41"/>
-      <c r="CG14" s="41"/>
-      <c r="CH14" s="41"/>
-      <c r="CI14" s="41"/>
-      <c r="CJ14" s="41"/>
-      <c r="CK14" s="41"/>
-      <c r="CL14" s="41"/>
-      <c r="CM14" s="41"/>
-      <c r="CN14" s="41"/>
-      <c r="CO14" s="41"/>
-      <c r="CP14" s="41"/>
-      <c r="CQ14" s="41"/>
-      <c r="CR14" s="41"/>
-      <c r="CS14" s="41"/>
-      <c r="CT14" s="41"/>
-      <c r="CU14" s="41"/>
-      <c r="CV14" s="41"/>
-      <c r="CW14" s="41"/>
-      <c r="CX14" s="41"/>
-      <c r="CY14" s="41"/>
-      <c r="CZ14" s="41"/>
-      <c r="DA14" s="41"/>
-      <c r="DB14" s="41"/>
-      <c r="DC14" s="41"/>
-      <c r="DD14" s="41"/>
-      <c r="DE14" s="41"/>
-      <c r="DF14" s="41"/>
-      <c r="DG14" s="41"/>
-      <c r="DH14" s="41"/>
-      <c r="DI14" s="41"/>
-      <c r="DJ14" s="41"/>
-      <c r="DK14" s="41"/>
-      <c r="DL14" s="41"/>
-      <c r="DM14" s="41"/>
-      <c r="DN14" s="41"/>
-      <c r="DO14" s="41"/>
-      <c r="DP14" s="41"/>
-      <c r="DQ14" s="41"/>
-      <c r="DR14" s="41"/>
-      <c r="DS14" s="41"/>
-      <c r="DT14" s="41"/>
-      <c r="DU14" s="41"/>
-      <c r="DV14" s="41"/>
-      <c r="DW14" s="41"/>
-      <c r="DX14" s="41"/>
-      <c r="DY14" s="41"/>
-      <c r="DZ14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="42"/>
+      <c r="BL14" s="42"/>
+      <c r="BM14" s="42"/>
+      <c r="BN14" s="42"/>
+      <c r="BO14" s="42"/>
+      <c r="BP14" s="42"/>
+      <c r="BQ14" s="42"/>
+      <c r="BR14" s="42"/>
+      <c r="BS14" s="42"/>
+      <c r="BT14" s="42"/>
+      <c r="BU14" s="42"/>
+      <c r="BV14" s="42"/>
+      <c r="BW14" s="42"/>
+      <c r="BX14" s="42"/>
+      <c r="BY14" s="42"/>
+      <c r="BZ14" s="44"/>
+      <c r="CA14" s="44"/>
+      <c r="CB14" s="44"/>
+      <c r="CC14" s="44"/>
+      <c r="CD14" s="42"/>
+      <c r="CE14" s="42"/>
+      <c r="CF14" s="42"/>
+      <c r="CG14" s="42"/>
+      <c r="CH14" s="42"/>
+      <c r="CI14" s="42"/>
+      <c r="CJ14" s="42"/>
+      <c r="CK14" s="42"/>
+      <c r="CL14" s="42"/>
+      <c r="CM14" s="42"/>
+      <c r="CN14" s="42"/>
+      <c r="CO14" s="42"/>
+      <c r="CP14" s="42"/>
+      <c r="CQ14" s="42"/>
+      <c r="CR14" s="42"/>
+      <c r="CS14" s="42"/>
+      <c r="CT14" s="42"/>
+      <c r="CU14" s="42"/>
+      <c r="CV14" s="42"/>
+      <c r="CW14" s="42"/>
+      <c r="CX14" s="42"/>
+      <c r="CY14" s="42"/>
+      <c r="CZ14" s="42"/>
+      <c r="DA14" s="42"/>
+      <c r="DB14" s="42"/>
+      <c r="DC14" s="42"/>
+      <c r="DD14" s="42"/>
+      <c r="DE14" s="42"/>
+      <c r="DF14" s="42"/>
+      <c r="DG14" s="42"/>
+      <c r="DH14" s="42"/>
+      <c r="DI14" s="42"/>
+      <c r="DJ14" s="42"/>
+      <c r="DK14" s="42"/>
+      <c r="DL14" s="42"/>
+      <c r="DM14" s="42"/>
+      <c r="DN14" s="42"/>
+      <c r="DO14" s="42"/>
+      <c r="DP14" s="42"/>
+      <c r="DQ14" s="42"/>
+      <c r="DR14" s="42"/>
+      <c r="DS14" s="42"/>
+      <c r="DT14" s="42"/>
+      <c r="DU14" s="42"/>
+      <c r="DV14" s="42"/>
+      <c r="DW14" s="42"/>
+      <c r="DX14" s="42"/>
+      <c r="DY14" s="42"/>
+      <c r="DZ14" s="42"/>
     </row>
     <row r="15">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="41"/>
-      <c r="BI15" s="41"/>
-      <c r="BJ15" s="41"/>
-      <c r="BK15" s="41"/>
-      <c r="BL15" s="41"/>
-      <c r="BM15" s="41"/>
-      <c r="BN15" s="41"/>
-      <c r="BO15" s="41"/>
-      <c r="BP15" s="41"/>
-      <c r="BQ15" s="41"/>
-      <c r="BR15" s="41"/>
-      <c r="BS15" s="41"/>
-      <c r="BT15" s="41"/>
-      <c r="BU15" s="41"/>
-      <c r="BV15" s="41"/>
-      <c r="BW15" s="41"/>
-      <c r="BX15" s="41"/>
-      <c r="BY15" s="41"/>
-      <c r="BZ15" s="43"/>
-      <c r="CA15" s="43"/>
-      <c r="CB15" s="43"/>
-      <c r="CC15" s="43"/>
-      <c r="CD15" s="41"/>
-      <c r="CE15" s="41"/>
-      <c r="CF15" s="41"/>
-      <c r="CG15" s="41"/>
-      <c r="CH15" s="41"/>
-      <c r="CI15" s="41"/>
-      <c r="CJ15" s="41"/>
-      <c r="CK15" s="41"/>
-      <c r="CL15" s="41"/>
-      <c r="CM15" s="41"/>
-      <c r="CN15" s="41"/>
-      <c r="CO15" s="41"/>
-      <c r="CP15" s="41"/>
-      <c r="CQ15" s="41"/>
-      <c r="CR15" s="41"/>
-      <c r="CS15" s="41"/>
-      <c r="CT15" s="41"/>
-      <c r="CU15" s="41"/>
-      <c r="CV15" s="41"/>
-      <c r="CW15" s="41"/>
-      <c r="CX15" s="41"/>
-      <c r="CY15" s="41"/>
-      <c r="CZ15" s="41"/>
-      <c r="DA15" s="41"/>
-      <c r="DB15" s="41"/>
-      <c r="DC15" s="41"/>
-      <c r="DD15" s="41"/>
-      <c r="DE15" s="41"/>
-      <c r="DF15" s="41"/>
-      <c r="DG15" s="41"/>
-      <c r="DH15" s="41"/>
-      <c r="DI15" s="41"/>
-      <c r="DJ15" s="41"/>
-      <c r="DK15" s="41"/>
-      <c r="DL15" s="41"/>
-      <c r="DM15" s="41"/>
-      <c r="DN15" s="41"/>
-      <c r="DO15" s="41"/>
-      <c r="DP15" s="41"/>
-      <c r="DQ15" s="41"/>
-      <c r="DR15" s="41"/>
-      <c r="DS15" s="41"/>
-      <c r="DT15" s="41"/>
-      <c r="DU15" s="41"/>
-      <c r="DV15" s="41"/>
-      <c r="DW15" s="41"/>
-      <c r="DX15" s="41"/>
-      <c r="DY15" s="41"/>
-      <c r="DZ15" s="41"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="42"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="42"/>
+      <c r="BC15" s="42"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="42"/>
+      <c r="BG15" s="42"/>
+      <c r="BH15" s="42"/>
+      <c r="BI15" s="42"/>
+      <c r="BJ15" s="42"/>
+      <c r="BK15" s="42"/>
+      <c r="BL15" s="42"/>
+      <c r="BM15" s="42"/>
+      <c r="BN15" s="42"/>
+      <c r="BO15" s="42"/>
+      <c r="BP15" s="42"/>
+      <c r="BQ15" s="42"/>
+      <c r="BR15" s="42"/>
+      <c r="BS15" s="42"/>
+      <c r="BT15" s="42"/>
+      <c r="BU15" s="42"/>
+      <c r="BV15" s="42"/>
+      <c r="BW15" s="42"/>
+      <c r="BX15" s="42"/>
+      <c r="BY15" s="42"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="44"/>
+      <c r="CB15" s="44"/>
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="42"/>
+      <c r="CE15" s="42"/>
+      <c r="CF15" s="42"/>
+      <c r="CG15" s="42"/>
+      <c r="CH15" s="42"/>
+      <c r="CI15" s="42"/>
+      <c r="CJ15" s="42"/>
+      <c r="CK15" s="42"/>
+      <c r="CL15" s="42"/>
+      <c r="CM15" s="42"/>
+      <c r="CN15" s="42"/>
+      <c r="CO15" s="42"/>
+      <c r="CP15" s="42"/>
+      <c r="CQ15" s="42"/>
+      <c r="CR15" s="42"/>
+      <c r="CS15" s="42"/>
+      <c r="CT15" s="42"/>
+      <c r="CU15" s="42"/>
+      <c r="CV15" s="42"/>
+      <c r="CW15" s="42"/>
+      <c r="CX15" s="42"/>
+      <c r="CY15" s="42"/>
+      <c r="CZ15" s="42"/>
+      <c r="DA15" s="42"/>
+      <c r="DB15" s="42"/>
+      <c r="DC15" s="42"/>
+      <c r="DD15" s="42"/>
+      <c r="DE15" s="42"/>
+      <c r="DF15" s="42"/>
+      <c r="DG15" s="42"/>
+      <c r="DH15" s="42"/>
+      <c r="DI15" s="42"/>
+      <c r="DJ15" s="42"/>
+      <c r="DK15" s="42"/>
+      <c r="DL15" s="42"/>
+      <c r="DM15" s="42"/>
+      <c r="DN15" s="42"/>
+      <c r="DO15" s="42"/>
+      <c r="DP15" s="42"/>
+      <c r="DQ15" s="42"/>
+      <c r="DR15" s="42"/>
+      <c r="DS15" s="42"/>
+      <c r="DT15" s="42"/>
+      <c r="DU15" s="42"/>
+      <c r="DV15" s="42"/>
+      <c r="DW15" s="42"/>
+      <c r="DX15" s="42"/>
+      <c r="DY15" s="42"/>
+      <c r="DZ15" s="42"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="48" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="41"/>
-      <c r="BF16" s="41"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="41"/>
-      <c r="BI16" s="41"/>
-      <c r="BJ16" s="41"/>
-      <c r="BK16" s="41"/>
-      <c r="BL16" s="41"/>
-      <c r="BM16" s="41"/>
-      <c r="BN16" s="41"/>
-      <c r="BO16" s="41"/>
-      <c r="BP16" s="41"/>
-      <c r="BQ16" s="41"/>
-      <c r="BR16" s="41"/>
-      <c r="BS16" s="41"/>
-      <c r="BT16" s="41"/>
-      <c r="BU16" s="41"/>
-      <c r="BV16" s="41"/>
-      <c r="BW16" s="41"/>
-      <c r="BX16" s="41"/>
-      <c r="BY16" s="41"/>
-      <c r="BZ16" s="41"/>
-      <c r="CA16" s="41"/>
-      <c r="CB16" s="41"/>
-      <c r="CC16" s="41"/>
-      <c r="CD16" s="41"/>
-      <c r="CE16" s="41"/>
-      <c r="CF16" s="41"/>
-      <c r="CG16" s="41"/>
-      <c r="CH16" s="41"/>
-      <c r="CI16" s="41"/>
-      <c r="CJ16" s="41"/>
-      <c r="CK16" s="41"/>
-      <c r="CL16" s="41"/>
-      <c r="CM16" s="41"/>
-      <c r="CN16" s="41"/>
-      <c r="CO16" s="41"/>
-      <c r="CP16" s="41"/>
-      <c r="CQ16" s="41"/>
-      <c r="CR16" s="41"/>
-      <c r="CS16" s="41"/>
-      <c r="CT16" s="41"/>
-      <c r="CU16" s="41"/>
-      <c r="CV16" s="41"/>
-      <c r="CW16" s="41"/>
-      <c r="CX16" s="41"/>
-      <c r="CY16" s="41"/>
-      <c r="CZ16" s="41"/>
-      <c r="DA16" s="41"/>
-      <c r="DB16" s="41"/>
-      <c r="DC16" s="41"/>
-      <c r="DD16" s="41"/>
-      <c r="DE16" s="41"/>
-      <c r="DF16" s="41"/>
-      <c r="DG16" s="41"/>
-      <c r="DH16" s="41"/>
-      <c r="DI16" s="41"/>
-      <c r="DJ16" s="41"/>
-      <c r="DK16" s="41"/>
-      <c r="DL16" s="41"/>
-      <c r="DM16" s="41"/>
-      <c r="DN16" s="41"/>
-      <c r="DO16" s="41"/>
-      <c r="DP16" s="41"/>
-      <c r="DQ16" s="41"/>
-      <c r="DR16" s="41"/>
-      <c r="DS16" s="41"/>
-      <c r="DT16" s="41"/>
-      <c r="DU16" s="41"/>
-      <c r="DV16" s="41"/>
-      <c r="DW16" s="41"/>
-      <c r="DX16" s="41"/>
-      <c r="DY16" s="41"/>
-      <c r="DZ16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="42"/>
+      <c r="BG16" s="42"/>
+      <c r="BH16" s="42"/>
+      <c r="BI16" s="42"/>
+      <c r="BJ16" s="42"/>
+      <c r="BK16" s="42"/>
+      <c r="BL16" s="42"/>
+      <c r="BM16" s="42"/>
+      <c r="BN16" s="42"/>
+      <c r="BO16" s="42"/>
+      <c r="BP16" s="42"/>
+      <c r="BQ16" s="42"/>
+      <c r="BR16" s="42"/>
+      <c r="BS16" s="42"/>
+      <c r="BT16" s="42"/>
+      <c r="BU16" s="42"/>
+      <c r="BV16" s="42"/>
+      <c r="BW16" s="42"/>
+      <c r="BX16" s="42"/>
+      <c r="BY16" s="42"/>
+      <c r="BZ16" s="42"/>
+      <c r="CA16" s="42"/>
+      <c r="CB16" s="42"/>
+      <c r="CC16" s="42"/>
+      <c r="CD16" s="42"/>
+      <c r="CE16" s="42"/>
+      <c r="CF16" s="42"/>
+      <c r="CG16" s="42"/>
+      <c r="CH16" s="42"/>
+      <c r="CI16" s="42"/>
+      <c r="CJ16" s="42"/>
+      <c r="CK16" s="42"/>
+      <c r="CL16" s="42"/>
+      <c r="CM16" s="42"/>
+      <c r="CN16" s="42"/>
+      <c r="CO16" s="42"/>
+      <c r="CP16" s="42"/>
+      <c r="CQ16" s="42"/>
+      <c r="CR16" s="42"/>
+      <c r="CS16" s="42"/>
+      <c r="CT16" s="42"/>
+      <c r="CU16" s="42"/>
+      <c r="CV16" s="42"/>
+      <c r="CW16" s="42"/>
+      <c r="CX16" s="42"/>
+      <c r="CY16" s="42"/>
+      <c r="CZ16" s="42"/>
+      <c r="DA16" s="42"/>
+      <c r="DB16" s="42"/>
+      <c r="DC16" s="42"/>
+      <c r="DD16" s="42"/>
+      <c r="DE16" s="42"/>
+      <c r="DF16" s="42"/>
+      <c r="DG16" s="42"/>
+      <c r="DH16" s="42"/>
+      <c r="DI16" s="42"/>
+      <c r="DJ16" s="42"/>
+      <c r="DK16" s="42"/>
+      <c r="DL16" s="42"/>
+      <c r="DM16" s="42"/>
+      <c r="DN16" s="42"/>
+      <c r="DO16" s="42"/>
+      <c r="DP16" s="42"/>
+      <c r="DQ16" s="42"/>
+      <c r="DR16" s="42"/>
+      <c r="DS16" s="42"/>
+      <c r="DT16" s="42"/>
+      <c r="DU16" s="42"/>
+      <c r="DV16" s="42"/>
+      <c r="DW16" s="42"/>
+      <c r="DX16" s="42"/>
+      <c r="DY16" s="42"/>
+      <c r="DZ16" s="42"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -3523,808 +3598,808 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
       <c r="O18" s="38"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
-      <c r="AZ18" s="41"/>
-      <c r="BA18" s="41"/>
-      <c r="BB18" s="41"/>
-      <c r="BC18" s="41"/>
-      <c r="BD18" s="41"/>
-      <c r="BE18" s="41"/>
-      <c r="BF18" s="41"/>
-      <c r="BG18" s="41"/>
-      <c r="BH18" s="41"/>
-      <c r="BI18" s="41"/>
-      <c r="BJ18" s="41"/>
-      <c r="BK18" s="41"/>
-      <c r="BL18" s="41"/>
-      <c r="BM18" s="41"/>
-      <c r="BN18" s="41"/>
-      <c r="BO18" s="41"/>
-      <c r="BP18" s="41"/>
-      <c r="BQ18" s="41"/>
-      <c r="BR18" s="41"/>
-      <c r="BS18" s="41"/>
-      <c r="BT18" s="41"/>
-      <c r="BU18" s="41"/>
-      <c r="BV18" s="41"/>
-      <c r="BW18" s="41"/>
-      <c r="BX18" s="41"/>
-      <c r="BY18" s="41"/>
-      <c r="BZ18" s="41"/>
-      <c r="CA18" s="41"/>
-      <c r="CB18" s="41"/>
-      <c r="CC18" s="41"/>
-      <c r="CD18" s="41"/>
-      <c r="CE18" s="41"/>
-      <c r="CF18" s="41"/>
-      <c r="CG18" s="41"/>
-      <c r="CH18" s="41"/>
-      <c r="CI18" s="41"/>
-      <c r="CJ18" s="41"/>
-      <c r="CK18" s="41"/>
-      <c r="CL18" s="41"/>
-      <c r="CM18" s="41"/>
-      <c r="CN18" s="41"/>
-      <c r="CO18" s="41"/>
-      <c r="CP18" s="41"/>
-      <c r="CQ18" s="41"/>
-      <c r="CR18" s="41"/>
-      <c r="CS18" s="41"/>
-      <c r="CT18" s="41"/>
-      <c r="CU18" s="41"/>
-      <c r="CV18" s="41"/>
-      <c r="CW18" s="41"/>
-      <c r="CX18" s="41"/>
-      <c r="CY18" s="41"/>
-      <c r="CZ18" s="41"/>
-      <c r="DA18" s="41"/>
-      <c r="DB18" s="41"/>
-      <c r="DC18" s="41"/>
-      <c r="DD18" s="41"/>
-      <c r="DE18" s="41"/>
-      <c r="DF18" s="41"/>
-      <c r="DG18" s="41"/>
-      <c r="DH18" s="41"/>
-      <c r="DI18" s="41"/>
-      <c r="DJ18" s="41"/>
-      <c r="DK18" s="41"/>
-      <c r="DL18" s="41"/>
-      <c r="DM18" s="41"/>
-      <c r="DN18" s="41"/>
-      <c r="DO18" s="41"/>
-      <c r="DP18" s="41"/>
-      <c r="DQ18" s="41"/>
-      <c r="DR18" s="41"/>
-      <c r="DS18" s="41"/>
-      <c r="DT18" s="41"/>
-      <c r="DU18" s="41"/>
-      <c r="DV18" s="41"/>
-      <c r="DW18" s="41"/>
-      <c r="DX18" s="41"/>
-      <c r="DY18" s="41"/>
-      <c r="DZ18" s="41"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="42"/>
+      <c r="BM18" s="42"/>
+      <c r="BN18" s="42"/>
+      <c r="BO18" s="42"/>
+      <c r="BP18" s="42"/>
+      <c r="BQ18" s="42"/>
+      <c r="BR18" s="42"/>
+      <c r="BS18" s="42"/>
+      <c r="BT18" s="42"/>
+      <c r="BU18" s="42"/>
+      <c r="BV18" s="42"/>
+      <c r="BW18" s="42"/>
+      <c r="BX18" s="42"/>
+      <c r="BY18" s="42"/>
+      <c r="BZ18" s="42"/>
+      <c r="CA18" s="42"/>
+      <c r="CB18" s="42"/>
+      <c r="CC18" s="42"/>
+      <c r="CD18" s="42"/>
+      <c r="CE18" s="42"/>
+      <c r="CF18" s="42"/>
+      <c r="CG18" s="42"/>
+      <c r="CH18" s="42"/>
+      <c r="CI18" s="42"/>
+      <c r="CJ18" s="42"/>
+      <c r="CK18" s="42"/>
+      <c r="CL18" s="42"/>
+      <c r="CM18" s="42"/>
+      <c r="CN18" s="42"/>
+      <c r="CO18" s="42"/>
+      <c r="CP18" s="42"/>
+      <c r="CQ18" s="42"/>
+      <c r="CR18" s="42"/>
+      <c r="CS18" s="42"/>
+      <c r="CT18" s="42"/>
+      <c r="CU18" s="42"/>
+      <c r="CV18" s="42"/>
+      <c r="CW18" s="42"/>
+      <c r="CX18" s="42"/>
+      <c r="CY18" s="42"/>
+      <c r="CZ18" s="42"/>
+      <c r="DA18" s="42"/>
+      <c r="DB18" s="42"/>
+      <c r="DC18" s="42"/>
+      <c r="DD18" s="42"/>
+      <c r="DE18" s="42"/>
+      <c r="DF18" s="42"/>
+      <c r="DG18" s="42"/>
+      <c r="DH18" s="42"/>
+      <c r="DI18" s="42"/>
+      <c r="DJ18" s="42"/>
+      <c r="DK18" s="42"/>
+      <c r="DL18" s="42"/>
+      <c r="DM18" s="42"/>
+      <c r="DN18" s="42"/>
+      <c r="DO18" s="42"/>
+      <c r="DP18" s="42"/>
+      <c r="DQ18" s="42"/>
+      <c r="DR18" s="42"/>
+      <c r="DS18" s="42"/>
+      <c r="DT18" s="42"/>
+      <c r="DU18" s="42"/>
+      <c r="DV18" s="42"/>
+      <c r="DW18" s="42"/>
+      <c r="DX18" s="42"/>
+      <c r="DY18" s="42"/>
+      <c r="DZ18" s="42"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="38"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="41"/>
-      <c r="BA19" s="41"/>
-      <c r="BB19" s="41"/>
-      <c r="BC19" s="41"/>
-      <c r="BD19" s="41"/>
-      <c r="BE19" s="41"/>
-      <c r="BF19" s="41"/>
-      <c r="BG19" s="41"/>
-      <c r="BH19" s="41"/>
-      <c r="BI19" s="41"/>
-      <c r="BJ19" s="41"/>
-      <c r="BK19" s="41"/>
-      <c r="BL19" s="41"/>
-      <c r="BM19" s="41"/>
-      <c r="BN19" s="41"/>
-      <c r="BO19" s="41"/>
-      <c r="BP19" s="41"/>
-      <c r="BQ19" s="41"/>
-      <c r="BR19" s="41"/>
-      <c r="BS19" s="41"/>
-      <c r="BT19" s="41"/>
-      <c r="BU19" s="41"/>
-      <c r="BV19" s="41"/>
-      <c r="BW19" s="41"/>
-      <c r="BX19" s="41"/>
-      <c r="BY19" s="41"/>
-      <c r="BZ19" s="41"/>
-      <c r="CA19" s="41"/>
-      <c r="CB19" s="41"/>
-      <c r="CC19" s="41"/>
-      <c r="CD19" s="41"/>
-      <c r="CE19" s="41"/>
-      <c r="CF19" s="41"/>
-      <c r="CG19" s="41"/>
-      <c r="CH19" s="41"/>
-      <c r="CI19" s="41"/>
-      <c r="CJ19" s="41"/>
-      <c r="CK19" s="41"/>
-      <c r="CL19" s="41"/>
-      <c r="CM19" s="41"/>
-      <c r="CN19" s="41"/>
-      <c r="CO19" s="41"/>
-      <c r="CP19" s="41"/>
-      <c r="CQ19" s="41"/>
-      <c r="CR19" s="41"/>
-      <c r="CS19" s="41"/>
-      <c r="CT19" s="41"/>
-      <c r="CU19" s="41"/>
-      <c r="CV19" s="41"/>
-      <c r="CW19" s="41"/>
-      <c r="CX19" s="41"/>
-      <c r="CY19" s="41"/>
-      <c r="CZ19" s="41"/>
-      <c r="DA19" s="41"/>
-      <c r="DB19" s="41"/>
-      <c r="DC19" s="41"/>
-      <c r="DD19" s="41"/>
-      <c r="DE19" s="41"/>
-      <c r="DF19" s="41"/>
-      <c r="DG19" s="41"/>
-      <c r="DH19" s="41"/>
-      <c r="DI19" s="41"/>
-      <c r="DJ19" s="41"/>
-      <c r="DK19" s="41"/>
-      <c r="DL19" s="41"/>
-      <c r="DM19" s="41"/>
-      <c r="DN19" s="41"/>
-      <c r="DO19" s="41"/>
-      <c r="DP19" s="41"/>
-      <c r="DQ19" s="41"/>
-      <c r="DR19" s="41"/>
-      <c r="DS19" s="41"/>
-      <c r="DT19" s="41"/>
-      <c r="DU19" s="41"/>
-      <c r="DV19" s="41"/>
-      <c r="DW19" s="41"/>
-      <c r="DX19" s="41"/>
-      <c r="DY19" s="41"/>
-      <c r="DZ19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="42"/>
+      <c r="AX19" s="42"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="42"/>
+      <c r="BA19" s="42"/>
+      <c r="BB19" s="42"/>
+      <c r="BC19" s="42"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="42"/>
+      <c r="BG19" s="42"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="42"/>
+      <c r="BJ19" s="42"/>
+      <c r="BK19" s="42"/>
+      <c r="BL19" s="42"/>
+      <c r="BM19" s="42"/>
+      <c r="BN19" s="42"/>
+      <c r="BO19" s="42"/>
+      <c r="BP19" s="42"/>
+      <c r="BQ19" s="42"/>
+      <c r="BR19" s="42"/>
+      <c r="BS19" s="42"/>
+      <c r="BT19" s="42"/>
+      <c r="BU19" s="42"/>
+      <c r="BV19" s="42"/>
+      <c r="BW19" s="42"/>
+      <c r="BX19" s="42"/>
+      <c r="BY19" s="42"/>
+      <c r="BZ19" s="42"/>
+      <c r="CA19" s="42"/>
+      <c r="CB19" s="42"/>
+      <c r="CC19" s="42"/>
+      <c r="CD19" s="42"/>
+      <c r="CE19" s="42"/>
+      <c r="CF19" s="42"/>
+      <c r="CG19" s="42"/>
+      <c r="CH19" s="42"/>
+      <c r="CI19" s="42"/>
+      <c r="CJ19" s="42"/>
+      <c r="CK19" s="42"/>
+      <c r="CL19" s="42"/>
+      <c r="CM19" s="42"/>
+      <c r="CN19" s="42"/>
+      <c r="CO19" s="42"/>
+      <c r="CP19" s="42"/>
+      <c r="CQ19" s="42"/>
+      <c r="CR19" s="42"/>
+      <c r="CS19" s="42"/>
+      <c r="CT19" s="42"/>
+      <c r="CU19" s="42"/>
+      <c r="CV19" s="42"/>
+      <c r="CW19" s="42"/>
+      <c r="CX19" s="42"/>
+      <c r="CY19" s="42"/>
+      <c r="CZ19" s="42"/>
+      <c r="DA19" s="42"/>
+      <c r="DB19" s="42"/>
+      <c r="DC19" s="42"/>
+      <c r="DD19" s="42"/>
+      <c r="DE19" s="42"/>
+      <c r="DF19" s="42"/>
+      <c r="DG19" s="42"/>
+      <c r="DH19" s="42"/>
+      <c r="DI19" s="42"/>
+      <c r="DJ19" s="42"/>
+      <c r="DK19" s="42"/>
+      <c r="DL19" s="42"/>
+      <c r="DM19" s="42"/>
+      <c r="DN19" s="42"/>
+      <c r="DO19" s="42"/>
+      <c r="DP19" s="42"/>
+      <c r="DQ19" s="42"/>
+      <c r="DR19" s="42"/>
+      <c r="DS19" s="42"/>
+      <c r="DT19" s="42"/>
+      <c r="DU19" s="42"/>
+      <c r="DV19" s="42"/>
+      <c r="DW19" s="42"/>
+      <c r="DX19" s="42"/>
+      <c r="DY19" s="42"/>
+      <c r="DZ19" s="42"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
       <c r="P20" s="38"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="41"/>
-      <c r="AX20" s="41"/>
-      <c r="AY20" s="41"/>
-      <c r="AZ20" s="41"/>
-      <c r="BA20" s="41"/>
-      <c r="BB20" s="41"/>
-      <c r="BC20" s="41"/>
-      <c r="BD20" s="41"/>
-      <c r="BE20" s="41"/>
-      <c r="BF20" s="41"/>
-      <c r="BG20" s="41"/>
-      <c r="BH20" s="41"/>
-      <c r="BI20" s="41"/>
-      <c r="BJ20" s="41"/>
-      <c r="BK20" s="41"/>
-      <c r="BL20" s="41"/>
-      <c r="BM20" s="41"/>
-      <c r="BN20" s="41"/>
-      <c r="BO20" s="41"/>
-      <c r="BP20" s="41"/>
-      <c r="BQ20" s="41"/>
-      <c r="BR20" s="41"/>
-      <c r="BS20" s="41"/>
-      <c r="BT20" s="41"/>
-      <c r="BU20" s="41"/>
-      <c r="BV20" s="41"/>
-      <c r="BW20" s="41"/>
-      <c r="BX20" s="41"/>
-      <c r="BY20" s="41"/>
-      <c r="BZ20" s="41"/>
-      <c r="CA20" s="41"/>
-      <c r="CB20" s="41"/>
-      <c r="CC20" s="41"/>
-      <c r="CD20" s="41"/>
-      <c r="CE20" s="41"/>
-      <c r="CF20" s="41"/>
-      <c r="CG20" s="41"/>
-      <c r="CH20" s="41"/>
-      <c r="CI20" s="41"/>
-      <c r="CJ20" s="41"/>
-      <c r="CK20" s="41"/>
-      <c r="CL20" s="41"/>
-      <c r="CM20" s="41"/>
-      <c r="CN20" s="41"/>
-      <c r="CO20" s="41"/>
-      <c r="CP20" s="41"/>
-      <c r="CQ20" s="41"/>
-      <c r="CR20" s="41"/>
-      <c r="CS20" s="41"/>
-      <c r="CT20" s="41"/>
-      <c r="CU20" s="41"/>
-      <c r="CV20" s="41"/>
-      <c r="CW20" s="41"/>
-      <c r="CX20" s="41"/>
-      <c r="CY20" s="41"/>
-      <c r="CZ20" s="41"/>
-      <c r="DA20" s="41"/>
-      <c r="DB20" s="41"/>
-      <c r="DC20" s="41"/>
-      <c r="DD20" s="41"/>
-      <c r="DE20" s="41"/>
-      <c r="DF20" s="41"/>
-      <c r="DG20" s="41"/>
-      <c r="DH20" s="41"/>
-      <c r="DI20" s="41"/>
-      <c r="DJ20" s="41"/>
-      <c r="DK20" s="41"/>
-      <c r="DL20" s="41"/>
-      <c r="DM20" s="41"/>
-      <c r="DN20" s="41"/>
-      <c r="DO20" s="41"/>
-      <c r="DP20" s="41"/>
-      <c r="DQ20" s="41"/>
-      <c r="DR20" s="41"/>
-      <c r="DS20" s="41"/>
-      <c r="DT20" s="41"/>
-      <c r="DU20" s="41"/>
-      <c r="DV20" s="41"/>
-      <c r="DW20" s="41"/>
-      <c r="DX20" s="41"/>
-      <c r="DY20" s="41"/>
-      <c r="DZ20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="42"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="42"/>
+      <c r="BG20" s="42"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="42"/>
+      <c r="BM20" s="42"/>
+      <c r="BN20" s="42"/>
+      <c r="BO20" s="42"/>
+      <c r="BP20" s="42"/>
+      <c r="BQ20" s="42"/>
+      <c r="BR20" s="42"/>
+      <c r="BS20" s="42"/>
+      <c r="BT20" s="42"/>
+      <c r="BU20" s="42"/>
+      <c r="BV20" s="42"/>
+      <c r="BW20" s="42"/>
+      <c r="BX20" s="42"/>
+      <c r="BY20" s="42"/>
+      <c r="BZ20" s="42"/>
+      <c r="CA20" s="42"/>
+      <c r="CB20" s="42"/>
+      <c r="CC20" s="42"/>
+      <c r="CD20" s="42"/>
+      <c r="CE20" s="42"/>
+      <c r="CF20" s="42"/>
+      <c r="CG20" s="42"/>
+      <c r="CH20" s="42"/>
+      <c r="CI20" s="42"/>
+      <c r="CJ20" s="42"/>
+      <c r="CK20" s="42"/>
+      <c r="CL20" s="42"/>
+      <c r="CM20" s="42"/>
+      <c r="CN20" s="42"/>
+      <c r="CO20" s="42"/>
+      <c r="CP20" s="42"/>
+      <c r="CQ20" s="42"/>
+      <c r="CR20" s="42"/>
+      <c r="CS20" s="42"/>
+      <c r="CT20" s="42"/>
+      <c r="CU20" s="42"/>
+      <c r="CV20" s="42"/>
+      <c r="CW20" s="42"/>
+      <c r="CX20" s="42"/>
+      <c r="CY20" s="42"/>
+      <c r="CZ20" s="42"/>
+      <c r="DA20" s="42"/>
+      <c r="DB20" s="42"/>
+      <c r="DC20" s="42"/>
+      <c r="DD20" s="42"/>
+      <c r="DE20" s="42"/>
+      <c r="DF20" s="42"/>
+      <c r="DG20" s="42"/>
+      <c r="DH20" s="42"/>
+      <c r="DI20" s="42"/>
+      <c r="DJ20" s="42"/>
+      <c r="DK20" s="42"/>
+      <c r="DL20" s="42"/>
+      <c r="DM20" s="42"/>
+      <c r="DN20" s="42"/>
+      <c r="DO20" s="42"/>
+      <c r="DP20" s="42"/>
+      <c r="DQ20" s="42"/>
+      <c r="DR20" s="42"/>
+      <c r="DS20" s="42"/>
+      <c r="DT20" s="42"/>
+      <c r="DU20" s="42"/>
+      <c r="DV20" s="42"/>
+      <c r="DW20" s="42"/>
+      <c r="DX20" s="42"/>
+      <c r="DY20" s="42"/>
+      <c r="DZ20" s="42"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41"/>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41"/>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="41"/>
-      <c r="BA21" s="41"/>
-      <c r="BB21" s="41"/>
-      <c r="BC21" s="41"/>
-      <c r="BD21" s="41"/>
-      <c r="BE21" s="41"/>
-      <c r="BF21" s="41"/>
-      <c r="BG21" s="41"/>
-      <c r="BH21" s="41"/>
-      <c r="BI21" s="41"/>
-      <c r="BJ21" s="41"/>
-      <c r="BK21" s="41"/>
-      <c r="BL21" s="41"/>
-      <c r="BM21" s="41"/>
-      <c r="BN21" s="41"/>
-      <c r="BO21" s="41"/>
-      <c r="BP21" s="41"/>
-      <c r="BQ21" s="41"/>
-      <c r="BR21" s="41"/>
-      <c r="BS21" s="41"/>
-      <c r="BT21" s="41"/>
-      <c r="BU21" s="41"/>
-      <c r="BV21" s="41"/>
-      <c r="BW21" s="41"/>
-      <c r="BX21" s="41"/>
-      <c r="BY21" s="41"/>
-      <c r="BZ21" s="41"/>
-      <c r="CA21" s="41"/>
-      <c r="CB21" s="41"/>
-      <c r="CC21" s="41"/>
-      <c r="CD21" s="41"/>
-      <c r="CE21" s="41"/>
-      <c r="CF21" s="41"/>
-      <c r="CG21" s="41"/>
-      <c r="CH21" s="41"/>
-      <c r="CI21" s="41"/>
-      <c r="CJ21" s="41"/>
-      <c r="CK21" s="41"/>
-      <c r="CL21" s="41"/>
-      <c r="CM21" s="41"/>
-      <c r="CN21" s="41"/>
-      <c r="CO21" s="41"/>
-      <c r="CP21" s="41"/>
-      <c r="CQ21" s="41"/>
-      <c r="CR21" s="41"/>
-      <c r="CS21" s="41"/>
-      <c r="CT21" s="41"/>
-      <c r="CU21" s="41"/>
-      <c r="CV21" s="41"/>
-      <c r="CW21" s="41"/>
-      <c r="CX21" s="41"/>
-      <c r="CY21" s="41"/>
-      <c r="CZ21" s="41"/>
-      <c r="DA21" s="41"/>
-      <c r="DB21" s="41"/>
-      <c r="DC21" s="41"/>
-      <c r="DD21" s="41"/>
-      <c r="DE21" s="41"/>
-      <c r="DF21" s="41"/>
-      <c r="DG21" s="41"/>
-      <c r="DH21" s="41"/>
-      <c r="DI21" s="41"/>
-      <c r="DJ21" s="41"/>
-      <c r="DK21" s="41"/>
-      <c r="DL21" s="41"/>
-      <c r="DM21" s="41"/>
-      <c r="DN21" s="41"/>
-      <c r="DO21" s="41"/>
-      <c r="DP21" s="41"/>
-      <c r="DQ21" s="41"/>
-      <c r="DR21" s="41"/>
-      <c r="DS21" s="41"/>
-      <c r="DT21" s="41"/>
-      <c r="DU21" s="41"/>
-      <c r="DV21" s="41"/>
-      <c r="DW21" s="41"/>
-      <c r="DX21" s="41"/>
-      <c r="DY21" s="41"/>
-      <c r="DZ21" s="41"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="42"/>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="42"/>
+      <c r="BG21" s="42"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="42"/>
+      <c r="BJ21" s="42"/>
+      <c r="BK21" s="42"/>
+      <c r="BL21" s="42"/>
+      <c r="BM21" s="42"/>
+      <c r="BN21" s="42"/>
+      <c r="BO21" s="42"/>
+      <c r="BP21" s="42"/>
+      <c r="BQ21" s="42"/>
+      <c r="BR21" s="42"/>
+      <c r="BS21" s="42"/>
+      <c r="BT21" s="42"/>
+      <c r="BU21" s="42"/>
+      <c r="BV21" s="42"/>
+      <c r="BW21" s="42"/>
+      <c r="BX21" s="42"/>
+      <c r="BY21" s="42"/>
+      <c r="BZ21" s="42"/>
+      <c r="CA21" s="42"/>
+      <c r="CB21" s="42"/>
+      <c r="CC21" s="42"/>
+      <c r="CD21" s="42"/>
+      <c r="CE21" s="42"/>
+      <c r="CF21" s="42"/>
+      <c r="CG21" s="42"/>
+      <c r="CH21" s="42"/>
+      <c r="CI21" s="42"/>
+      <c r="CJ21" s="42"/>
+      <c r="CK21" s="42"/>
+      <c r="CL21" s="42"/>
+      <c r="CM21" s="42"/>
+      <c r="CN21" s="42"/>
+      <c r="CO21" s="42"/>
+      <c r="CP21" s="42"/>
+      <c r="CQ21" s="42"/>
+      <c r="CR21" s="42"/>
+      <c r="CS21" s="42"/>
+      <c r="CT21" s="42"/>
+      <c r="CU21" s="42"/>
+      <c r="CV21" s="42"/>
+      <c r="CW21" s="42"/>
+      <c r="CX21" s="42"/>
+      <c r="CY21" s="42"/>
+      <c r="CZ21" s="42"/>
+      <c r="DA21" s="42"/>
+      <c r="DB21" s="42"/>
+      <c r="DC21" s="42"/>
+      <c r="DD21" s="42"/>
+      <c r="DE21" s="42"/>
+      <c r="DF21" s="42"/>
+      <c r="DG21" s="42"/>
+      <c r="DH21" s="42"/>
+      <c r="DI21" s="42"/>
+      <c r="DJ21" s="42"/>
+      <c r="DK21" s="42"/>
+      <c r="DL21" s="42"/>
+      <c r="DM21" s="42"/>
+      <c r="DN21" s="42"/>
+      <c r="DO21" s="42"/>
+      <c r="DP21" s="42"/>
+      <c r="DQ21" s="42"/>
+      <c r="DR21" s="42"/>
+      <c r="DS21" s="42"/>
+      <c r="DT21" s="42"/>
+      <c r="DU21" s="42"/>
+      <c r="DV21" s="42"/>
+      <c r="DW21" s="42"/>
+      <c r="DX21" s="42"/>
+      <c r="DY21" s="42"/>
+      <c r="DZ21" s="42"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="41"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="41"/>
-      <c r="AX22" s="41"/>
-      <c r="AY22" s="41"/>
-      <c r="AZ22" s="41"/>
-      <c r="BA22" s="41"/>
-      <c r="BB22" s="41"/>
-      <c r="BC22" s="41"/>
-      <c r="BD22" s="41"/>
-      <c r="BE22" s="41"/>
-      <c r="BF22" s="41"/>
-      <c r="BG22" s="41"/>
-      <c r="BH22" s="41"/>
-      <c r="BI22" s="41"/>
-      <c r="BJ22" s="41"/>
-      <c r="BK22" s="41"/>
-      <c r="BL22" s="41"/>
-      <c r="BM22" s="41"/>
-      <c r="BN22" s="41"/>
-      <c r="BO22" s="41"/>
-      <c r="BP22" s="41"/>
-      <c r="BQ22" s="41"/>
-      <c r="BR22" s="41"/>
-      <c r="BS22" s="41"/>
-      <c r="BT22" s="41"/>
-      <c r="BU22" s="41"/>
-      <c r="BV22" s="41"/>
-      <c r="BW22" s="41"/>
-      <c r="BX22" s="41"/>
-      <c r="BY22" s="41"/>
-      <c r="BZ22" s="41"/>
-      <c r="CA22" s="41"/>
-      <c r="CB22" s="41"/>
-      <c r="CC22" s="41"/>
-      <c r="CD22" s="41"/>
-      <c r="CE22" s="41"/>
-      <c r="CF22" s="41"/>
-      <c r="CG22" s="41"/>
-      <c r="CH22" s="41"/>
-      <c r="CI22" s="41"/>
-      <c r="CJ22" s="41"/>
-      <c r="CK22" s="41"/>
-      <c r="CL22" s="41"/>
-      <c r="CM22" s="41"/>
-      <c r="CN22" s="41"/>
-      <c r="CO22" s="41"/>
-      <c r="CP22" s="41"/>
-      <c r="CQ22" s="41"/>
-      <c r="CR22" s="41"/>
-      <c r="CS22" s="41"/>
-      <c r="CT22" s="41"/>
-      <c r="CU22" s="41"/>
-      <c r="CV22" s="41"/>
-      <c r="CW22" s="41"/>
-      <c r="CX22" s="41"/>
-      <c r="CY22" s="41"/>
-      <c r="CZ22" s="41"/>
-      <c r="DA22" s="41"/>
-      <c r="DB22" s="41"/>
-      <c r="DC22" s="41"/>
-      <c r="DD22" s="41"/>
-      <c r="DE22" s="41"/>
-      <c r="DF22" s="41"/>
-      <c r="DG22" s="41"/>
-      <c r="DH22" s="41"/>
-      <c r="DI22" s="41"/>
-      <c r="DJ22" s="41"/>
-      <c r="DK22" s="41"/>
-      <c r="DL22" s="41"/>
-      <c r="DM22" s="41"/>
-      <c r="DN22" s="41"/>
-      <c r="DO22" s="41"/>
-      <c r="DP22" s="41"/>
-      <c r="DQ22" s="41"/>
-      <c r="DR22" s="41"/>
-      <c r="DS22" s="41"/>
-      <c r="DT22" s="41"/>
-      <c r="DU22" s="41"/>
-      <c r="DV22" s="41"/>
-      <c r="DW22" s="41"/>
-      <c r="DX22" s="41"/>
-      <c r="DY22" s="41"/>
-      <c r="DZ22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="42"/>
+      <c r="AU22" s="42"/>
+      <c r="AV22" s="42"/>
+      <c r="AW22" s="42"/>
+      <c r="AX22" s="42"/>
+      <c r="AY22" s="42"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="42"/>
+      <c r="BB22" s="42"/>
+      <c r="BC22" s="42"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="42"/>
+      <c r="BF22" s="42"/>
+      <c r="BG22" s="42"/>
+      <c r="BH22" s="42"/>
+      <c r="BI22" s="42"/>
+      <c r="BJ22" s="42"/>
+      <c r="BK22" s="42"/>
+      <c r="BL22" s="42"/>
+      <c r="BM22" s="42"/>
+      <c r="BN22" s="42"/>
+      <c r="BO22" s="42"/>
+      <c r="BP22" s="42"/>
+      <c r="BQ22" s="42"/>
+      <c r="BR22" s="42"/>
+      <c r="BS22" s="42"/>
+      <c r="BT22" s="42"/>
+      <c r="BU22" s="42"/>
+      <c r="BV22" s="42"/>
+      <c r="BW22" s="42"/>
+      <c r="BX22" s="42"/>
+      <c r="BY22" s="42"/>
+      <c r="BZ22" s="42"/>
+      <c r="CA22" s="42"/>
+      <c r="CB22" s="42"/>
+      <c r="CC22" s="42"/>
+      <c r="CD22" s="42"/>
+      <c r="CE22" s="42"/>
+      <c r="CF22" s="42"/>
+      <c r="CG22" s="42"/>
+      <c r="CH22" s="42"/>
+      <c r="CI22" s="42"/>
+      <c r="CJ22" s="42"/>
+      <c r="CK22" s="42"/>
+      <c r="CL22" s="42"/>
+      <c r="CM22" s="42"/>
+      <c r="CN22" s="42"/>
+      <c r="CO22" s="42"/>
+      <c r="CP22" s="42"/>
+      <c r="CQ22" s="42"/>
+      <c r="CR22" s="42"/>
+      <c r="CS22" s="42"/>
+      <c r="CT22" s="42"/>
+      <c r="CU22" s="42"/>
+      <c r="CV22" s="42"/>
+      <c r="CW22" s="42"/>
+      <c r="CX22" s="42"/>
+      <c r="CY22" s="42"/>
+      <c r="CZ22" s="42"/>
+      <c r="DA22" s="42"/>
+      <c r="DB22" s="42"/>
+      <c r="DC22" s="42"/>
+      <c r="DD22" s="42"/>
+      <c r="DE22" s="42"/>
+      <c r="DF22" s="42"/>
+      <c r="DG22" s="42"/>
+      <c r="DH22" s="42"/>
+      <c r="DI22" s="42"/>
+      <c r="DJ22" s="42"/>
+      <c r="DK22" s="42"/>
+      <c r="DL22" s="42"/>
+      <c r="DM22" s="42"/>
+      <c r="DN22" s="42"/>
+      <c r="DO22" s="42"/>
+      <c r="DP22" s="42"/>
+      <c r="DQ22" s="42"/>
+      <c r="DR22" s="42"/>
+      <c r="DS22" s="42"/>
+      <c r="DT22" s="42"/>
+      <c r="DU22" s="42"/>
+      <c r="DV22" s="42"/>
+      <c r="DW22" s="42"/>
+      <c r="DX22" s="42"/>
+      <c r="DY22" s="42"/>
+      <c r="DZ22" s="42"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
       <c r="V23" s="38"/>
       <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
-      <c r="BA23" s="41"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="41"/>
-      <c r="BE23" s="41"/>
-      <c r="BF23" s="41"/>
-      <c r="BG23" s="41"/>
-      <c r="BH23" s="41"/>
-      <c r="BI23" s="41"/>
-      <c r="BJ23" s="41"/>
-      <c r="BK23" s="41"/>
-      <c r="BL23" s="41"/>
-      <c r="BM23" s="41"/>
-      <c r="BN23" s="41"/>
-      <c r="BO23" s="41"/>
-      <c r="BP23" s="41"/>
-      <c r="BQ23" s="41"/>
-      <c r="BR23" s="41"/>
-      <c r="BS23" s="41"/>
-      <c r="BT23" s="41"/>
-      <c r="BU23" s="41"/>
-      <c r="BV23" s="41"/>
-      <c r="BW23" s="41"/>
-      <c r="BX23" s="41"/>
-      <c r="BY23" s="41"/>
-      <c r="BZ23" s="41"/>
-      <c r="CA23" s="41"/>
-      <c r="CB23" s="41"/>
-      <c r="CC23" s="41"/>
-      <c r="CD23" s="41"/>
-      <c r="CE23" s="41"/>
-      <c r="CF23" s="41"/>
-      <c r="CG23" s="41"/>
-      <c r="CH23" s="41"/>
-      <c r="CI23" s="41"/>
-      <c r="CJ23" s="41"/>
-      <c r="CK23" s="41"/>
-      <c r="CL23" s="41"/>
-      <c r="CM23" s="41"/>
-      <c r="CN23" s="41"/>
-      <c r="CO23" s="41"/>
-      <c r="CP23" s="41"/>
-      <c r="CQ23" s="41"/>
-      <c r="CR23" s="41"/>
-      <c r="CS23" s="41"/>
-      <c r="CT23" s="41"/>
-      <c r="CU23" s="41"/>
-      <c r="CV23" s="41"/>
-      <c r="CW23" s="41"/>
-      <c r="CX23" s="41"/>
-      <c r="CY23" s="41"/>
-      <c r="CZ23" s="41"/>
-      <c r="DA23" s="41"/>
-      <c r="DB23" s="41"/>
-      <c r="DC23" s="41"/>
-      <c r="DD23" s="41"/>
-      <c r="DE23" s="41"/>
-      <c r="DF23" s="41"/>
-      <c r="DG23" s="41"/>
-      <c r="DH23" s="41"/>
-      <c r="DI23" s="41"/>
-      <c r="DJ23" s="41"/>
-      <c r="DK23" s="41"/>
-      <c r="DL23" s="41"/>
-      <c r="DM23" s="41"/>
-      <c r="DN23" s="41"/>
-      <c r="DO23" s="41"/>
-      <c r="DP23" s="41"/>
-      <c r="DQ23" s="41"/>
-      <c r="DR23" s="41"/>
-      <c r="DS23" s="41"/>
-      <c r="DT23" s="41"/>
-      <c r="DU23" s="41"/>
-      <c r="DV23" s="41"/>
-      <c r="DW23" s="41"/>
-      <c r="DX23" s="41"/>
-      <c r="DY23" s="41"/>
-      <c r="DZ23" s="41"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="42"/>
+      <c r="AR23" s="42"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42"/>
+      <c r="AU23" s="42"/>
+      <c r="AV23" s="42"/>
+      <c r="AW23" s="42"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="42"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="42"/>
+      <c r="BC23" s="42"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="42"/>
+      <c r="BF23" s="42"/>
+      <c r="BG23" s="42"/>
+      <c r="BH23" s="42"/>
+      <c r="BI23" s="42"/>
+      <c r="BJ23" s="42"/>
+      <c r="BK23" s="42"/>
+      <c r="BL23" s="42"/>
+      <c r="BM23" s="42"/>
+      <c r="BN23" s="42"/>
+      <c r="BO23" s="42"/>
+      <c r="BP23" s="42"/>
+      <c r="BQ23" s="42"/>
+      <c r="BR23" s="42"/>
+      <c r="BS23" s="42"/>
+      <c r="BT23" s="42"/>
+      <c r="BU23" s="42"/>
+      <c r="BV23" s="42"/>
+      <c r="BW23" s="42"/>
+      <c r="BX23" s="42"/>
+      <c r="BY23" s="42"/>
+      <c r="BZ23" s="42"/>
+      <c r="CA23" s="42"/>
+      <c r="CB23" s="42"/>
+      <c r="CC23" s="42"/>
+      <c r="CD23" s="42"/>
+      <c r="CE23" s="42"/>
+      <c r="CF23" s="42"/>
+      <c r="CG23" s="42"/>
+      <c r="CH23" s="42"/>
+      <c r="CI23" s="42"/>
+      <c r="CJ23" s="42"/>
+      <c r="CK23" s="42"/>
+      <c r="CL23" s="42"/>
+      <c r="CM23" s="42"/>
+      <c r="CN23" s="42"/>
+      <c r="CO23" s="42"/>
+      <c r="CP23" s="42"/>
+      <c r="CQ23" s="42"/>
+      <c r="CR23" s="42"/>
+      <c r="CS23" s="42"/>
+      <c r="CT23" s="42"/>
+      <c r="CU23" s="42"/>
+      <c r="CV23" s="42"/>
+      <c r="CW23" s="42"/>
+      <c r="CX23" s="42"/>
+      <c r="CY23" s="42"/>
+      <c r="CZ23" s="42"/>
+      <c r="DA23" s="42"/>
+      <c r="DB23" s="42"/>
+      <c r="DC23" s="42"/>
+      <c r="DD23" s="42"/>
+      <c r="DE23" s="42"/>
+      <c r="DF23" s="42"/>
+      <c r="DG23" s="42"/>
+      <c r="DH23" s="42"/>
+      <c r="DI23" s="42"/>
+      <c r="DJ23" s="42"/>
+      <c r="DK23" s="42"/>
+      <c r="DL23" s="42"/>
+      <c r="DM23" s="42"/>
+      <c r="DN23" s="42"/>
+      <c r="DO23" s="42"/>
+      <c r="DP23" s="42"/>
+      <c r="DQ23" s="42"/>
+      <c r="DR23" s="42"/>
+      <c r="DS23" s="42"/>
+      <c r="DT23" s="42"/>
+      <c r="DU23" s="42"/>
+      <c r="DV23" s="42"/>
+      <c r="DW23" s="42"/>
+      <c r="DX23" s="42"/>
+      <c r="DY23" s="42"/>
+      <c r="DZ23" s="42"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="50"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -4457,672 +4532,672 @@
       <c r="B25" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="41"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
       <c r="AC25" s="38"/>
       <c r="AD25" s="38"/>
       <c r="AE25" s="38"/>
-      <c r="AF25" s="38"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41"/>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
-      <c r="BA25" s="41"/>
-      <c r="BB25" s="41"/>
-      <c r="BC25" s="41"/>
-      <c r="BD25" s="41"/>
-      <c r="BE25" s="41"/>
-      <c r="BF25" s="41"/>
-      <c r="BG25" s="41"/>
-      <c r="BH25" s="41"/>
-      <c r="BI25" s="41"/>
-      <c r="BJ25" s="41"/>
-      <c r="BK25" s="41"/>
-      <c r="BL25" s="41"/>
-      <c r="BM25" s="41"/>
-      <c r="BN25" s="41"/>
-      <c r="BO25" s="41"/>
-      <c r="BP25" s="41"/>
-      <c r="BQ25" s="41"/>
-      <c r="BR25" s="41"/>
-      <c r="BS25" s="41"/>
-      <c r="BT25" s="41"/>
-      <c r="BU25" s="41"/>
-      <c r="BV25" s="41"/>
-      <c r="BW25" s="41"/>
-      <c r="BX25" s="41"/>
-      <c r="BY25" s="41"/>
-      <c r="BZ25" s="41"/>
-      <c r="CA25" s="41"/>
-      <c r="CB25" s="41"/>
-      <c r="CC25" s="41"/>
-      <c r="CD25" s="41"/>
-      <c r="CE25" s="41"/>
-      <c r="CF25" s="41"/>
-      <c r="CG25" s="41"/>
-      <c r="CH25" s="41"/>
-      <c r="CI25" s="41"/>
-      <c r="CJ25" s="41"/>
-      <c r="CK25" s="41"/>
-      <c r="CL25" s="41"/>
-      <c r="CM25" s="41"/>
-      <c r="CN25" s="41"/>
-      <c r="CO25" s="41"/>
-      <c r="CP25" s="41"/>
-      <c r="CQ25" s="41"/>
-      <c r="CR25" s="41"/>
-      <c r="CS25" s="41"/>
-      <c r="CT25" s="41"/>
-      <c r="CU25" s="41"/>
-      <c r="CV25" s="41"/>
-      <c r="CW25" s="41"/>
-      <c r="CX25" s="41"/>
-      <c r="CY25" s="41"/>
-      <c r="CZ25" s="41"/>
-      <c r="DA25" s="41"/>
-      <c r="DB25" s="41"/>
-      <c r="DC25" s="41"/>
-      <c r="DD25" s="41"/>
-      <c r="DE25" s="41"/>
-      <c r="DF25" s="41"/>
-      <c r="DG25" s="41"/>
-      <c r="DH25" s="41"/>
-      <c r="DI25" s="41"/>
-      <c r="DJ25" s="41"/>
-      <c r="DK25" s="41"/>
-      <c r="DL25" s="41"/>
-      <c r="DM25" s="41"/>
-      <c r="DN25" s="41"/>
-      <c r="DO25" s="41"/>
-      <c r="DP25" s="41"/>
-      <c r="DQ25" s="41"/>
-      <c r="DR25" s="41"/>
-      <c r="DS25" s="41"/>
-      <c r="DT25" s="41"/>
-      <c r="DU25" s="41"/>
-      <c r="DV25" s="41"/>
-      <c r="DW25" s="41"/>
-      <c r="DX25" s="41"/>
-      <c r="DY25" s="41"/>
-      <c r="DZ25" s="41"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="42"/>
+      <c r="AR25" s="42"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="42"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="42"/>
+      <c r="AW25" s="42"/>
+      <c r="AX25" s="42"/>
+      <c r="AY25" s="42"/>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="42"/>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="42"/>
+      <c r="BE25" s="42"/>
+      <c r="BF25" s="42"/>
+      <c r="BG25" s="42"/>
+      <c r="BH25" s="42"/>
+      <c r="BI25" s="42"/>
+      <c r="BJ25" s="42"/>
+      <c r="BK25" s="42"/>
+      <c r="BL25" s="42"/>
+      <c r="BM25" s="42"/>
+      <c r="BN25" s="42"/>
+      <c r="BO25" s="42"/>
+      <c r="BP25" s="42"/>
+      <c r="BQ25" s="42"/>
+      <c r="BR25" s="42"/>
+      <c r="BS25" s="42"/>
+      <c r="BT25" s="42"/>
+      <c r="BU25" s="42"/>
+      <c r="BV25" s="42"/>
+      <c r="BW25" s="42"/>
+      <c r="BX25" s="42"/>
+      <c r="BY25" s="42"/>
+      <c r="BZ25" s="42"/>
+      <c r="CA25" s="42"/>
+      <c r="CB25" s="42"/>
+      <c r="CC25" s="42"/>
+      <c r="CD25" s="42"/>
+      <c r="CE25" s="42"/>
+      <c r="CF25" s="42"/>
+      <c r="CG25" s="42"/>
+      <c r="CH25" s="42"/>
+      <c r="CI25" s="42"/>
+      <c r="CJ25" s="42"/>
+      <c r="CK25" s="42"/>
+      <c r="CL25" s="42"/>
+      <c r="CM25" s="42"/>
+      <c r="CN25" s="42"/>
+      <c r="CO25" s="42"/>
+      <c r="CP25" s="42"/>
+      <c r="CQ25" s="42"/>
+      <c r="CR25" s="42"/>
+      <c r="CS25" s="42"/>
+      <c r="CT25" s="42"/>
+      <c r="CU25" s="42"/>
+      <c r="CV25" s="42"/>
+      <c r="CW25" s="42"/>
+      <c r="CX25" s="42"/>
+      <c r="CY25" s="42"/>
+      <c r="CZ25" s="42"/>
+      <c r="DA25" s="42"/>
+      <c r="DB25" s="42"/>
+      <c r="DC25" s="42"/>
+      <c r="DD25" s="42"/>
+      <c r="DE25" s="42"/>
+      <c r="DF25" s="42"/>
+      <c r="DG25" s="42"/>
+      <c r="DH25" s="42"/>
+      <c r="DI25" s="42"/>
+      <c r="DJ25" s="42"/>
+      <c r="DK25" s="42"/>
+      <c r="DL25" s="42"/>
+      <c r="DM25" s="42"/>
+      <c r="DN25" s="42"/>
+      <c r="DO25" s="42"/>
+      <c r="DP25" s="42"/>
+      <c r="DQ25" s="42"/>
+      <c r="DR25" s="42"/>
+      <c r="DS25" s="42"/>
+      <c r="DT25" s="42"/>
+      <c r="DU25" s="42"/>
+      <c r="DV25" s="42"/>
+      <c r="DW25" s="42"/>
+      <c r="DX25" s="42"/>
+      <c r="DY25" s="42"/>
+      <c r="DZ25" s="42"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="41"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="41"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="41"/>
-      <c r="AK26" s="41"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="41"/>
-      <c r="AN26" s="41"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="41"/>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="41"/>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="41"/>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
-      <c r="AZ26" s="41"/>
-      <c r="BA26" s="41"/>
-      <c r="BB26" s="41"/>
-      <c r="BC26" s="41"/>
-      <c r="BD26" s="41"/>
-      <c r="BE26" s="41"/>
-      <c r="BF26" s="41"/>
-      <c r="BG26" s="41"/>
-      <c r="BH26" s="41"/>
-      <c r="BI26" s="41"/>
-      <c r="BJ26" s="41"/>
-      <c r="BK26" s="41"/>
-      <c r="BL26" s="41"/>
-      <c r="BM26" s="41"/>
-      <c r="BN26" s="41"/>
-      <c r="BO26" s="41"/>
-      <c r="BP26" s="41"/>
-      <c r="BQ26" s="41"/>
-      <c r="BR26" s="41"/>
-      <c r="BS26" s="41"/>
-      <c r="BT26" s="41"/>
-      <c r="BU26" s="41"/>
-      <c r="BV26" s="41"/>
-      <c r="BW26" s="41"/>
-      <c r="BX26" s="41"/>
-      <c r="BY26" s="41"/>
-      <c r="BZ26" s="41"/>
-      <c r="CA26" s="41"/>
-      <c r="CB26" s="41"/>
-      <c r="CC26" s="41"/>
-      <c r="CD26" s="41"/>
-      <c r="CE26" s="41"/>
-      <c r="CF26" s="41"/>
-      <c r="CG26" s="41"/>
-      <c r="CH26" s="41"/>
-      <c r="CI26" s="41"/>
-      <c r="CJ26" s="41"/>
-      <c r="CK26" s="41"/>
-      <c r="CL26" s="41"/>
-      <c r="CM26" s="41"/>
-      <c r="CN26" s="41"/>
-      <c r="CO26" s="41"/>
-      <c r="CP26" s="41"/>
-      <c r="CQ26" s="41"/>
-      <c r="CR26" s="41"/>
-      <c r="CS26" s="41"/>
-      <c r="CT26" s="41"/>
-      <c r="CU26" s="41"/>
-      <c r="CV26" s="41"/>
-      <c r="CW26" s="41"/>
-      <c r="CX26" s="41"/>
-      <c r="CY26" s="41"/>
-      <c r="CZ26" s="41"/>
-      <c r="DA26" s="41"/>
-      <c r="DB26" s="41"/>
-      <c r="DC26" s="41"/>
-      <c r="DD26" s="41"/>
-      <c r="DE26" s="41"/>
-      <c r="DF26" s="41"/>
-      <c r="DG26" s="41"/>
-      <c r="DH26" s="41"/>
-      <c r="DI26" s="41"/>
-      <c r="DJ26" s="41"/>
-      <c r="DK26" s="41"/>
-      <c r="DL26" s="41"/>
-      <c r="DM26" s="41"/>
-      <c r="DN26" s="41"/>
-      <c r="DO26" s="41"/>
-      <c r="DP26" s="41"/>
-      <c r="DQ26" s="41"/>
-      <c r="DR26" s="41"/>
-      <c r="DS26" s="41"/>
-      <c r="DT26" s="41"/>
-      <c r="DU26" s="41"/>
-      <c r="DV26" s="41"/>
-      <c r="DW26" s="41"/>
-      <c r="DX26" s="41"/>
-      <c r="DY26" s="41"/>
-      <c r="DZ26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="42"/>
+      <c r="AS26" s="42"/>
+      <c r="AT26" s="42"/>
+      <c r="AU26" s="42"/>
+      <c r="AV26" s="42"/>
+      <c r="AW26" s="42"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="42"/>
+      <c r="AZ26" s="42"/>
+      <c r="BA26" s="42"/>
+      <c r="BB26" s="42"/>
+      <c r="BC26" s="42"/>
+      <c r="BD26" s="42"/>
+      <c r="BE26" s="42"/>
+      <c r="BF26" s="42"/>
+      <c r="BG26" s="42"/>
+      <c r="BH26" s="42"/>
+      <c r="BI26" s="42"/>
+      <c r="BJ26" s="42"/>
+      <c r="BK26" s="42"/>
+      <c r="BL26" s="42"/>
+      <c r="BM26" s="42"/>
+      <c r="BN26" s="42"/>
+      <c r="BO26" s="42"/>
+      <c r="BP26" s="42"/>
+      <c r="BQ26" s="42"/>
+      <c r="BR26" s="42"/>
+      <c r="BS26" s="42"/>
+      <c r="BT26" s="42"/>
+      <c r="BU26" s="42"/>
+      <c r="BV26" s="42"/>
+      <c r="BW26" s="42"/>
+      <c r="BX26" s="42"/>
+      <c r="BY26" s="42"/>
+      <c r="BZ26" s="42"/>
+      <c r="CA26" s="42"/>
+      <c r="CB26" s="42"/>
+      <c r="CC26" s="42"/>
+      <c r="CD26" s="42"/>
+      <c r="CE26" s="42"/>
+      <c r="CF26" s="42"/>
+      <c r="CG26" s="42"/>
+      <c r="CH26" s="42"/>
+      <c r="CI26" s="42"/>
+      <c r="CJ26" s="42"/>
+      <c r="CK26" s="42"/>
+      <c r="CL26" s="42"/>
+      <c r="CM26" s="42"/>
+      <c r="CN26" s="42"/>
+      <c r="CO26" s="42"/>
+      <c r="CP26" s="42"/>
+      <c r="CQ26" s="42"/>
+      <c r="CR26" s="42"/>
+      <c r="CS26" s="42"/>
+      <c r="CT26" s="42"/>
+      <c r="CU26" s="42"/>
+      <c r="CV26" s="42"/>
+      <c r="CW26" s="42"/>
+      <c r="CX26" s="42"/>
+      <c r="CY26" s="42"/>
+      <c r="CZ26" s="42"/>
+      <c r="DA26" s="42"/>
+      <c r="DB26" s="42"/>
+      <c r="DC26" s="42"/>
+      <c r="DD26" s="42"/>
+      <c r="DE26" s="42"/>
+      <c r="DF26" s="42"/>
+      <c r="DG26" s="42"/>
+      <c r="DH26" s="42"/>
+      <c r="DI26" s="42"/>
+      <c r="DJ26" s="42"/>
+      <c r="DK26" s="42"/>
+      <c r="DL26" s="42"/>
+      <c r="DM26" s="42"/>
+      <c r="DN26" s="42"/>
+      <c r="DO26" s="42"/>
+      <c r="DP26" s="42"/>
+      <c r="DQ26" s="42"/>
+      <c r="DR26" s="42"/>
+      <c r="DS26" s="42"/>
+      <c r="DT26" s="42"/>
+      <c r="DU26" s="42"/>
+      <c r="DV26" s="42"/>
+      <c r="DW26" s="42"/>
+      <c r="DX26" s="42"/>
+      <c r="DY26" s="42"/>
+      <c r="DZ26" s="42"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
       <c r="AI27" s="38"/>
       <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="41"/>
-      <c r="BD27" s="41"/>
-      <c r="BE27" s="41"/>
-      <c r="BF27" s="41"/>
-      <c r="BG27" s="41"/>
-      <c r="BH27" s="41"/>
-      <c r="BI27" s="41"/>
-      <c r="BJ27" s="41"/>
-      <c r="BK27" s="41"/>
-      <c r="BL27" s="41"/>
-      <c r="BM27" s="41"/>
-      <c r="BN27" s="41"/>
-      <c r="BO27" s="41"/>
-      <c r="BP27" s="41"/>
-      <c r="BQ27" s="41"/>
-      <c r="BR27" s="41"/>
-      <c r="BS27" s="41"/>
-      <c r="BT27" s="41"/>
-      <c r="BU27" s="41"/>
-      <c r="BV27" s="41"/>
-      <c r="BW27" s="41"/>
-      <c r="BX27" s="41"/>
-      <c r="BY27" s="41"/>
-      <c r="BZ27" s="41"/>
-      <c r="CA27" s="41"/>
-      <c r="CB27" s="41"/>
-      <c r="CC27" s="41"/>
-      <c r="CD27" s="41"/>
-      <c r="CE27" s="41"/>
-      <c r="CF27" s="41"/>
-      <c r="CG27" s="41"/>
-      <c r="CH27" s="41"/>
-      <c r="CI27" s="41"/>
-      <c r="CJ27" s="41"/>
-      <c r="CK27" s="41"/>
-      <c r="CL27" s="41"/>
-      <c r="CM27" s="41"/>
-      <c r="CN27" s="41"/>
-      <c r="CO27" s="41"/>
-      <c r="CP27" s="41"/>
-      <c r="CQ27" s="41"/>
-      <c r="CR27" s="41"/>
-      <c r="CS27" s="41"/>
-      <c r="CT27" s="41"/>
-      <c r="CU27" s="41"/>
-      <c r="CV27" s="41"/>
-      <c r="CW27" s="41"/>
-      <c r="CX27" s="41"/>
-      <c r="CY27" s="41"/>
-      <c r="CZ27" s="41"/>
-      <c r="DA27" s="41"/>
-      <c r="DB27" s="41"/>
-      <c r="DC27" s="41"/>
-      <c r="DD27" s="41"/>
-      <c r="DE27" s="41"/>
-      <c r="DF27" s="41"/>
-      <c r="DG27" s="41"/>
-      <c r="DH27" s="41"/>
-      <c r="DI27" s="41"/>
-      <c r="DJ27" s="41"/>
-      <c r="DK27" s="41"/>
-      <c r="DL27" s="41"/>
-      <c r="DM27" s="41"/>
-      <c r="DN27" s="41"/>
-      <c r="DO27" s="41"/>
-      <c r="DP27" s="41"/>
-      <c r="DQ27" s="41"/>
-      <c r="DR27" s="41"/>
-      <c r="DS27" s="41"/>
-      <c r="DT27" s="41"/>
-      <c r="DU27" s="41"/>
-      <c r="DV27" s="41"/>
-      <c r="DW27" s="41"/>
-      <c r="DX27" s="41"/>
-      <c r="DY27" s="41"/>
-      <c r="DZ27" s="41"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="42"/>
+      <c r="BA27" s="42"/>
+      <c r="BB27" s="42"/>
+      <c r="BC27" s="42"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="42"/>
+      <c r="BF27" s="42"/>
+      <c r="BG27" s="42"/>
+      <c r="BH27" s="42"/>
+      <c r="BI27" s="42"/>
+      <c r="BJ27" s="42"/>
+      <c r="BK27" s="42"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="42"/>
+      <c r="BP27" s="42"/>
+      <c r="BQ27" s="42"/>
+      <c r="BR27" s="42"/>
+      <c r="BS27" s="42"/>
+      <c r="BT27" s="42"/>
+      <c r="BU27" s="42"/>
+      <c r="BV27" s="42"/>
+      <c r="BW27" s="42"/>
+      <c r="BX27" s="42"/>
+      <c r="BY27" s="42"/>
+      <c r="BZ27" s="42"/>
+      <c r="CA27" s="42"/>
+      <c r="CB27" s="42"/>
+      <c r="CC27" s="42"/>
+      <c r="CD27" s="42"/>
+      <c r="CE27" s="42"/>
+      <c r="CF27" s="42"/>
+      <c r="CG27" s="42"/>
+      <c r="CH27" s="42"/>
+      <c r="CI27" s="42"/>
+      <c r="CJ27" s="42"/>
+      <c r="CK27" s="42"/>
+      <c r="CL27" s="42"/>
+      <c r="CM27" s="42"/>
+      <c r="CN27" s="42"/>
+      <c r="CO27" s="42"/>
+      <c r="CP27" s="42"/>
+      <c r="CQ27" s="42"/>
+      <c r="CR27" s="42"/>
+      <c r="CS27" s="42"/>
+      <c r="CT27" s="42"/>
+      <c r="CU27" s="42"/>
+      <c r="CV27" s="42"/>
+      <c r="CW27" s="42"/>
+      <c r="CX27" s="42"/>
+      <c r="CY27" s="42"/>
+      <c r="CZ27" s="42"/>
+      <c r="DA27" s="42"/>
+      <c r="DB27" s="42"/>
+      <c r="DC27" s="42"/>
+      <c r="DD27" s="42"/>
+      <c r="DE27" s="42"/>
+      <c r="DF27" s="42"/>
+      <c r="DG27" s="42"/>
+      <c r="DH27" s="42"/>
+      <c r="DI27" s="42"/>
+      <c r="DJ27" s="42"/>
+      <c r="DK27" s="42"/>
+      <c r="DL27" s="42"/>
+      <c r="DM27" s="42"/>
+      <c r="DN27" s="42"/>
+      <c r="DO27" s="42"/>
+      <c r="DP27" s="42"/>
+      <c r="DQ27" s="42"/>
+      <c r="DR27" s="42"/>
+      <c r="DS27" s="42"/>
+      <c r="DT27" s="42"/>
+      <c r="DU27" s="42"/>
+      <c r="DV27" s="42"/>
+      <c r="DW27" s="42"/>
+      <c r="DX27" s="42"/>
+      <c r="DY27" s="42"/>
+      <c r="DZ27" s="42"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="41"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="52"/>
-      <c r="AO28" s="52"/>
-      <c r="AP28" s="52"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="41"/>
-      <c r="BB28" s="41"/>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="41"/>
-      <c r="BE28" s="41"/>
-      <c r="BF28" s="41"/>
-      <c r="BG28" s="41"/>
-      <c r="BH28" s="41"/>
-      <c r="BI28" s="41"/>
-      <c r="BJ28" s="41"/>
-      <c r="BK28" s="41"/>
-      <c r="BL28" s="41"/>
-      <c r="BM28" s="41"/>
-      <c r="BN28" s="41"/>
-      <c r="BO28" s="41"/>
-      <c r="BP28" s="41"/>
-      <c r="BQ28" s="41"/>
-      <c r="BR28" s="41"/>
-      <c r="BS28" s="41"/>
-      <c r="BT28" s="41"/>
-      <c r="BU28" s="41"/>
-      <c r="BV28" s="41"/>
-      <c r="BW28" s="41"/>
-      <c r="BX28" s="41"/>
-      <c r="BY28" s="41"/>
-      <c r="BZ28" s="41"/>
-      <c r="CA28" s="41"/>
-      <c r="CB28" s="41"/>
-      <c r="CC28" s="41"/>
-      <c r="CD28" s="41"/>
-      <c r="CE28" s="41"/>
-      <c r="CF28" s="41"/>
-      <c r="CG28" s="41"/>
-      <c r="CH28" s="41"/>
-      <c r="CI28" s="41"/>
-      <c r="CJ28" s="41"/>
-      <c r="CK28" s="41"/>
-      <c r="CL28" s="41"/>
-      <c r="CM28" s="41"/>
-      <c r="CN28" s="41"/>
-      <c r="CO28" s="41"/>
-      <c r="CP28" s="41"/>
-      <c r="CQ28" s="41"/>
-      <c r="CR28" s="41"/>
-      <c r="CS28" s="41"/>
-      <c r="CT28" s="41"/>
-      <c r="CU28" s="41"/>
-      <c r="CV28" s="41"/>
-      <c r="CW28" s="41"/>
-      <c r="CX28" s="41"/>
-      <c r="CY28" s="41"/>
-      <c r="CZ28" s="41"/>
-      <c r="DA28" s="41"/>
-      <c r="DB28" s="41"/>
-      <c r="DC28" s="41"/>
-      <c r="DD28" s="41"/>
-      <c r="DE28" s="41"/>
-      <c r="DF28" s="41"/>
-      <c r="DG28" s="41"/>
-      <c r="DH28" s="41"/>
-      <c r="DI28" s="41"/>
-      <c r="DJ28" s="41"/>
-      <c r="DK28" s="41"/>
-      <c r="DL28" s="41"/>
-      <c r="DM28" s="41"/>
-      <c r="DN28" s="41"/>
-      <c r="DO28" s="41"/>
-      <c r="DP28" s="41"/>
-      <c r="DQ28" s="41"/>
-      <c r="DR28" s="41"/>
-      <c r="DS28" s="41"/>
-      <c r="DT28" s="41"/>
-      <c r="DU28" s="41"/>
-      <c r="DV28" s="41"/>
-      <c r="DW28" s="41"/>
-      <c r="DX28" s="41"/>
-      <c r="DY28" s="41"/>
-      <c r="DZ28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="55"/>
+      <c r="AP28" s="55"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="42"/>
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="42"/>
+      <c r="BL28" s="42"/>
+      <c r="BM28" s="42"/>
+      <c r="BN28" s="42"/>
+      <c r="BO28" s="42"/>
+      <c r="BP28" s="42"/>
+      <c r="BQ28" s="42"/>
+      <c r="BR28" s="42"/>
+      <c r="BS28" s="42"/>
+      <c r="BT28" s="42"/>
+      <c r="BU28" s="42"/>
+      <c r="BV28" s="42"/>
+      <c r="BW28" s="42"/>
+      <c r="BX28" s="42"/>
+      <c r="BY28" s="42"/>
+      <c r="BZ28" s="42"/>
+      <c r="CA28" s="42"/>
+      <c r="CB28" s="42"/>
+      <c r="CC28" s="42"/>
+      <c r="CD28" s="42"/>
+      <c r="CE28" s="42"/>
+      <c r="CF28" s="42"/>
+      <c r="CG28" s="42"/>
+      <c r="CH28" s="42"/>
+      <c r="CI28" s="42"/>
+      <c r="CJ28" s="42"/>
+      <c r="CK28" s="42"/>
+      <c r="CL28" s="42"/>
+      <c r="CM28" s="42"/>
+      <c r="CN28" s="42"/>
+      <c r="CO28" s="42"/>
+      <c r="CP28" s="42"/>
+      <c r="CQ28" s="42"/>
+      <c r="CR28" s="42"/>
+      <c r="CS28" s="42"/>
+      <c r="CT28" s="42"/>
+      <c r="CU28" s="42"/>
+      <c r="CV28" s="42"/>
+      <c r="CW28" s="42"/>
+      <c r="CX28" s="42"/>
+      <c r="CY28" s="42"/>
+      <c r="CZ28" s="42"/>
+      <c r="DA28" s="42"/>
+      <c r="DB28" s="42"/>
+      <c r="DC28" s="42"/>
+      <c r="DD28" s="42"/>
+      <c r="DE28" s="42"/>
+      <c r="DF28" s="42"/>
+      <c r="DG28" s="42"/>
+      <c r="DH28" s="42"/>
+      <c r="DI28" s="42"/>
+      <c r="DJ28" s="42"/>
+      <c r="DK28" s="42"/>
+      <c r="DL28" s="42"/>
+      <c r="DM28" s="42"/>
+      <c r="DN28" s="42"/>
+      <c r="DO28" s="42"/>
+      <c r="DP28" s="42"/>
+      <c r="DQ28" s="42"/>
+      <c r="DR28" s="42"/>
+      <c r="DS28" s="42"/>
+      <c r="DT28" s="42"/>
+      <c r="DU28" s="42"/>
+      <c r="DV28" s="42"/>
+      <c r="DW28" s="42"/>
+      <c r="DX28" s="42"/>
+      <c r="DY28" s="42"/>
+      <c r="DZ28" s="42"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="41"/>
-      <c r="AL29" s="41"/>
-      <c r="AM29" s="41"/>
-      <c r="AN29" s="41"/>
-      <c r="AO29" s="41"/>
-      <c r="AP29" s="41"/>
-      <c r="AQ29" s="41"/>
-      <c r="AR29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="42"/>
+      <c r="AP29" s="42"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="42"/>
       <c r="AS29" s="38"/>
       <c r="AT29" s="38"/>
-      <c r="AU29" s="38"/>
-      <c r="AV29" s="38"/>
-      <c r="AW29" s="41"/>
-      <c r="AX29" s="41"/>
-      <c r="AY29" s="41"/>
-      <c r="AZ29" s="41"/>
-      <c r="BA29" s="41"/>
-      <c r="BB29" s="41"/>
-      <c r="BC29" s="41"/>
-      <c r="BD29" s="41"/>
-      <c r="BE29" s="41"/>
-      <c r="BF29" s="41"/>
-      <c r="BG29" s="41"/>
-      <c r="BH29" s="41"/>
-      <c r="BI29" s="41"/>
-      <c r="BJ29" s="41"/>
-      <c r="BK29" s="41"/>
-      <c r="BL29" s="41"/>
-      <c r="BM29" s="41"/>
-      <c r="BN29" s="41"/>
-      <c r="BO29" s="41"/>
-      <c r="BP29" s="41"/>
-      <c r="BQ29" s="41"/>
-      <c r="BR29" s="41"/>
-      <c r="BS29" s="41"/>
-      <c r="BT29" s="41"/>
-      <c r="BU29" s="41"/>
-      <c r="BV29" s="41"/>
-      <c r="BW29" s="41"/>
-      <c r="BX29" s="41"/>
-      <c r="BY29" s="41"/>
-      <c r="BZ29" s="41"/>
-      <c r="CA29" s="41"/>
-      <c r="CB29" s="41"/>
-      <c r="CC29" s="41"/>
-      <c r="CD29" s="41"/>
-      <c r="CE29" s="41"/>
-      <c r="CF29" s="41"/>
-      <c r="CG29" s="41"/>
-      <c r="CH29" s="41"/>
-      <c r="CI29" s="41"/>
-      <c r="CJ29" s="41"/>
-      <c r="CK29" s="41"/>
-      <c r="CL29" s="41"/>
-      <c r="CM29" s="41"/>
-      <c r="CN29" s="41"/>
-      <c r="CO29" s="41"/>
-      <c r="CP29" s="41"/>
-      <c r="CQ29" s="41"/>
-      <c r="CR29" s="41"/>
-      <c r="CS29" s="41"/>
-      <c r="CT29" s="41"/>
-      <c r="CU29" s="41"/>
-      <c r="CV29" s="41"/>
-      <c r="CW29" s="41"/>
-      <c r="CX29" s="41"/>
-      <c r="CY29" s="41"/>
-      <c r="CZ29" s="41"/>
-      <c r="DA29" s="41"/>
-      <c r="DB29" s="41"/>
-      <c r="DC29" s="41"/>
-      <c r="DD29" s="41"/>
-      <c r="DE29" s="41"/>
-      <c r="DF29" s="41"/>
-      <c r="DG29" s="41"/>
-      <c r="DH29" s="41"/>
-      <c r="DI29" s="41"/>
-      <c r="DJ29" s="41"/>
-      <c r="DK29" s="41"/>
-      <c r="DL29" s="41"/>
-      <c r="DM29" s="41"/>
-      <c r="DN29" s="41"/>
-      <c r="DO29" s="41"/>
-      <c r="DP29" s="41"/>
-      <c r="DQ29" s="41"/>
-      <c r="DR29" s="41"/>
-      <c r="DS29" s="41"/>
-      <c r="DT29" s="41"/>
-      <c r="DU29" s="41"/>
-      <c r="DV29" s="41"/>
-      <c r="DW29" s="41"/>
-      <c r="DX29" s="41"/>
-      <c r="DY29" s="41"/>
-      <c r="DZ29" s="41"/>
+      <c r="AU29" s="39"/>
+      <c r="AV29" s="39"/>
+      <c r="AW29" s="42"/>
+      <c r="AX29" s="42"/>
+      <c r="AY29" s="42"/>
+      <c r="AZ29" s="42"/>
+      <c r="BA29" s="42"/>
+      <c r="BB29" s="42"/>
+      <c r="BC29" s="42"/>
+      <c r="BD29" s="42"/>
+      <c r="BE29" s="42"/>
+      <c r="BF29" s="42"/>
+      <c r="BG29" s="42"/>
+      <c r="BH29" s="42"/>
+      <c r="BI29" s="42"/>
+      <c r="BJ29" s="42"/>
+      <c r="BK29" s="42"/>
+      <c r="BL29" s="42"/>
+      <c r="BM29" s="42"/>
+      <c r="BN29" s="42"/>
+      <c r="BO29" s="42"/>
+      <c r="BP29" s="56"/>
+      <c r="BQ29" s="42"/>
+      <c r="BR29" s="42"/>
+      <c r="BS29" s="42"/>
+      <c r="BT29" s="42"/>
+      <c r="BU29" s="42"/>
+      <c r="BV29" s="42"/>
+      <c r="BW29" s="42"/>
+      <c r="BX29" s="42"/>
+      <c r="BY29" s="42"/>
+      <c r="BZ29" s="42"/>
+      <c r="CA29" s="42"/>
+      <c r="CB29" s="42"/>
+      <c r="CC29" s="42"/>
+      <c r="CD29" s="42"/>
+      <c r="CE29" s="42"/>
+      <c r="CF29" s="42"/>
+      <c r="CG29" s="42"/>
+      <c r="CH29" s="42"/>
+      <c r="CI29" s="42"/>
+      <c r="CJ29" s="42"/>
+      <c r="CK29" s="42"/>
+      <c r="CL29" s="42"/>
+      <c r="CM29" s="42"/>
+      <c r="CN29" s="42"/>
+      <c r="CO29" s="42"/>
+      <c r="CP29" s="42"/>
+      <c r="CQ29" s="42"/>
+      <c r="CR29" s="42"/>
+      <c r="CS29" s="42"/>
+      <c r="CT29" s="42"/>
+      <c r="CU29" s="42"/>
+      <c r="CV29" s="42"/>
+      <c r="CW29" s="42"/>
+      <c r="CX29" s="42"/>
+      <c r="CY29" s="42"/>
+      <c r="CZ29" s="42"/>
+      <c r="DA29" s="42"/>
+      <c r="DB29" s="42"/>
+      <c r="DC29" s="42"/>
+      <c r="DD29" s="42"/>
+      <c r="DE29" s="42"/>
+      <c r="DF29" s="42"/>
+      <c r="DG29" s="42"/>
+      <c r="DH29" s="42"/>
+      <c r="DI29" s="42"/>
+      <c r="DJ29" s="42"/>
+      <c r="DK29" s="42"/>
+      <c r="DL29" s="42"/>
+      <c r="DM29" s="42"/>
+      <c r="DN29" s="42"/>
+      <c r="DO29" s="42"/>
+      <c r="DP29" s="42"/>
+      <c r="DQ29" s="42"/>
+      <c r="DR29" s="42"/>
+      <c r="DS29" s="42"/>
+      <c r="DT29" s="42"/>
+      <c r="DU29" s="42"/>
+      <c r="DV29" s="42"/>
+      <c r="DW29" s="42"/>
+      <c r="DX29" s="42"/>
+      <c r="DY29" s="42"/>
+      <c r="DZ29" s="42"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -5255,1071 +5330,1071 @@
       <c r="B31" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="38"/>
-      <c r="AX31" s="38"/>
-      <c r="AY31" s="38"/>
-      <c r="AZ31" s="38"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="39"/>
+      <c r="AX31" s="39"/>
+      <c r="AY31" s="39"/>
+      <c r="AZ31" s="39"/>
       <c r="BA31" s="38"/>
       <c r="BB31" s="38"/>
-      <c r="BC31" s="41"/>
-      <c r="BD31" s="41"/>
-      <c r="BE31" s="41"/>
-      <c r="BF31" s="41"/>
-      <c r="BG31" s="41"/>
-      <c r="BH31" s="41"/>
-      <c r="BI31" s="41"/>
-      <c r="BJ31" s="41"/>
-      <c r="BK31" s="41"/>
-      <c r="BL31" s="41"/>
-      <c r="BM31" s="41"/>
-      <c r="BN31" s="41"/>
-      <c r="BO31" s="41"/>
-      <c r="BP31" s="41"/>
-      <c r="BQ31" s="41"/>
-      <c r="BR31" s="41"/>
-      <c r="BS31" s="41"/>
-      <c r="BT31" s="41"/>
-      <c r="BU31" s="41"/>
-      <c r="BV31" s="41"/>
-      <c r="BW31" s="41"/>
-      <c r="BX31" s="41"/>
-      <c r="BY31" s="41"/>
-      <c r="BZ31" s="41"/>
-      <c r="CA31" s="41"/>
-      <c r="CB31" s="41"/>
-      <c r="CC31" s="41"/>
-      <c r="CD31" s="41"/>
-      <c r="CE31" s="41"/>
-      <c r="CF31" s="41"/>
-      <c r="CG31" s="41"/>
-      <c r="CH31" s="41"/>
-      <c r="CI31" s="41"/>
-      <c r="CJ31" s="41"/>
-      <c r="CK31" s="41"/>
-      <c r="CL31" s="41"/>
-      <c r="CM31" s="41"/>
-      <c r="CN31" s="41"/>
-      <c r="CO31" s="41"/>
-      <c r="CP31" s="41"/>
-      <c r="CQ31" s="41"/>
-      <c r="CR31" s="41"/>
-      <c r="CS31" s="41"/>
-      <c r="CT31" s="41"/>
-      <c r="CU31" s="41"/>
-      <c r="CV31" s="41"/>
-      <c r="CW31" s="41"/>
-      <c r="CX31" s="41"/>
-      <c r="CY31" s="41"/>
-      <c r="CZ31" s="41"/>
-      <c r="DA31" s="41"/>
-      <c r="DB31" s="41"/>
-      <c r="DC31" s="41"/>
-      <c r="DD31" s="41"/>
-      <c r="DE31" s="41"/>
-      <c r="DF31" s="41"/>
-      <c r="DG31" s="41"/>
-      <c r="DH31" s="41"/>
-      <c r="DI31" s="41"/>
-      <c r="DJ31" s="41"/>
-      <c r="DK31" s="41"/>
-      <c r="DL31" s="41"/>
-      <c r="DM31" s="41"/>
-      <c r="DN31" s="41"/>
-      <c r="DO31" s="41"/>
-      <c r="DP31" s="41"/>
-      <c r="DQ31" s="41"/>
-      <c r="DR31" s="41"/>
-      <c r="DS31" s="41"/>
-      <c r="DT31" s="41"/>
-      <c r="DU31" s="41"/>
-      <c r="DV31" s="41"/>
-      <c r="DW31" s="41"/>
-      <c r="DX31" s="41"/>
-      <c r="DY31" s="41"/>
-      <c r="DZ31" s="41"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="42"/>
+      <c r="BG31" s="42"/>
+      <c r="BH31" s="42"/>
+      <c r="BI31" s="42"/>
+      <c r="BJ31" s="42"/>
+      <c r="BK31" s="42"/>
+      <c r="BL31" s="42"/>
+      <c r="BM31" s="42"/>
+      <c r="BN31" s="42"/>
+      <c r="BO31" s="42"/>
+      <c r="BP31" s="42"/>
+      <c r="BQ31" s="42"/>
+      <c r="BR31" s="42"/>
+      <c r="BS31" s="42"/>
+      <c r="BT31" s="42"/>
+      <c r="BU31" s="42"/>
+      <c r="BV31" s="42"/>
+      <c r="BW31" s="42"/>
+      <c r="BX31" s="42"/>
+      <c r="BY31" s="42"/>
+      <c r="BZ31" s="42"/>
+      <c r="CA31" s="42"/>
+      <c r="CB31" s="42"/>
+      <c r="CC31" s="42"/>
+      <c r="CD31" s="42"/>
+      <c r="CE31" s="42"/>
+      <c r="CF31" s="42"/>
+      <c r="CG31" s="42"/>
+      <c r="CH31" s="42"/>
+      <c r="CI31" s="42"/>
+      <c r="CJ31" s="42"/>
+      <c r="CK31" s="42"/>
+      <c r="CL31" s="42"/>
+      <c r="CM31" s="42"/>
+      <c r="CN31" s="42"/>
+      <c r="CO31" s="42"/>
+      <c r="CP31" s="42"/>
+      <c r="CQ31" s="42"/>
+      <c r="CR31" s="42"/>
+      <c r="CS31" s="42"/>
+      <c r="CT31" s="42"/>
+      <c r="CU31" s="42"/>
+      <c r="CV31" s="42"/>
+      <c r="CW31" s="42"/>
+      <c r="CX31" s="42"/>
+      <c r="CY31" s="42"/>
+      <c r="CZ31" s="42"/>
+      <c r="DA31" s="42"/>
+      <c r="DB31" s="42"/>
+      <c r="DC31" s="42"/>
+      <c r="DD31" s="42"/>
+      <c r="DE31" s="42"/>
+      <c r="DF31" s="42"/>
+      <c r="DG31" s="42"/>
+      <c r="DH31" s="42"/>
+      <c r="DI31" s="42"/>
+      <c r="DJ31" s="42"/>
+      <c r="DK31" s="42"/>
+      <c r="DL31" s="42"/>
+      <c r="DM31" s="42"/>
+      <c r="DN31" s="42"/>
+      <c r="DO31" s="42"/>
+      <c r="DP31" s="42"/>
+      <c r="DQ31" s="42"/>
+      <c r="DR31" s="42"/>
+      <c r="DS31" s="42"/>
+      <c r="DT31" s="42"/>
+      <c r="DU31" s="42"/>
+      <c r="DV31" s="42"/>
+      <c r="DW31" s="42"/>
+      <c r="DX31" s="42"/>
+      <c r="DY31" s="42"/>
+      <c r="DZ31" s="42"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="41"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="41"/>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="41"/>
-      <c r="AX32" s="41"/>
-      <c r="AY32" s="41"/>
-      <c r="AZ32" s="41"/>
-      <c r="BA32" s="41"/>
-      <c r="BB32" s="41"/>
-      <c r="BC32" s="38"/>
-      <c r="BD32" s="38"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="42"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="42"/>
+      <c r="AM32" s="42"/>
+      <c r="AN32" s="42"/>
+      <c r="AO32" s="42"/>
+      <c r="AP32" s="42"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32" s="42"/>
+      <c r="AS32" s="42"/>
+      <c r="AT32" s="42"/>
+      <c r="AU32" s="42"/>
+      <c r="AV32" s="42"/>
+      <c r="AW32" s="42"/>
+      <c r="AX32" s="42"/>
+      <c r="AY32" s="42"/>
+      <c r="AZ32" s="42"/>
+      <c r="BA32" s="42"/>
+      <c r="BB32" s="42"/>
+      <c r="BC32" s="39"/>
+      <c r="BD32" s="39"/>
       <c r="BE32" s="38"/>
       <c r="BF32" s="38"/>
-      <c r="BG32" s="38"/>
-      <c r="BH32" s="41"/>
-      <c r="BI32" s="41"/>
-      <c r="BJ32" s="41"/>
-      <c r="BK32" s="41"/>
-      <c r="BL32" s="41"/>
-      <c r="BM32" s="41"/>
-      <c r="BN32" s="41"/>
-      <c r="BO32" s="41"/>
-      <c r="BP32" s="41"/>
-      <c r="BQ32" s="41"/>
-      <c r="BR32" s="41"/>
-      <c r="BS32" s="41"/>
-      <c r="BT32" s="41"/>
-      <c r="BU32" s="41"/>
-      <c r="BV32" s="41"/>
-      <c r="BW32" s="41"/>
-      <c r="BX32" s="41"/>
-      <c r="BY32" s="41"/>
-      <c r="BZ32" s="41"/>
-      <c r="CA32" s="41"/>
-      <c r="CB32" s="41"/>
-      <c r="CC32" s="41"/>
-      <c r="CD32" s="41"/>
-      <c r="CE32" s="41"/>
-      <c r="CF32" s="41"/>
-      <c r="CG32" s="41"/>
-      <c r="CH32" s="41"/>
-      <c r="CI32" s="41"/>
-      <c r="CJ32" s="41"/>
-      <c r="CK32" s="41"/>
-      <c r="CL32" s="41"/>
-      <c r="CM32" s="41"/>
-      <c r="CN32" s="41"/>
-      <c r="CO32" s="41"/>
-      <c r="CP32" s="41"/>
-      <c r="CQ32" s="41"/>
-      <c r="CR32" s="41"/>
-      <c r="CS32" s="41"/>
-      <c r="CT32" s="41"/>
-      <c r="CU32" s="41"/>
-      <c r="CV32" s="41"/>
-      <c r="CW32" s="41"/>
-      <c r="CX32" s="41"/>
-      <c r="CY32" s="41"/>
-      <c r="CZ32" s="41"/>
-      <c r="DA32" s="41"/>
-      <c r="DB32" s="41"/>
-      <c r="DC32" s="41"/>
-      <c r="DD32" s="41"/>
-      <c r="DE32" s="41"/>
-      <c r="DF32" s="41"/>
-      <c r="DG32" s="41"/>
-      <c r="DH32" s="41"/>
-      <c r="DI32" s="41"/>
-      <c r="DJ32" s="41"/>
-      <c r="DK32" s="41"/>
-      <c r="DL32" s="41"/>
-      <c r="DM32" s="41"/>
-      <c r="DN32" s="41"/>
-      <c r="DO32" s="41"/>
-      <c r="DP32" s="41"/>
-      <c r="DQ32" s="41"/>
-      <c r="DR32" s="41"/>
-      <c r="DS32" s="41"/>
-      <c r="DT32" s="41"/>
-      <c r="DU32" s="41"/>
-      <c r="DV32" s="41"/>
-      <c r="DW32" s="41"/>
-      <c r="DX32" s="41"/>
-      <c r="DY32" s="41"/>
-      <c r="DZ32" s="41"/>
+      <c r="BG32" s="39"/>
+      <c r="BH32" s="42"/>
+      <c r="BI32" s="42"/>
+      <c r="BJ32" s="42"/>
+      <c r="BK32" s="42"/>
+      <c r="BL32" s="42"/>
+      <c r="BM32" s="42"/>
+      <c r="BN32" s="42"/>
+      <c r="BO32" s="42"/>
+      <c r="BP32" s="42"/>
+      <c r="BQ32" s="42"/>
+      <c r="BR32" s="42"/>
+      <c r="BS32" s="42"/>
+      <c r="BT32" s="42"/>
+      <c r="BU32" s="42"/>
+      <c r="BV32" s="42"/>
+      <c r="BW32" s="42"/>
+      <c r="BX32" s="42"/>
+      <c r="BY32" s="42"/>
+      <c r="BZ32" s="42"/>
+      <c r="CA32" s="42"/>
+      <c r="CB32" s="42"/>
+      <c r="CC32" s="42"/>
+      <c r="CD32" s="42"/>
+      <c r="CE32" s="42"/>
+      <c r="CF32" s="42"/>
+      <c r="CG32" s="42"/>
+      <c r="CH32" s="42"/>
+      <c r="CI32" s="42"/>
+      <c r="CJ32" s="42"/>
+      <c r="CK32" s="42"/>
+      <c r="CL32" s="42"/>
+      <c r="CM32" s="42"/>
+      <c r="CN32" s="42"/>
+      <c r="CO32" s="42"/>
+      <c r="CP32" s="42"/>
+      <c r="CQ32" s="42"/>
+      <c r="CR32" s="42"/>
+      <c r="CS32" s="42"/>
+      <c r="CT32" s="42"/>
+      <c r="CU32" s="42"/>
+      <c r="CV32" s="42"/>
+      <c r="CW32" s="42"/>
+      <c r="CX32" s="42"/>
+      <c r="CY32" s="42"/>
+      <c r="CZ32" s="42"/>
+      <c r="DA32" s="42"/>
+      <c r="DB32" s="42"/>
+      <c r="DC32" s="42"/>
+      <c r="DD32" s="42"/>
+      <c r="DE32" s="42"/>
+      <c r="DF32" s="42"/>
+      <c r="DG32" s="42"/>
+      <c r="DH32" s="42"/>
+      <c r="DI32" s="42"/>
+      <c r="DJ32" s="42"/>
+      <c r="DK32" s="42"/>
+      <c r="DL32" s="42"/>
+      <c r="DM32" s="42"/>
+      <c r="DN32" s="42"/>
+      <c r="DO32" s="42"/>
+      <c r="DP32" s="42"/>
+      <c r="DQ32" s="42"/>
+      <c r="DR32" s="42"/>
+      <c r="DS32" s="42"/>
+      <c r="DT32" s="42"/>
+      <c r="DU32" s="42"/>
+      <c r="DV32" s="42"/>
+      <c r="DW32" s="42"/>
+      <c r="DX32" s="42"/>
+      <c r="DY32" s="42"/>
+      <c r="DZ32" s="42"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="41"/>
-      <c r="AZ33" s="41"/>
-      <c r="BA33" s="41"/>
-      <c r="BB33" s="41"/>
-      <c r="BC33" s="41"/>
-      <c r="BD33" s="41"/>
-      <c r="BE33" s="41"/>
-      <c r="BF33" s="41"/>
-      <c r="BG33" s="41"/>
-      <c r="BH33" s="38"/>
-      <c r="BI33" s="38"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="42"/>
+      <c r="AM33" s="42"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="42"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
+      <c r="AS33" s="42"/>
+      <c r="AT33" s="42"/>
+      <c r="AU33" s="42"/>
+      <c r="AV33" s="42"/>
+      <c r="AW33" s="42"/>
+      <c r="AX33" s="42"/>
+      <c r="AY33" s="42"/>
+      <c r="AZ33" s="42"/>
+      <c r="BA33" s="42"/>
+      <c r="BB33" s="42"/>
+      <c r="BC33" s="42"/>
+      <c r="BD33" s="42"/>
+      <c r="BE33" s="42"/>
+      <c r="BF33" s="42"/>
+      <c r="BG33" s="42"/>
+      <c r="BH33" s="39"/>
+      <c r="BI33" s="39"/>
       <c r="BJ33" s="38"/>
       <c r="BK33" s="38"/>
-      <c r="BL33" s="41"/>
-      <c r="BM33" s="41"/>
-      <c r="BN33" s="41"/>
-      <c r="BO33" s="41"/>
-      <c r="BP33" s="41"/>
-      <c r="BQ33" s="41"/>
-      <c r="BR33" s="41"/>
-      <c r="BS33" s="41"/>
-      <c r="BT33" s="41"/>
-      <c r="BU33" s="41"/>
-      <c r="BV33" s="41"/>
-      <c r="BW33" s="41"/>
-      <c r="BX33" s="41"/>
-      <c r="BY33" s="41"/>
-      <c r="BZ33" s="41"/>
-      <c r="CA33" s="41"/>
-      <c r="CB33" s="41"/>
-      <c r="CC33" s="41"/>
-      <c r="CD33" s="41"/>
-      <c r="CE33" s="41"/>
-      <c r="CF33" s="41"/>
-      <c r="CG33" s="41"/>
-      <c r="CH33" s="41"/>
-      <c r="CI33" s="41"/>
-      <c r="CJ33" s="41"/>
-      <c r="CK33" s="41"/>
-      <c r="CL33" s="41"/>
-      <c r="CM33" s="41"/>
-      <c r="CN33" s="41"/>
-      <c r="CO33" s="41"/>
-      <c r="CP33" s="41"/>
-      <c r="CQ33" s="41"/>
-      <c r="CR33" s="41"/>
-      <c r="CS33" s="41"/>
-      <c r="CT33" s="41"/>
-      <c r="CU33" s="41"/>
-      <c r="CV33" s="41"/>
-      <c r="CW33" s="41"/>
-      <c r="CX33" s="41"/>
-      <c r="CY33" s="41"/>
-      <c r="CZ33" s="41"/>
-      <c r="DA33" s="41"/>
-      <c r="DB33" s="41"/>
-      <c r="DC33" s="41"/>
-      <c r="DD33" s="41"/>
-      <c r="DE33" s="41"/>
-      <c r="DF33" s="41"/>
-      <c r="DG33" s="41"/>
-      <c r="DH33" s="41"/>
-      <c r="DI33" s="41"/>
-      <c r="DJ33" s="41"/>
-      <c r="DK33" s="41"/>
-      <c r="DL33" s="41"/>
-      <c r="DM33" s="41"/>
-      <c r="DN33" s="41"/>
-      <c r="DO33" s="41"/>
-      <c r="DP33" s="41"/>
-      <c r="DQ33" s="41"/>
-      <c r="DR33" s="41"/>
-      <c r="DS33" s="41"/>
-      <c r="DT33" s="41"/>
-      <c r="DU33" s="41"/>
-      <c r="DV33" s="41"/>
-      <c r="DW33" s="41"/>
-      <c r="DX33" s="41"/>
-      <c r="DY33" s="41"/>
-      <c r="DZ33" s="41"/>
+      <c r="BL33" s="42"/>
+      <c r="BM33" s="42"/>
+      <c r="BN33" s="42"/>
+      <c r="BO33" s="42"/>
+      <c r="BP33" s="42"/>
+      <c r="BQ33" s="42"/>
+      <c r="BR33" s="42"/>
+      <c r="BS33" s="42"/>
+      <c r="BT33" s="42"/>
+      <c r="BU33" s="42"/>
+      <c r="BV33" s="42"/>
+      <c r="BW33" s="42"/>
+      <c r="BX33" s="42"/>
+      <c r="BY33" s="42"/>
+      <c r="BZ33" s="42"/>
+      <c r="CA33" s="42"/>
+      <c r="CB33" s="42"/>
+      <c r="CC33" s="42"/>
+      <c r="CD33" s="42"/>
+      <c r="CE33" s="42"/>
+      <c r="CF33" s="42"/>
+      <c r="CG33" s="42"/>
+      <c r="CH33" s="42"/>
+      <c r="CI33" s="42"/>
+      <c r="CJ33" s="42"/>
+      <c r="CK33" s="42"/>
+      <c r="CL33" s="42"/>
+      <c r="CM33" s="42"/>
+      <c r="CN33" s="42"/>
+      <c r="CO33" s="42"/>
+      <c r="CP33" s="42"/>
+      <c r="CQ33" s="42"/>
+      <c r="CR33" s="42"/>
+      <c r="CS33" s="42"/>
+      <c r="CT33" s="42"/>
+      <c r="CU33" s="42"/>
+      <c r="CV33" s="42"/>
+      <c r="CW33" s="42"/>
+      <c r="CX33" s="42"/>
+      <c r="CY33" s="42"/>
+      <c r="CZ33" s="42"/>
+      <c r="DA33" s="42"/>
+      <c r="DB33" s="42"/>
+      <c r="DC33" s="42"/>
+      <c r="DD33" s="42"/>
+      <c r="DE33" s="42"/>
+      <c r="DF33" s="42"/>
+      <c r="DG33" s="42"/>
+      <c r="DH33" s="42"/>
+      <c r="DI33" s="42"/>
+      <c r="DJ33" s="42"/>
+      <c r="DK33" s="42"/>
+      <c r="DL33" s="42"/>
+      <c r="DM33" s="42"/>
+      <c r="DN33" s="42"/>
+      <c r="DO33" s="42"/>
+      <c r="DP33" s="42"/>
+      <c r="DQ33" s="42"/>
+      <c r="DR33" s="42"/>
+      <c r="DS33" s="42"/>
+      <c r="DT33" s="42"/>
+      <c r="DU33" s="42"/>
+      <c r="DV33" s="42"/>
+      <c r="DW33" s="42"/>
+      <c r="DX33" s="42"/>
+      <c r="DY33" s="42"/>
+      <c r="DZ33" s="42"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="41"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="41"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="41"/>
-      <c r="BF34" s="41"/>
-      <c r="BG34" s="41"/>
-      <c r="BH34" s="41"/>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="38"/>
-      <c r="BM34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
+      <c r="AB34" s="42"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="42"/>
+      <c r="AL34" s="42"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="42"/>
+      <c r="AO34" s="42"/>
+      <c r="AP34" s="42"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="42"/>
+      <c r="AS34" s="42"/>
+      <c r="AT34" s="42"/>
+      <c r="AU34" s="42"/>
+      <c r="AV34" s="42"/>
+      <c r="AW34" s="42"/>
+      <c r="AX34" s="42"/>
+      <c r="AY34" s="42"/>
+      <c r="AZ34" s="42"/>
+      <c r="BA34" s="42"/>
+      <c r="BB34" s="42"/>
+      <c r="BC34" s="42"/>
+      <c r="BD34" s="42"/>
+      <c r="BE34" s="42"/>
+      <c r="BF34" s="42"/>
+      <c r="BG34" s="42"/>
+      <c r="BH34" s="42"/>
+      <c r="BI34" s="42"/>
+      <c r="BJ34" s="42"/>
+      <c r="BK34" s="42"/>
+      <c r="BL34" s="39"/>
+      <c r="BM34" s="39"/>
       <c r="BN34" s="38"/>
       <c r="BO34" s="38"/>
-      <c r="BP34" s="41"/>
-      <c r="BQ34" s="41"/>
-      <c r="BR34" s="41"/>
-      <c r="BS34" s="41"/>
-      <c r="BT34" s="41"/>
-      <c r="BU34" s="41"/>
-      <c r="BV34" s="41"/>
-      <c r="BW34" s="41"/>
-      <c r="BX34" s="41"/>
-      <c r="BY34" s="41"/>
-      <c r="BZ34" s="41"/>
-      <c r="CA34" s="41"/>
-      <c r="CB34" s="41"/>
-      <c r="CC34" s="41"/>
-      <c r="CD34" s="41"/>
-      <c r="CE34" s="41"/>
-      <c r="CF34" s="41"/>
-      <c r="CG34" s="41"/>
-      <c r="CH34" s="41"/>
-      <c r="CI34" s="41"/>
-      <c r="CJ34" s="41"/>
-      <c r="CK34" s="41"/>
-      <c r="CL34" s="41"/>
-      <c r="CM34" s="41"/>
-      <c r="CN34" s="41"/>
-      <c r="CO34" s="41"/>
-      <c r="CP34" s="41"/>
-      <c r="CQ34" s="41"/>
-      <c r="CR34" s="41"/>
-      <c r="CS34" s="41"/>
-      <c r="CT34" s="41"/>
-      <c r="CU34" s="41"/>
-      <c r="CV34" s="41"/>
-      <c r="CW34" s="41"/>
-      <c r="CX34" s="41"/>
-      <c r="CY34" s="41"/>
-      <c r="CZ34" s="41"/>
-      <c r="DA34" s="41"/>
-      <c r="DB34" s="41"/>
-      <c r="DC34" s="41"/>
-      <c r="DD34" s="41"/>
-      <c r="DE34" s="41"/>
-      <c r="DF34" s="41"/>
-      <c r="DG34" s="41"/>
-      <c r="DH34" s="41"/>
-      <c r="DI34" s="41"/>
-      <c r="DJ34" s="41"/>
-      <c r="DK34" s="41"/>
-      <c r="DL34" s="41"/>
-      <c r="DM34" s="41"/>
-      <c r="DN34" s="41"/>
-      <c r="DO34" s="41"/>
-      <c r="DP34" s="41"/>
-      <c r="DQ34" s="41"/>
-      <c r="DR34" s="41"/>
-      <c r="DS34" s="41"/>
-      <c r="DT34" s="41"/>
-      <c r="DU34" s="41"/>
-      <c r="DV34" s="41"/>
-      <c r="DW34" s="41"/>
-      <c r="DX34" s="41"/>
-      <c r="DY34" s="41"/>
-      <c r="DZ34" s="41"/>
+      <c r="BP34" s="42"/>
+      <c r="BQ34" s="42"/>
+      <c r="BR34" s="42"/>
+      <c r="BS34" s="42"/>
+      <c r="BT34" s="42"/>
+      <c r="BU34" s="42"/>
+      <c r="BV34" s="42"/>
+      <c r="BW34" s="42"/>
+      <c r="BX34" s="42"/>
+      <c r="BY34" s="42"/>
+      <c r="BZ34" s="42"/>
+      <c r="CA34" s="42"/>
+      <c r="CB34" s="42"/>
+      <c r="CC34" s="42"/>
+      <c r="CD34" s="42"/>
+      <c r="CE34" s="42"/>
+      <c r="CF34" s="42"/>
+      <c r="CG34" s="42"/>
+      <c r="CH34" s="42"/>
+      <c r="CI34" s="42"/>
+      <c r="CJ34" s="42"/>
+      <c r="CK34" s="42"/>
+      <c r="CL34" s="42"/>
+      <c r="CM34" s="42"/>
+      <c r="CN34" s="42"/>
+      <c r="CO34" s="42"/>
+      <c r="CP34" s="42"/>
+      <c r="CQ34" s="42"/>
+      <c r="CR34" s="42"/>
+      <c r="CS34" s="42"/>
+      <c r="CT34" s="42"/>
+      <c r="CU34" s="42"/>
+      <c r="CV34" s="42"/>
+      <c r="CW34" s="42"/>
+      <c r="CX34" s="42"/>
+      <c r="CY34" s="42"/>
+      <c r="CZ34" s="42"/>
+      <c r="DA34" s="42"/>
+      <c r="DB34" s="42"/>
+      <c r="DC34" s="42"/>
+      <c r="DD34" s="42"/>
+      <c r="DE34" s="42"/>
+      <c r="DF34" s="42"/>
+      <c r="DG34" s="42"/>
+      <c r="DH34" s="42"/>
+      <c r="DI34" s="42"/>
+      <c r="DJ34" s="42"/>
+      <c r="DK34" s="42"/>
+      <c r="DL34" s="42"/>
+      <c r="DM34" s="42"/>
+      <c r="DN34" s="42"/>
+      <c r="DO34" s="42"/>
+      <c r="DP34" s="42"/>
+      <c r="DQ34" s="42"/>
+      <c r="DR34" s="42"/>
+      <c r="DS34" s="42"/>
+      <c r="DT34" s="42"/>
+      <c r="DU34" s="42"/>
+      <c r="DV34" s="42"/>
+      <c r="DW34" s="42"/>
+      <c r="DX34" s="42"/>
+      <c r="DY34" s="42"/>
+      <c r="DZ34" s="42"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
-      <c r="BA35" s="41"/>
-      <c r="BB35" s="41"/>
-      <c r="BC35" s="41"/>
-      <c r="BD35" s="41"/>
-      <c r="BE35" s="41"/>
-      <c r="BF35" s="41"/>
-      <c r="BG35" s="41"/>
-      <c r="BH35" s="41"/>
-      <c r="BI35" s="41"/>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="41"/>
-      <c r="BL35" s="41"/>
-      <c r="BM35" s="41"/>
-      <c r="BN35" s="41"/>
-      <c r="BO35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="42"/>
+      <c r="AB35" s="42"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="42"/>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="42"/>
+      <c r="AL35" s="42"/>
+      <c r="AM35" s="42"/>
+      <c r="AN35" s="42"/>
+      <c r="AO35" s="42"/>
+      <c r="AP35" s="42"/>
+      <c r="AQ35" s="42"/>
+      <c r="AR35" s="42"/>
+      <c r="AS35" s="42"/>
+      <c r="AT35" s="42"/>
+      <c r="AU35" s="42"/>
+      <c r="AV35" s="42"/>
+      <c r="AW35" s="42"/>
+      <c r="AX35" s="42"/>
+      <c r="AY35" s="42"/>
+      <c r="AZ35" s="42"/>
+      <c r="BA35" s="42"/>
+      <c r="BB35" s="42"/>
+      <c r="BC35" s="42"/>
+      <c r="BD35" s="42"/>
+      <c r="BE35" s="42"/>
+      <c r="BF35" s="42"/>
+      <c r="BG35" s="42"/>
+      <c r="BH35" s="42"/>
+      <c r="BI35" s="42"/>
+      <c r="BJ35" s="42"/>
+      <c r="BK35" s="42"/>
+      <c r="BL35" s="42"/>
+      <c r="BM35" s="42"/>
+      <c r="BN35" s="42"/>
+      <c r="BO35" s="42"/>
       <c r="BP35" s="38"/>
       <c r="BQ35" s="38"/>
-      <c r="BR35" s="41"/>
-      <c r="BS35" s="41"/>
-      <c r="BT35" s="41"/>
-      <c r="BU35" s="41"/>
-      <c r="BV35" s="41"/>
-      <c r="BW35" s="41"/>
-      <c r="BX35" s="41"/>
-      <c r="BY35" s="41"/>
-      <c r="BZ35" s="41"/>
-      <c r="CA35" s="41"/>
-      <c r="CB35" s="41"/>
-      <c r="CC35" s="41"/>
-      <c r="CD35" s="41"/>
-      <c r="CE35" s="41"/>
-      <c r="CF35" s="41"/>
-      <c r="CG35" s="41"/>
-      <c r="CH35" s="41"/>
-      <c r="CI35" s="41"/>
-      <c r="CJ35" s="41"/>
-      <c r="CK35" s="41"/>
-      <c r="CL35" s="41"/>
-      <c r="CM35" s="41"/>
-      <c r="CN35" s="41"/>
-      <c r="CO35" s="41"/>
-      <c r="CP35" s="41"/>
-      <c r="CQ35" s="41"/>
-      <c r="CR35" s="41"/>
-      <c r="CS35" s="41"/>
-      <c r="CT35" s="41"/>
-      <c r="CU35" s="41"/>
-      <c r="CV35" s="41"/>
-      <c r="CW35" s="41"/>
-      <c r="CX35" s="41"/>
-      <c r="CY35" s="41"/>
-      <c r="CZ35" s="41"/>
-      <c r="DA35" s="41"/>
-      <c r="DB35" s="41"/>
-      <c r="DC35" s="41"/>
-      <c r="DD35" s="41"/>
-      <c r="DE35" s="41"/>
-      <c r="DF35" s="41"/>
-      <c r="DG35" s="41"/>
-      <c r="DH35" s="41"/>
-      <c r="DI35" s="41"/>
-      <c r="DJ35" s="41"/>
-      <c r="DK35" s="41"/>
-      <c r="DL35" s="41"/>
-      <c r="DM35" s="41"/>
-      <c r="DN35" s="41"/>
-      <c r="DO35" s="41"/>
-      <c r="DP35" s="41"/>
-      <c r="DQ35" s="41"/>
-      <c r="DR35" s="41"/>
-      <c r="DS35" s="41"/>
-      <c r="DT35" s="41"/>
-      <c r="DU35" s="41"/>
-      <c r="DV35" s="41"/>
-      <c r="DW35" s="41"/>
-      <c r="DX35" s="41"/>
-      <c r="DY35" s="41"/>
-      <c r="DZ35" s="41"/>
+      <c r="BR35" s="42"/>
+      <c r="BS35" s="42"/>
+      <c r="BT35" s="42"/>
+      <c r="BU35" s="42"/>
+      <c r="BV35" s="42"/>
+      <c r="BW35" s="42"/>
+      <c r="BX35" s="42"/>
+      <c r="BY35" s="42"/>
+      <c r="BZ35" s="42"/>
+      <c r="CA35" s="42"/>
+      <c r="CB35" s="42"/>
+      <c r="CC35" s="42"/>
+      <c r="CD35" s="42"/>
+      <c r="CE35" s="42"/>
+      <c r="CF35" s="42"/>
+      <c r="CG35" s="42"/>
+      <c r="CH35" s="42"/>
+      <c r="CI35" s="42"/>
+      <c r="CJ35" s="42"/>
+      <c r="CK35" s="42"/>
+      <c r="CL35" s="42"/>
+      <c r="CM35" s="42"/>
+      <c r="CN35" s="42"/>
+      <c r="CO35" s="42"/>
+      <c r="CP35" s="42"/>
+      <c r="CQ35" s="42"/>
+      <c r="CR35" s="42"/>
+      <c r="CS35" s="42"/>
+      <c r="CT35" s="42"/>
+      <c r="CU35" s="42"/>
+      <c r="CV35" s="42"/>
+      <c r="CW35" s="42"/>
+      <c r="CX35" s="42"/>
+      <c r="CY35" s="42"/>
+      <c r="CZ35" s="42"/>
+      <c r="DA35" s="42"/>
+      <c r="DB35" s="42"/>
+      <c r="DC35" s="42"/>
+      <c r="DD35" s="42"/>
+      <c r="DE35" s="42"/>
+      <c r="DF35" s="42"/>
+      <c r="DG35" s="42"/>
+      <c r="DH35" s="42"/>
+      <c r="DI35" s="42"/>
+      <c r="DJ35" s="42"/>
+      <c r="DK35" s="42"/>
+      <c r="DL35" s="42"/>
+      <c r="DM35" s="42"/>
+      <c r="DN35" s="42"/>
+      <c r="DO35" s="42"/>
+      <c r="DP35" s="42"/>
+      <c r="DQ35" s="42"/>
+      <c r="DR35" s="42"/>
+      <c r="DS35" s="42"/>
+      <c r="DT35" s="42"/>
+      <c r="DU35" s="42"/>
+      <c r="DV35" s="42"/>
+      <c r="DW35" s="42"/>
+      <c r="DX35" s="42"/>
+      <c r="DY35" s="42"/>
+      <c r="DZ35" s="42"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="41"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
-      <c r="AW36" s="41"/>
-      <c r="AX36" s="41"/>
-      <c r="AY36" s="41"/>
-      <c r="AZ36" s="41"/>
-      <c r="BA36" s="41"/>
-      <c r="BB36" s="41"/>
-      <c r="BC36" s="41"/>
-      <c r="BD36" s="41"/>
-      <c r="BE36" s="41"/>
-      <c r="BF36" s="41"/>
-      <c r="BG36" s="41"/>
-      <c r="BH36" s="41"/>
-      <c r="BI36" s="41"/>
-      <c r="BJ36" s="41"/>
-      <c r="BK36" s="41"/>
-      <c r="BL36" s="41"/>
-      <c r="BM36" s="41"/>
-      <c r="BN36" s="41"/>
-      <c r="BO36" s="41"/>
-      <c r="BP36" s="41"/>
-      <c r="BQ36" s="41"/>
-      <c r="BR36" s="38"/>
-      <c r="BS36" s="38"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="42"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="42"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+      <c r="AT36" s="42"/>
+      <c r="AU36" s="42"/>
+      <c r="AV36" s="42"/>
+      <c r="AW36" s="42"/>
+      <c r="AX36" s="42"/>
+      <c r="AY36" s="42"/>
+      <c r="AZ36" s="42"/>
+      <c r="BA36" s="42"/>
+      <c r="BB36" s="42"/>
+      <c r="BC36" s="42"/>
+      <c r="BD36" s="42"/>
+      <c r="BE36" s="42"/>
+      <c r="BF36" s="42"/>
+      <c r="BG36" s="42"/>
+      <c r="BH36" s="42"/>
+      <c r="BI36" s="42"/>
+      <c r="BJ36" s="42"/>
+      <c r="BK36" s="42"/>
+      <c r="BL36" s="42"/>
+      <c r="BM36" s="42"/>
+      <c r="BN36" s="42"/>
+      <c r="BO36" s="42"/>
+      <c r="BP36" s="42"/>
+      <c r="BQ36" s="42"/>
+      <c r="BR36" s="39"/>
+      <c r="BS36" s="39"/>
       <c r="BT36" s="38"/>
-      <c r="BU36" s="41"/>
-      <c r="BV36" s="41"/>
-      <c r="BW36" s="41"/>
-      <c r="BX36" s="41"/>
-      <c r="BY36" s="41"/>
-      <c r="BZ36" s="41"/>
-      <c r="CA36" s="41"/>
-      <c r="CB36" s="41"/>
-      <c r="CC36" s="41"/>
-      <c r="CD36" s="41"/>
-      <c r="CE36" s="41"/>
-      <c r="CF36" s="41"/>
-      <c r="CG36" s="41"/>
-      <c r="CH36" s="41"/>
-      <c r="CI36" s="41"/>
-      <c r="CJ36" s="41"/>
-      <c r="CK36" s="41"/>
-      <c r="CL36" s="41"/>
-      <c r="CM36" s="41"/>
-      <c r="CN36" s="41"/>
-      <c r="CO36" s="41"/>
-      <c r="CP36" s="41"/>
-      <c r="CQ36" s="41"/>
-      <c r="CR36" s="41"/>
-      <c r="CS36" s="41"/>
-      <c r="CT36" s="41"/>
-      <c r="CU36" s="41"/>
-      <c r="CV36" s="41"/>
-      <c r="CW36" s="41"/>
-      <c r="CX36" s="41"/>
-      <c r="CY36" s="41"/>
-      <c r="CZ36" s="41"/>
-      <c r="DA36" s="41"/>
-      <c r="DB36" s="41"/>
-      <c r="DC36" s="41"/>
-      <c r="DD36" s="41"/>
-      <c r="DE36" s="41"/>
-      <c r="DF36" s="41"/>
-      <c r="DG36" s="41"/>
-      <c r="DH36" s="41"/>
-      <c r="DI36" s="41"/>
-      <c r="DJ36" s="41"/>
-      <c r="DK36" s="41"/>
-      <c r="DL36" s="41"/>
-      <c r="DM36" s="41"/>
-      <c r="DN36" s="41"/>
-      <c r="DO36" s="41"/>
-      <c r="DP36" s="41"/>
-      <c r="DQ36" s="41"/>
-      <c r="DR36" s="41"/>
-      <c r="DS36" s="41"/>
-      <c r="DT36" s="41"/>
-      <c r="DU36" s="41"/>
-      <c r="DV36" s="41"/>
-      <c r="DW36" s="41"/>
-      <c r="DX36" s="41"/>
-      <c r="DY36" s="41"/>
-      <c r="DZ36" s="41"/>
+      <c r="BU36" s="42"/>
+      <c r="BV36" s="42"/>
+      <c r="BW36" s="42"/>
+      <c r="BX36" s="42"/>
+      <c r="BY36" s="42"/>
+      <c r="BZ36" s="42"/>
+      <c r="CA36" s="42"/>
+      <c r="CB36" s="42"/>
+      <c r="CC36" s="42"/>
+      <c r="CD36" s="42"/>
+      <c r="CE36" s="42"/>
+      <c r="CF36" s="42"/>
+      <c r="CG36" s="42"/>
+      <c r="CH36" s="42"/>
+      <c r="CI36" s="42"/>
+      <c r="CJ36" s="42"/>
+      <c r="CK36" s="42"/>
+      <c r="CL36" s="42"/>
+      <c r="CM36" s="42"/>
+      <c r="CN36" s="42"/>
+      <c r="CO36" s="42"/>
+      <c r="CP36" s="42"/>
+      <c r="CQ36" s="42"/>
+      <c r="CR36" s="42"/>
+      <c r="CS36" s="42"/>
+      <c r="CT36" s="42"/>
+      <c r="CU36" s="42"/>
+      <c r="CV36" s="42"/>
+      <c r="CW36" s="42"/>
+      <c r="CX36" s="42"/>
+      <c r="CY36" s="42"/>
+      <c r="CZ36" s="42"/>
+      <c r="DA36" s="42"/>
+      <c r="DB36" s="42"/>
+      <c r="DC36" s="42"/>
+      <c r="DD36" s="42"/>
+      <c r="DE36" s="42"/>
+      <c r="DF36" s="42"/>
+      <c r="DG36" s="42"/>
+      <c r="DH36" s="42"/>
+      <c r="DI36" s="42"/>
+      <c r="DJ36" s="42"/>
+      <c r="DK36" s="42"/>
+      <c r="DL36" s="42"/>
+      <c r="DM36" s="42"/>
+      <c r="DN36" s="42"/>
+      <c r="DO36" s="42"/>
+      <c r="DP36" s="42"/>
+      <c r="DQ36" s="42"/>
+      <c r="DR36" s="42"/>
+      <c r="DS36" s="42"/>
+      <c r="DT36" s="42"/>
+      <c r="DU36" s="42"/>
+      <c r="DV36" s="42"/>
+      <c r="DW36" s="42"/>
+      <c r="DX36" s="42"/>
+      <c r="DY36" s="42"/>
+      <c r="DZ36" s="42"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41"/>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41"/>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
-      <c r="AW37" s="41"/>
-      <c r="AX37" s="41"/>
-      <c r="AY37" s="41"/>
-      <c r="AZ37" s="41"/>
-      <c r="BA37" s="41"/>
-      <c r="BB37" s="41"/>
-      <c r="BC37" s="41"/>
-      <c r="BD37" s="41"/>
-      <c r="BE37" s="41"/>
-      <c r="BF37" s="41"/>
-      <c r="BG37" s="41"/>
-      <c r="BH37" s="41"/>
-      <c r="BI37" s="41"/>
-      <c r="BJ37" s="41"/>
-      <c r="BK37" s="41"/>
-      <c r="BL37" s="41"/>
-      <c r="BM37" s="41"/>
-      <c r="BN37" s="41"/>
-      <c r="BO37" s="41"/>
-      <c r="BP37" s="41"/>
-      <c r="BQ37" s="41"/>
-      <c r="BR37" s="41"/>
-      <c r="BS37" s="41"/>
-      <c r="BT37" s="41"/>
-      <c r="BU37" s="38"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="42"/>
+      <c r="AF37" s="42"/>
+      <c r="AG37" s="42"/>
+      <c r="AH37" s="42"/>
+      <c r="AI37" s="42"/>
+      <c r="AJ37" s="42"/>
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="42"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="42"/>
+      <c r="AO37" s="42"/>
+      <c r="AP37" s="42"/>
+      <c r="AQ37" s="42"/>
+      <c r="AR37" s="42"/>
+      <c r="AS37" s="42"/>
+      <c r="AT37" s="42"/>
+      <c r="AU37" s="42"/>
+      <c r="AV37" s="42"/>
+      <c r="AW37" s="42"/>
+      <c r="AX37" s="42"/>
+      <c r="AY37" s="42"/>
+      <c r="AZ37" s="42"/>
+      <c r="BA37" s="42"/>
+      <c r="BB37" s="42"/>
+      <c r="BC37" s="42"/>
+      <c r="BD37" s="42"/>
+      <c r="BE37" s="42"/>
+      <c r="BF37" s="42"/>
+      <c r="BG37" s="42"/>
+      <c r="BH37" s="42"/>
+      <c r="BI37" s="42"/>
+      <c r="BJ37" s="42"/>
+      <c r="BK37" s="42"/>
+      <c r="BL37" s="42"/>
+      <c r="BM37" s="42"/>
+      <c r="BN37" s="42"/>
+      <c r="BO37" s="42"/>
+      <c r="BP37" s="42"/>
+      <c r="BQ37" s="42"/>
+      <c r="BR37" s="42"/>
+      <c r="BS37" s="42"/>
+      <c r="BT37" s="42"/>
+      <c r="BU37" s="39"/>
       <c r="BV37" s="38"/>
-      <c r="BW37" s="41"/>
-      <c r="BX37" s="41"/>
-      <c r="BY37" s="41"/>
-      <c r="BZ37" s="41"/>
-      <c r="CA37" s="41"/>
-      <c r="CB37" s="41"/>
-      <c r="CC37" s="41"/>
-      <c r="CD37" s="41"/>
-      <c r="CE37" s="41"/>
-      <c r="CF37" s="41"/>
-      <c r="CG37" s="41"/>
-      <c r="CH37" s="41"/>
-      <c r="CI37" s="41"/>
-      <c r="CJ37" s="41"/>
-      <c r="CK37" s="41"/>
-      <c r="CL37" s="41"/>
-      <c r="CM37" s="41"/>
-      <c r="CN37" s="41"/>
-      <c r="CO37" s="41"/>
-      <c r="CP37" s="41"/>
-      <c r="CQ37" s="41"/>
-      <c r="CR37" s="41"/>
-      <c r="CS37" s="41"/>
-      <c r="CT37" s="41"/>
-      <c r="CU37" s="41"/>
-      <c r="CV37" s="41"/>
-      <c r="CW37" s="41"/>
-      <c r="CX37" s="41"/>
-      <c r="CY37" s="41"/>
-      <c r="CZ37" s="41"/>
-      <c r="DA37" s="41"/>
-      <c r="DB37" s="41"/>
-      <c r="DC37" s="41"/>
-      <c r="DD37" s="41"/>
-      <c r="DE37" s="41"/>
-      <c r="DF37" s="41"/>
-      <c r="DG37" s="41"/>
-      <c r="DH37" s="41"/>
-      <c r="DI37" s="41"/>
-      <c r="DJ37" s="41"/>
-      <c r="DK37" s="41"/>
-      <c r="DL37" s="41"/>
-      <c r="DM37" s="41"/>
-      <c r="DN37" s="41"/>
-      <c r="DO37" s="41"/>
-      <c r="DP37" s="41"/>
-      <c r="DQ37" s="41"/>
-      <c r="DR37" s="41"/>
-      <c r="DS37" s="41"/>
-      <c r="DT37" s="41"/>
-      <c r="DU37" s="41"/>
-      <c r="DV37" s="41"/>
-      <c r="DW37" s="41"/>
-      <c r="DX37" s="41"/>
-      <c r="DY37" s="41"/>
-      <c r="DZ37" s="41"/>
+      <c r="BW37" s="42"/>
+      <c r="BX37" s="42"/>
+      <c r="BY37" s="42"/>
+      <c r="BZ37" s="42"/>
+      <c r="CA37" s="42"/>
+      <c r="CB37" s="42"/>
+      <c r="CC37" s="42"/>
+      <c r="CD37" s="42"/>
+      <c r="CE37" s="42"/>
+      <c r="CF37" s="42"/>
+      <c r="CG37" s="42"/>
+      <c r="CH37" s="42"/>
+      <c r="CI37" s="42"/>
+      <c r="CJ37" s="42"/>
+      <c r="CK37" s="42"/>
+      <c r="CL37" s="42"/>
+      <c r="CM37" s="42"/>
+      <c r="CN37" s="42"/>
+      <c r="CO37" s="42"/>
+      <c r="CP37" s="42"/>
+      <c r="CQ37" s="42"/>
+      <c r="CR37" s="42"/>
+      <c r="CS37" s="42"/>
+      <c r="CT37" s="42"/>
+      <c r="CU37" s="42"/>
+      <c r="CV37" s="42"/>
+      <c r="CW37" s="42"/>
+      <c r="CX37" s="42"/>
+      <c r="CY37" s="42"/>
+      <c r="CZ37" s="42"/>
+      <c r="DA37" s="42"/>
+      <c r="DB37" s="42"/>
+      <c r="DC37" s="42"/>
+      <c r="DD37" s="42"/>
+      <c r="DE37" s="42"/>
+      <c r="DF37" s="42"/>
+      <c r="DG37" s="42"/>
+      <c r="DH37" s="42"/>
+      <c r="DI37" s="42"/>
+      <c r="DJ37" s="42"/>
+      <c r="DK37" s="42"/>
+      <c r="DL37" s="42"/>
+      <c r="DM37" s="42"/>
+      <c r="DN37" s="42"/>
+      <c r="DO37" s="42"/>
+      <c r="DP37" s="42"/>
+      <c r="DQ37" s="42"/>
+      <c r="DR37" s="42"/>
+      <c r="DS37" s="42"/>
+      <c r="DT37" s="42"/>
+      <c r="DU37" s="42"/>
+      <c r="DV37" s="42"/>
+      <c r="DW37" s="42"/>
+      <c r="DX37" s="42"/>
+      <c r="DY37" s="42"/>
+      <c r="DZ37" s="42"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="41"/>
-      <c r="AF38" s="41"/>
-      <c r="AG38" s="41"/>
-      <c r="AH38" s="41"/>
-      <c r="AI38" s="41"/>
-      <c r="AJ38" s="41"/>
-      <c r="AK38" s="41"/>
-      <c r="AL38" s="41"/>
-      <c r="AM38" s="41"/>
-      <c r="AN38" s="41"/>
-      <c r="AO38" s="41"/>
-      <c r="AP38" s="41"/>
-      <c r="AQ38" s="41"/>
-      <c r="AR38" s="41"/>
-      <c r="AS38" s="41"/>
-      <c r="AT38" s="41"/>
-      <c r="AU38" s="41"/>
-      <c r="AV38" s="41"/>
-      <c r="AW38" s="41"/>
-      <c r="AX38" s="41"/>
-      <c r="AY38" s="41"/>
-      <c r="AZ38" s="41"/>
-      <c r="BA38" s="41"/>
-      <c r="BB38" s="41"/>
-      <c r="BC38" s="41"/>
-      <c r="BD38" s="41"/>
-      <c r="BE38" s="41"/>
-      <c r="BF38" s="41"/>
-      <c r="BG38" s="41"/>
-      <c r="BH38" s="41"/>
-      <c r="BI38" s="41"/>
-      <c r="BJ38" s="41"/>
-      <c r="BK38" s="41"/>
-      <c r="BL38" s="41"/>
-      <c r="BM38" s="41"/>
-      <c r="BN38" s="41"/>
-      <c r="BO38" s="41"/>
-      <c r="BP38" s="41"/>
-      <c r="BQ38" s="41"/>
-      <c r="BR38" s="41"/>
-      <c r="BS38" s="41"/>
-      <c r="BT38" s="41"/>
-      <c r="BU38" s="41"/>
-      <c r="BV38" s="41"/>
-      <c r="BW38" s="41"/>
-      <c r="BX38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="42"/>
+      <c r="AF38" s="42"/>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42"/>
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="42"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42"/>
+      <c r="AU38" s="42"/>
+      <c r="AV38" s="42"/>
+      <c r="AW38" s="42"/>
+      <c r="AX38" s="42"/>
+      <c r="AY38" s="42"/>
+      <c r="AZ38" s="42"/>
+      <c r="BA38" s="42"/>
+      <c r="BB38" s="42"/>
+      <c r="BC38" s="42"/>
+      <c r="BD38" s="42"/>
+      <c r="BE38" s="42"/>
+      <c r="BF38" s="42"/>
+      <c r="BG38" s="42"/>
+      <c r="BH38" s="42"/>
+      <c r="BI38" s="42"/>
+      <c r="BJ38" s="42"/>
+      <c r="BK38" s="42"/>
+      <c r="BL38" s="42"/>
+      <c r="BM38" s="42"/>
+      <c r="BN38" s="42"/>
+      <c r="BO38" s="42"/>
+      <c r="BP38" s="42"/>
+      <c r="BQ38" s="42"/>
+      <c r="BR38" s="42"/>
+      <c r="BS38" s="42"/>
+      <c r="BT38" s="42"/>
+      <c r="BU38" s="42"/>
+      <c r="BV38" s="42"/>
+      <c r="BW38" s="42"/>
+      <c r="BX38" s="42"/>
       <c r="BY38" s="38"/>
       <c r="BZ38" s="38"/>
       <c r="CA38" s="38"/>
-      <c r="CB38" s="38"/>
-      <c r="CC38" s="38"/>
-      <c r="CD38" s="41"/>
-      <c r="CE38" s="41"/>
-      <c r="CF38" s="41"/>
-      <c r="CG38" s="41"/>
-      <c r="CH38" s="41"/>
-      <c r="CI38" s="41"/>
-      <c r="CJ38" s="41"/>
-      <c r="CK38" s="41"/>
-      <c r="CL38" s="41"/>
-      <c r="CM38" s="41"/>
-      <c r="CN38" s="41"/>
-      <c r="CO38" s="41"/>
-      <c r="CP38" s="41"/>
-      <c r="CQ38" s="41"/>
-      <c r="CR38" s="41"/>
-      <c r="CS38" s="41"/>
-      <c r="CT38" s="41"/>
-      <c r="CU38" s="41"/>
-      <c r="CV38" s="41"/>
-      <c r="CW38" s="41"/>
-      <c r="CX38" s="41"/>
-      <c r="CY38" s="41"/>
-      <c r="CZ38" s="41"/>
-      <c r="DA38" s="41"/>
-      <c r="DB38" s="41"/>
-      <c r="DC38" s="41"/>
-      <c r="DD38" s="41"/>
-      <c r="DE38" s="41"/>
-      <c r="DF38" s="41"/>
-      <c r="DG38" s="41"/>
-      <c r="DH38" s="41"/>
-      <c r="DI38" s="41"/>
-      <c r="DJ38" s="41"/>
-      <c r="DK38" s="41"/>
-      <c r="DL38" s="41"/>
-      <c r="DM38" s="41"/>
-      <c r="DN38" s="41"/>
-      <c r="DO38" s="41"/>
-      <c r="DP38" s="41"/>
-      <c r="DQ38" s="41"/>
-      <c r="DR38" s="41"/>
-      <c r="DS38" s="41"/>
-      <c r="DT38" s="41"/>
-      <c r="DU38" s="41"/>
-      <c r="DV38" s="41"/>
-      <c r="DW38" s="41"/>
-      <c r="DX38" s="41"/>
-      <c r="DY38" s="41"/>
-      <c r="DZ38" s="41"/>
+      <c r="CB38" s="39"/>
+      <c r="CC38" s="39"/>
+      <c r="CD38" s="42"/>
+      <c r="CE38" s="42"/>
+      <c r="CF38" s="42"/>
+      <c r="CG38" s="42"/>
+      <c r="CH38" s="42"/>
+      <c r="CI38" s="42"/>
+      <c r="CJ38" s="42"/>
+      <c r="CK38" s="42"/>
+      <c r="CL38" s="42"/>
+      <c r="CM38" s="42"/>
+      <c r="CN38" s="42"/>
+      <c r="CO38" s="42"/>
+      <c r="CP38" s="42"/>
+      <c r="CQ38" s="42"/>
+      <c r="CR38" s="42"/>
+      <c r="CS38" s="42"/>
+      <c r="CT38" s="42"/>
+      <c r="CU38" s="42"/>
+      <c r="CV38" s="42"/>
+      <c r="CW38" s="42"/>
+      <c r="CX38" s="42"/>
+      <c r="CY38" s="58"/>
+      <c r="CZ38" s="42"/>
+      <c r="DA38" s="42"/>
+      <c r="DB38" s="42"/>
+      <c r="DC38" s="42"/>
+      <c r="DD38" s="42"/>
+      <c r="DE38" s="42"/>
+      <c r="DF38" s="42"/>
+      <c r="DG38" s="42"/>
+      <c r="DH38" s="42"/>
+      <c r="DI38" s="42"/>
+      <c r="DJ38" s="42"/>
+      <c r="DK38" s="42"/>
+      <c r="DL38" s="42"/>
+      <c r="DM38" s="42"/>
+      <c r="DN38" s="42"/>
+      <c r="DO38" s="42"/>
+      <c r="DP38" s="42"/>
+      <c r="DQ38" s="42"/>
+      <c r="DR38" s="42"/>
+      <c r="DS38" s="42"/>
+      <c r="DT38" s="42"/>
+      <c r="DU38" s="42"/>
+      <c r="DV38" s="42"/>
+      <c r="DW38" s="42"/>
+      <c r="DX38" s="42"/>
+      <c r="DY38" s="42"/>
+      <c r="DZ38" s="42"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="50"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -6449,1334 +6524,1334 @@
       <c r="DZ39" s="14"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="41"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="41"/>
-      <c r="AI40" s="41"/>
-      <c r="AJ40" s="41"/>
-      <c r="AK40" s="41"/>
-      <c r="AL40" s="41"/>
-      <c r="AM40" s="41"/>
-      <c r="AN40" s="41"/>
-      <c r="AO40" s="41"/>
-      <c r="AP40" s="41"/>
-      <c r="AQ40" s="41"/>
-      <c r="AR40" s="41"/>
-      <c r="AS40" s="41"/>
-      <c r="AT40" s="41"/>
-      <c r="AU40" s="41"/>
-      <c r="AV40" s="41"/>
-      <c r="AW40" s="41"/>
-      <c r="AX40" s="41"/>
-      <c r="AY40" s="41"/>
-      <c r="AZ40" s="41"/>
-      <c r="BA40" s="41"/>
-      <c r="BB40" s="41"/>
-      <c r="BC40" s="41"/>
-      <c r="BD40" s="41"/>
-      <c r="BE40" s="41"/>
-      <c r="BF40" s="41"/>
-      <c r="BG40" s="41"/>
-      <c r="BH40" s="41"/>
-      <c r="BI40" s="41"/>
-      <c r="BJ40" s="41"/>
-      <c r="BK40" s="41"/>
-      <c r="BL40" s="41"/>
-      <c r="BM40" s="41"/>
-      <c r="BN40" s="41"/>
-      <c r="BO40" s="41"/>
-      <c r="BP40" s="41"/>
-      <c r="BQ40" s="41"/>
-      <c r="BR40" s="41"/>
-      <c r="BS40" s="41"/>
-      <c r="BT40" s="41"/>
-      <c r="BU40" s="41"/>
-      <c r="BV40" s="41"/>
-      <c r="BW40" s="41"/>
-      <c r="BX40" s="41"/>
-      <c r="BY40" s="41"/>
-      <c r="BZ40" s="41"/>
-      <c r="CA40" s="41"/>
-      <c r="CB40" s="41"/>
-      <c r="CC40" s="41"/>
-      <c r="CD40" s="41"/>
-      <c r="CE40" s="41"/>
-      <c r="CF40" s="41"/>
-      <c r="CG40" s="41"/>
-      <c r="CH40" s="41"/>
-      <c r="CI40" s="41"/>
-      <c r="CJ40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42"/>
+      <c r="AC40" s="42"/>
+      <c r="AD40" s="42"/>
+      <c r="AE40" s="42"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+      <c r="AO40" s="42"/>
+      <c r="AP40" s="42"/>
+      <c r="AQ40" s="42"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="42"/>
+      <c r="AT40" s="42"/>
+      <c r="AU40" s="42"/>
+      <c r="AV40" s="42"/>
+      <c r="AW40" s="42"/>
+      <c r="AX40" s="42"/>
+      <c r="AY40" s="42"/>
+      <c r="AZ40" s="42"/>
+      <c r="BA40" s="42"/>
+      <c r="BB40" s="42"/>
+      <c r="BC40" s="42"/>
+      <c r="BD40" s="42"/>
+      <c r="BE40" s="42"/>
+      <c r="BF40" s="42"/>
+      <c r="BG40" s="42"/>
+      <c r="BH40" s="42"/>
+      <c r="BI40" s="42"/>
+      <c r="BJ40" s="42"/>
+      <c r="BK40" s="42"/>
+      <c r="BL40" s="42"/>
+      <c r="BM40" s="42"/>
+      <c r="BN40" s="42"/>
+      <c r="BO40" s="42"/>
+      <c r="BP40" s="42"/>
+      <c r="BQ40" s="42"/>
+      <c r="BR40" s="42"/>
+      <c r="BS40" s="42"/>
+      <c r="BT40" s="42"/>
+      <c r="BU40" s="42"/>
+      <c r="BV40" s="42"/>
+      <c r="BW40" s="42"/>
+      <c r="BX40" s="42"/>
+      <c r="BY40" s="42"/>
+      <c r="BZ40" s="42"/>
+      <c r="CA40" s="42"/>
+      <c r="CB40" s="42"/>
+      <c r="CC40" s="42"/>
+      <c r="CD40" s="42"/>
+      <c r="CE40" s="42"/>
+      <c r="CF40" s="42"/>
+      <c r="CG40" s="42"/>
+      <c r="CH40" s="42"/>
+      <c r="CI40" s="42"/>
+      <c r="CJ40" s="42"/>
       <c r="CK40" s="38"/>
       <c r="CL40" s="38"/>
-      <c r="CM40" s="38"/>
-      <c r="CN40" s="38"/>
-      <c r="CO40" s="41"/>
-      <c r="CP40" s="41"/>
-      <c r="CQ40" s="41"/>
-      <c r="CR40" s="41"/>
-      <c r="CS40" s="41"/>
-      <c r="CT40" s="41"/>
-      <c r="CU40" s="41"/>
-      <c r="CV40" s="41"/>
-      <c r="CW40" s="41"/>
-      <c r="CX40" s="41"/>
-      <c r="CY40" s="41"/>
-      <c r="CZ40" s="41"/>
-      <c r="DA40" s="41"/>
-      <c r="DB40" s="41"/>
-      <c r="DC40" s="41"/>
-      <c r="DD40" s="41"/>
-      <c r="DE40" s="41"/>
-      <c r="DF40" s="41"/>
-      <c r="DG40" s="41"/>
-      <c r="DH40" s="41"/>
-      <c r="DI40" s="41"/>
-      <c r="DJ40" s="41"/>
-      <c r="DK40" s="41"/>
-      <c r="DL40" s="41"/>
-      <c r="DM40" s="41"/>
-      <c r="DN40" s="41"/>
-      <c r="DO40" s="41"/>
-      <c r="DP40" s="41"/>
-      <c r="DQ40" s="41"/>
-      <c r="DR40" s="41"/>
-      <c r="DS40" s="41"/>
-      <c r="DT40" s="41"/>
-      <c r="DU40" s="41"/>
-      <c r="DV40" s="41"/>
-      <c r="DW40" s="41"/>
-      <c r="DX40" s="41"/>
-      <c r="DY40" s="41"/>
-      <c r="DZ40" s="41"/>
+      <c r="CM40" s="39"/>
+      <c r="CN40" s="39"/>
+      <c r="CO40" s="42"/>
+      <c r="CP40" s="42"/>
+      <c r="CQ40" s="42"/>
+      <c r="CR40" s="42"/>
+      <c r="CS40" s="42"/>
+      <c r="CT40" s="42"/>
+      <c r="CU40" s="42"/>
+      <c r="CV40" s="42"/>
+      <c r="CW40" s="42"/>
+      <c r="CX40" s="42"/>
+      <c r="CY40" s="42"/>
+      <c r="CZ40" s="42"/>
+      <c r="DA40" s="42"/>
+      <c r="DB40" s="42"/>
+      <c r="DC40" s="42"/>
+      <c r="DD40" s="42"/>
+      <c r="DE40" s="42"/>
+      <c r="DF40" s="42"/>
+      <c r="DG40" s="42"/>
+      <c r="DH40" s="42"/>
+      <c r="DI40" s="42"/>
+      <c r="DJ40" s="42"/>
+      <c r="DK40" s="42"/>
+      <c r="DL40" s="42"/>
+      <c r="DM40" s="42"/>
+      <c r="DN40" s="42"/>
+      <c r="DO40" s="42"/>
+      <c r="DP40" s="42"/>
+      <c r="DQ40" s="42"/>
+      <c r="DR40" s="42"/>
+      <c r="DS40" s="42"/>
+      <c r="DT40" s="42"/>
+      <c r="DU40" s="42"/>
+      <c r="DV40" s="42"/>
+      <c r="DW40" s="42"/>
+      <c r="DX40" s="42"/>
+      <c r="DY40" s="42"/>
+      <c r="DZ40" s="42"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="41"/>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41"/>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="41"/>
-      <c r="AN41" s="41"/>
-      <c r="AO41" s="41"/>
-      <c r="AP41" s="41"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41"/>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
-      <c r="AW41" s="41"/>
-      <c r="AX41" s="41"/>
-      <c r="AY41" s="41"/>
-      <c r="AZ41" s="41"/>
-      <c r="BA41" s="41"/>
-      <c r="BB41" s="41"/>
-      <c r="BC41" s="41"/>
-      <c r="BD41" s="41"/>
-      <c r="BE41" s="41"/>
-      <c r="BF41" s="41"/>
-      <c r="BG41" s="41"/>
-      <c r="BH41" s="41"/>
-      <c r="BI41" s="41"/>
-      <c r="BJ41" s="41"/>
-      <c r="BK41" s="41"/>
-      <c r="BL41" s="41"/>
-      <c r="BM41" s="41"/>
-      <c r="BN41" s="41"/>
-      <c r="BO41" s="41"/>
-      <c r="BP41" s="41"/>
-      <c r="BQ41" s="41"/>
-      <c r="BR41" s="41"/>
-      <c r="BS41" s="41"/>
-      <c r="BT41" s="41"/>
-      <c r="BU41" s="41"/>
-      <c r="BV41" s="41"/>
-      <c r="BW41" s="41"/>
-      <c r="BX41" s="41"/>
-      <c r="BY41" s="41"/>
-      <c r="BZ41" s="41"/>
-      <c r="CA41" s="41"/>
-      <c r="CB41" s="41"/>
-      <c r="CC41" s="41"/>
-      <c r="CD41" s="41"/>
-      <c r="CE41" s="41"/>
-      <c r="CF41" s="41"/>
-      <c r="CG41" s="41"/>
-      <c r="CH41" s="41"/>
-      <c r="CI41" s="41"/>
-      <c r="CJ41" s="41"/>
-      <c r="CK41" s="41"/>
-      <c r="CL41" s="41"/>
-      <c r="CM41" s="41"/>
-      <c r="CN41" s="41"/>
-      <c r="CO41" s="38"/>
-      <c r="CP41" s="38"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="42"/>
+      <c r="AJ41" s="42"/>
+      <c r="AK41" s="42"/>
+      <c r="AL41" s="42"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="42"/>
+      <c r="AP41" s="42"/>
+      <c r="AQ41" s="42"/>
+      <c r="AR41" s="42"/>
+      <c r="AS41" s="42"/>
+      <c r="AT41" s="42"/>
+      <c r="AU41" s="42"/>
+      <c r="AV41" s="42"/>
+      <c r="AW41" s="42"/>
+      <c r="AX41" s="42"/>
+      <c r="AY41" s="42"/>
+      <c r="AZ41" s="42"/>
+      <c r="BA41" s="42"/>
+      <c r="BB41" s="42"/>
+      <c r="BC41" s="42"/>
+      <c r="BD41" s="42"/>
+      <c r="BE41" s="42"/>
+      <c r="BF41" s="42"/>
+      <c r="BG41" s="42"/>
+      <c r="BH41" s="42"/>
+      <c r="BI41" s="42"/>
+      <c r="BJ41" s="42"/>
+      <c r="BK41" s="42"/>
+      <c r="BL41" s="42"/>
+      <c r="BM41" s="42"/>
+      <c r="BN41" s="42"/>
+      <c r="BO41" s="42"/>
+      <c r="BP41" s="42"/>
+      <c r="BQ41" s="42"/>
+      <c r="BR41" s="42"/>
+      <c r="BS41" s="42"/>
+      <c r="BT41" s="42"/>
+      <c r="BU41" s="42"/>
+      <c r="BV41" s="42"/>
+      <c r="BW41" s="42"/>
+      <c r="BX41" s="42"/>
+      <c r="BY41" s="42"/>
+      <c r="BZ41" s="42"/>
+      <c r="CA41" s="42"/>
+      <c r="CB41" s="42"/>
+      <c r="CC41" s="42"/>
+      <c r="CD41" s="42"/>
+      <c r="CE41" s="42"/>
+      <c r="CF41" s="42"/>
+      <c r="CG41" s="42"/>
+      <c r="CH41" s="42"/>
+      <c r="CI41" s="42"/>
+      <c r="CJ41" s="42"/>
+      <c r="CK41" s="42"/>
+      <c r="CL41" s="42"/>
+      <c r="CM41" s="42"/>
+      <c r="CN41" s="42"/>
+      <c r="CO41" s="39"/>
+      <c r="CP41" s="39"/>
       <c r="CQ41" s="38"/>
       <c r="CR41" s="38"/>
-      <c r="CS41" s="41"/>
-      <c r="CT41" s="41"/>
-      <c r="CU41" s="41"/>
-      <c r="CV41" s="41"/>
-      <c r="CW41" s="41"/>
-      <c r="CX41" s="41"/>
-      <c r="CY41" s="41"/>
-      <c r="CZ41" s="41"/>
-      <c r="DA41" s="41"/>
-      <c r="DB41" s="41"/>
-      <c r="DC41" s="41"/>
-      <c r="DD41" s="41"/>
-      <c r="DE41" s="41"/>
-      <c r="DF41" s="41"/>
-      <c r="DG41" s="41"/>
-      <c r="DH41" s="41"/>
-      <c r="DI41" s="41"/>
-      <c r="DJ41" s="41"/>
-      <c r="DK41" s="41"/>
-      <c r="DL41" s="41"/>
-      <c r="DM41" s="41"/>
-      <c r="DN41" s="41"/>
-      <c r="DO41" s="41"/>
-      <c r="DP41" s="41"/>
-      <c r="DQ41" s="41"/>
-      <c r="DR41" s="41"/>
-      <c r="DS41" s="41"/>
-      <c r="DT41" s="41"/>
-      <c r="DU41" s="41"/>
-      <c r="DV41" s="41"/>
-      <c r="DW41" s="41"/>
-      <c r="DX41" s="41"/>
-      <c r="DY41" s="41"/>
-      <c r="DZ41" s="41"/>
+      <c r="CS41" s="42"/>
+      <c r="CT41" s="42"/>
+      <c r="CU41" s="42"/>
+      <c r="CV41" s="42"/>
+      <c r="CW41" s="42"/>
+      <c r="CX41" s="42"/>
+      <c r="CY41" s="42"/>
+      <c r="CZ41" s="42"/>
+      <c r="DA41" s="42"/>
+      <c r="DB41" s="42"/>
+      <c r="DC41" s="42"/>
+      <c r="DD41" s="42"/>
+      <c r="DE41" s="42"/>
+      <c r="DF41" s="42"/>
+      <c r="DG41" s="42"/>
+      <c r="DH41" s="42"/>
+      <c r="DI41" s="42"/>
+      <c r="DJ41" s="42"/>
+      <c r="DK41" s="42"/>
+      <c r="DL41" s="42"/>
+      <c r="DM41" s="42"/>
+      <c r="DN41" s="42"/>
+      <c r="DO41" s="42"/>
+      <c r="DP41" s="42"/>
+      <c r="DQ41" s="42"/>
+      <c r="DR41" s="42"/>
+      <c r="DS41" s="42"/>
+      <c r="DT41" s="42"/>
+      <c r="DU41" s="42"/>
+      <c r="DV41" s="42"/>
+      <c r="DW41" s="42"/>
+      <c r="DX41" s="42"/>
+      <c r="DY41" s="42"/>
+      <c r="DZ41" s="42"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="41"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="41"/>
-      <c r="Z42" s="41"/>
-      <c r="AA42" s="41"/>
-      <c r="AB42" s="41"/>
-      <c r="AC42" s="41"/>
-      <c r="AD42" s="41"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="41"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
-      <c r="AI42" s="41"/>
-      <c r="AJ42" s="41"/>
-      <c r="AK42" s="41"/>
-      <c r="AL42" s="41"/>
-      <c r="AM42" s="41"/>
-      <c r="AN42" s="41"/>
-      <c r="AO42" s="41"/>
-      <c r="AP42" s="41"/>
-      <c r="AQ42" s="41"/>
-      <c r="AR42" s="41"/>
-      <c r="AS42" s="41"/>
-      <c r="AT42" s="41"/>
-      <c r="AU42" s="41"/>
-      <c r="AV42" s="41"/>
-      <c r="AW42" s="41"/>
-      <c r="AX42" s="41"/>
-      <c r="AY42" s="41"/>
-      <c r="AZ42" s="41"/>
-      <c r="BA42" s="41"/>
-      <c r="BB42" s="41"/>
-      <c r="BC42" s="41"/>
-      <c r="BD42" s="41"/>
-      <c r="BE42" s="41"/>
-      <c r="BF42" s="41"/>
-      <c r="BG42" s="41"/>
-      <c r="BH42" s="41"/>
-      <c r="BI42" s="41"/>
-      <c r="BJ42" s="41"/>
-      <c r="BK42" s="41"/>
-      <c r="BL42" s="41"/>
-      <c r="BM42" s="41"/>
-      <c r="BN42" s="41"/>
-      <c r="BO42" s="41"/>
-      <c r="BP42" s="41"/>
-      <c r="BQ42" s="41"/>
-      <c r="BR42" s="41"/>
-      <c r="BS42" s="41"/>
-      <c r="BT42" s="41"/>
-      <c r="BU42" s="41"/>
-      <c r="BV42" s="41"/>
-      <c r="BW42" s="41"/>
-      <c r="BX42" s="41"/>
-      <c r="BY42" s="41"/>
-      <c r="BZ42" s="41"/>
-      <c r="CA42" s="41"/>
-      <c r="CB42" s="41"/>
-      <c r="CC42" s="41"/>
-      <c r="CD42" s="41"/>
-      <c r="CE42" s="41"/>
-      <c r="CF42" s="41"/>
-      <c r="CG42" s="41"/>
-      <c r="CH42" s="41"/>
-      <c r="CI42" s="41"/>
-      <c r="CJ42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="42"/>
+      <c r="AG42" s="42"/>
+      <c r="AH42" s="42"/>
+      <c r="AI42" s="42"/>
+      <c r="AJ42" s="42"/>
+      <c r="AK42" s="42"/>
+      <c r="AL42" s="42"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="42"/>
+      <c r="AO42" s="42"/>
+      <c r="AP42" s="42"/>
+      <c r="AQ42" s="42"/>
+      <c r="AR42" s="42"/>
+      <c r="AS42" s="42"/>
+      <c r="AT42" s="42"/>
+      <c r="AU42" s="42"/>
+      <c r="AV42" s="42"/>
+      <c r="AW42" s="42"/>
+      <c r="AX42" s="42"/>
+      <c r="AY42" s="42"/>
+      <c r="AZ42" s="42"/>
+      <c r="BA42" s="42"/>
+      <c r="BB42" s="42"/>
+      <c r="BC42" s="42"/>
+      <c r="BD42" s="42"/>
+      <c r="BE42" s="42"/>
+      <c r="BF42" s="42"/>
+      <c r="BG42" s="42"/>
+      <c r="BH42" s="42"/>
+      <c r="BI42" s="42"/>
+      <c r="BJ42" s="42"/>
+      <c r="BK42" s="42"/>
+      <c r="BL42" s="42"/>
+      <c r="BM42" s="42"/>
+      <c r="BN42" s="42"/>
+      <c r="BO42" s="42"/>
+      <c r="BP42" s="42"/>
+      <c r="BQ42" s="42"/>
+      <c r="BR42" s="42"/>
+      <c r="BS42" s="42"/>
+      <c r="BT42" s="42"/>
+      <c r="BU42" s="42"/>
+      <c r="BV42" s="42"/>
+      <c r="BW42" s="42"/>
+      <c r="BX42" s="42"/>
+      <c r="BY42" s="42"/>
+      <c r="BZ42" s="42"/>
+      <c r="CA42" s="42"/>
+      <c r="CB42" s="42"/>
+      <c r="CC42" s="42"/>
+      <c r="CD42" s="42"/>
+      <c r="CE42" s="42"/>
+      <c r="CF42" s="42"/>
+      <c r="CG42" s="42"/>
+      <c r="CH42" s="42"/>
+      <c r="CI42" s="42"/>
+      <c r="CJ42" s="42"/>
       <c r="CK42" s="38"/>
-      <c r="CL42" s="41"/>
-      <c r="CM42" s="41"/>
-      <c r="CN42" s="41"/>
-      <c r="CO42" s="41"/>
-      <c r="CP42" s="41"/>
-      <c r="CQ42" s="41"/>
-      <c r="CR42" s="41"/>
-      <c r="CS42" s="41"/>
-      <c r="CT42" s="41"/>
-      <c r="CU42" s="41"/>
-      <c r="CV42" s="41"/>
-      <c r="CW42" s="41"/>
-      <c r="CX42" s="41"/>
-      <c r="CY42" s="41"/>
-      <c r="CZ42" s="41"/>
-      <c r="DA42" s="41"/>
-      <c r="DB42" s="41"/>
-      <c r="DC42" s="41"/>
-      <c r="DD42" s="41"/>
-      <c r="DE42" s="41"/>
-      <c r="DF42" s="41"/>
-      <c r="DG42" s="41"/>
-      <c r="DH42" s="41"/>
-      <c r="DI42" s="41"/>
-      <c r="DJ42" s="41"/>
-      <c r="DK42" s="41"/>
-      <c r="DL42" s="41"/>
-      <c r="DM42" s="41"/>
-      <c r="DN42" s="41"/>
-      <c r="DO42" s="41"/>
-      <c r="DP42" s="41"/>
-      <c r="DQ42" s="41"/>
-      <c r="DR42" s="41"/>
-      <c r="DS42" s="41"/>
-      <c r="DT42" s="41"/>
-      <c r="DU42" s="41"/>
-      <c r="DV42" s="41"/>
-      <c r="DW42" s="41"/>
-      <c r="DX42" s="41"/>
-      <c r="DY42" s="41"/>
-      <c r="DZ42" s="41"/>
+      <c r="CL42" s="42"/>
+      <c r="CM42" s="42"/>
+      <c r="CN42" s="42"/>
+      <c r="CO42" s="42"/>
+      <c r="CP42" s="42"/>
+      <c r="CQ42" s="42"/>
+      <c r="CR42" s="42"/>
+      <c r="CS42" s="42"/>
+      <c r="CT42" s="42"/>
+      <c r="CU42" s="42"/>
+      <c r="CV42" s="42"/>
+      <c r="CW42" s="42"/>
+      <c r="CX42" s="42"/>
+      <c r="CY42" s="42"/>
+      <c r="CZ42" s="42"/>
+      <c r="DA42" s="42"/>
+      <c r="DB42" s="42"/>
+      <c r="DC42" s="42"/>
+      <c r="DD42" s="42"/>
+      <c r="DE42" s="42"/>
+      <c r="DF42" s="42"/>
+      <c r="DG42" s="42"/>
+      <c r="DH42" s="42"/>
+      <c r="DI42" s="42"/>
+      <c r="DJ42" s="42"/>
+      <c r="DK42" s="42"/>
+      <c r="DL42" s="42"/>
+      <c r="DM42" s="42"/>
+      <c r="DN42" s="42"/>
+      <c r="DO42" s="42"/>
+      <c r="DP42" s="42"/>
+      <c r="DQ42" s="42"/>
+      <c r="DR42" s="42"/>
+      <c r="DS42" s="42"/>
+      <c r="DT42" s="42"/>
+      <c r="DU42" s="42"/>
+      <c r="DV42" s="42"/>
+      <c r="DW42" s="42"/>
+      <c r="DX42" s="42"/>
+      <c r="DY42" s="42"/>
+      <c r="DZ42" s="42"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="41"/>
-      <c r="W43" s="41"/>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="41"/>
-      <c r="Z43" s="41"/>
-      <c r="AA43" s="41"/>
-      <c r="AB43" s="41"/>
-      <c r="AC43" s="41"/>
-      <c r="AD43" s="41"/>
-      <c r="AE43" s="41"/>
-      <c r="AF43" s="41"/>
-      <c r="AG43" s="41"/>
-      <c r="AH43" s="41"/>
-      <c r="AI43" s="41"/>
-      <c r="AJ43" s="41"/>
-      <c r="AK43" s="41"/>
-      <c r="AL43" s="41"/>
-      <c r="AM43" s="41"/>
-      <c r="AN43" s="41"/>
-      <c r="AO43" s="41"/>
-      <c r="AP43" s="41"/>
-      <c r="AQ43" s="41"/>
-      <c r="AR43" s="41"/>
-      <c r="AS43" s="41"/>
-      <c r="AT43" s="41"/>
-      <c r="AU43" s="41"/>
-      <c r="AV43" s="41"/>
-      <c r="AW43" s="41"/>
-      <c r="AX43" s="41"/>
-      <c r="AY43" s="41"/>
-      <c r="AZ43" s="41"/>
-      <c r="BA43" s="41"/>
-      <c r="BB43" s="41"/>
-      <c r="BC43" s="41"/>
-      <c r="BD43" s="41"/>
-      <c r="BE43" s="41"/>
-      <c r="BF43" s="41"/>
-      <c r="BG43" s="41"/>
-      <c r="BH43" s="41"/>
-      <c r="BI43" s="41"/>
-      <c r="BJ43" s="41"/>
-      <c r="BK43" s="41"/>
-      <c r="BL43" s="41"/>
-      <c r="BM43" s="41"/>
-      <c r="BN43" s="41"/>
-      <c r="BO43" s="41"/>
-      <c r="BP43" s="41"/>
-      <c r="BQ43" s="41"/>
-      <c r="BR43" s="41"/>
-      <c r="BS43" s="41"/>
-      <c r="BT43" s="41"/>
-      <c r="BU43" s="41"/>
-      <c r="BV43" s="41"/>
-      <c r="BW43" s="41"/>
-      <c r="BX43" s="41"/>
-      <c r="BY43" s="41"/>
-      <c r="BZ43" s="41"/>
-      <c r="CA43" s="41"/>
-      <c r="CB43" s="41"/>
-      <c r="CC43" s="41"/>
-      <c r="CD43" s="41"/>
-      <c r="CE43" s="41"/>
-      <c r="CF43" s="41"/>
-      <c r="CG43" s="41"/>
-      <c r="CH43" s="41"/>
-      <c r="CI43" s="41"/>
-      <c r="CJ43" s="41"/>
-      <c r="CK43" s="41"/>
-      <c r="CL43" s="41"/>
-      <c r="CM43" s="41"/>
-      <c r="CN43" s="41"/>
-      <c r="CO43" s="41"/>
-      <c r="CP43" s="41"/>
-      <c r="CQ43" s="41"/>
-      <c r="CR43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="42"/>
+      <c r="AH43" s="42"/>
+      <c r="AI43" s="42"/>
+      <c r="AJ43" s="42"/>
+      <c r="AK43" s="42"/>
+      <c r="AL43" s="42"/>
+      <c r="AM43" s="42"/>
+      <c r="AN43" s="42"/>
+      <c r="AO43" s="42"/>
+      <c r="AP43" s="42"/>
+      <c r="AQ43" s="42"/>
+      <c r="AR43" s="42"/>
+      <c r="AS43" s="42"/>
+      <c r="AT43" s="42"/>
+      <c r="AU43" s="42"/>
+      <c r="AV43" s="42"/>
+      <c r="AW43" s="42"/>
+      <c r="AX43" s="42"/>
+      <c r="AY43" s="42"/>
+      <c r="AZ43" s="42"/>
+      <c r="BA43" s="42"/>
+      <c r="BB43" s="42"/>
+      <c r="BC43" s="42"/>
+      <c r="BD43" s="42"/>
+      <c r="BE43" s="42"/>
+      <c r="BF43" s="42"/>
+      <c r="BG43" s="42"/>
+      <c r="BH43" s="42"/>
+      <c r="BI43" s="42"/>
+      <c r="BJ43" s="42"/>
+      <c r="BK43" s="42"/>
+      <c r="BL43" s="42"/>
+      <c r="BM43" s="42"/>
+      <c r="BN43" s="42"/>
+      <c r="BO43" s="42"/>
+      <c r="BP43" s="42"/>
+      <c r="BQ43" s="42"/>
+      <c r="BR43" s="42"/>
+      <c r="BS43" s="42"/>
+      <c r="BT43" s="42"/>
+      <c r="BU43" s="42"/>
+      <c r="BV43" s="42"/>
+      <c r="BW43" s="42"/>
+      <c r="BX43" s="42"/>
+      <c r="BY43" s="42"/>
+      <c r="BZ43" s="42"/>
+      <c r="CA43" s="42"/>
+      <c r="CB43" s="42"/>
+      <c r="CC43" s="42"/>
+      <c r="CD43" s="42"/>
+      <c r="CE43" s="42"/>
+      <c r="CF43" s="42"/>
+      <c r="CG43" s="42"/>
+      <c r="CH43" s="42"/>
+      <c r="CI43" s="42"/>
+      <c r="CJ43" s="42"/>
+      <c r="CK43" s="42"/>
+      <c r="CL43" s="42"/>
+      <c r="CM43" s="42"/>
+      <c r="CN43" s="42"/>
+      <c r="CO43" s="42"/>
+      <c r="CP43" s="42"/>
+      <c r="CQ43" s="42"/>
+      <c r="CR43" s="42"/>
       <c r="CS43" s="38"/>
       <c r="CT43" s="38"/>
-      <c r="CU43" s="38"/>
-      <c r="CV43" s="38"/>
-      <c r="CW43" s="41"/>
-      <c r="CX43" s="41"/>
-      <c r="CY43" s="41"/>
-      <c r="CZ43" s="41"/>
-      <c r="DA43" s="41"/>
-      <c r="DB43" s="41"/>
-      <c r="DC43" s="41"/>
-      <c r="DD43" s="41"/>
-      <c r="DE43" s="41"/>
-      <c r="DF43" s="41"/>
-      <c r="DG43" s="41"/>
-      <c r="DH43" s="41"/>
-      <c r="DI43" s="41"/>
-      <c r="DJ43" s="41"/>
-      <c r="DK43" s="41"/>
-      <c r="DL43" s="41"/>
-      <c r="DM43" s="41"/>
-      <c r="DN43" s="41"/>
-      <c r="DO43" s="41"/>
-      <c r="DP43" s="41"/>
-      <c r="DQ43" s="41"/>
-      <c r="DR43" s="41"/>
-      <c r="DS43" s="41"/>
-      <c r="DT43" s="41"/>
-      <c r="DU43" s="41"/>
-      <c r="DV43" s="41"/>
-      <c r="DW43" s="41"/>
-      <c r="DX43" s="41"/>
-      <c r="DY43" s="41"/>
-      <c r="DZ43" s="41"/>
+      <c r="CU43" s="39"/>
+      <c r="CV43" s="39"/>
+      <c r="CW43" s="42"/>
+      <c r="CX43" s="42"/>
+      <c r="CY43" s="42"/>
+      <c r="CZ43" s="42"/>
+      <c r="DA43" s="42"/>
+      <c r="DB43" s="42"/>
+      <c r="DC43" s="42"/>
+      <c r="DD43" s="42"/>
+      <c r="DE43" s="42"/>
+      <c r="DF43" s="42"/>
+      <c r="DG43" s="42"/>
+      <c r="DH43" s="42"/>
+      <c r="DI43" s="42"/>
+      <c r="DJ43" s="42"/>
+      <c r="DK43" s="42"/>
+      <c r="DL43" s="42"/>
+      <c r="DM43" s="42"/>
+      <c r="DN43" s="42"/>
+      <c r="DO43" s="42"/>
+      <c r="DP43" s="42"/>
+      <c r="DQ43" s="42"/>
+      <c r="DR43" s="42"/>
+      <c r="DS43" s="42"/>
+      <c r="DT43" s="42"/>
+      <c r="DU43" s="42"/>
+      <c r="DV43" s="42"/>
+      <c r="DW43" s="42"/>
+      <c r="DX43" s="42"/>
+      <c r="DY43" s="42"/>
+      <c r="DZ43" s="42"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="54"/>
-      <c r="AI44" s="54"/>
-      <c r="AJ44" s="54"/>
-      <c r="AK44" s="54"/>
-      <c r="AL44" s="54"/>
-      <c r="AM44" s="54"/>
-      <c r="AN44" s="54"/>
-      <c r="AO44" s="54"/>
-      <c r="AP44" s="54"/>
-      <c r="AQ44" s="54"/>
-      <c r="AR44" s="54"/>
-      <c r="AS44" s="54"/>
-      <c r="AT44" s="54"/>
-      <c r="AU44" s="54"/>
-      <c r="AV44" s="54"/>
-      <c r="AW44" s="54"/>
-      <c r="AX44" s="54"/>
-      <c r="AY44" s="54"/>
-      <c r="AZ44" s="54"/>
-      <c r="BA44" s="54"/>
-      <c r="BB44" s="54"/>
-      <c r="BC44" s="54"/>
-      <c r="BD44" s="54"/>
-      <c r="BE44" s="54"/>
-      <c r="BF44" s="54"/>
-      <c r="BG44" s="54"/>
-      <c r="BH44" s="54"/>
-      <c r="BI44" s="54"/>
-      <c r="BJ44" s="54"/>
-      <c r="BK44" s="54"/>
-      <c r="BL44" s="54"/>
-      <c r="BM44" s="54"/>
-      <c r="BN44" s="54"/>
-      <c r="BO44" s="54"/>
-      <c r="BP44" s="54"/>
-      <c r="BQ44" s="54"/>
-      <c r="BR44" s="54"/>
-      <c r="BS44" s="54"/>
-      <c r="BT44" s="54"/>
-      <c r="BU44" s="54"/>
-      <c r="BV44" s="54"/>
-      <c r="BW44" s="54"/>
-      <c r="BX44" s="54"/>
-      <c r="BY44" s="54"/>
-      <c r="BZ44" s="54"/>
-      <c r="CA44" s="54"/>
-      <c r="CB44" s="54"/>
-      <c r="CC44" s="54"/>
-      <c r="CD44" s="54"/>
-      <c r="CE44" s="54"/>
-      <c r="CF44" s="54"/>
-      <c r="CG44" s="54"/>
-      <c r="CH44" s="54"/>
-      <c r="CI44" s="54"/>
-      <c r="CJ44" s="54"/>
-      <c r="CK44" s="54"/>
-      <c r="CL44" s="54"/>
-      <c r="CM44" s="54"/>
-      <c r="CN44" s="54"/>
-      <c r="CO44" s="54"/>
-      <c r="CP44" s="54"/>
-      <c r="CQ44" s="54"/>
-      <c r="CR44" s="54"/>
-      <c r="CS44" s="54"/>
-      <c r="CT44" s="54"/>
-      <c r="CU44" s="54"/>
-      <c r="CV44" s="54"/>
-      <c r="CW44" s="54"/>
-      <c r="CX44" s="54"/>
-      <c r="CY44" s="54"/>
-      <c r="CZ44" s="54"/>
-      <c r="DA44" s="54"/>
-      <c r="DB44" s="54"/>
-      <c r="DC44" s="54"/>
-      <c r="DD44" s="54"/>
-      <c r="DE44" s="54"/>
-      <c r="DF44" s="54"/>
-      <c r="DG44" s="54"/>
-      <c r="DH44" s="54"/>
-      <c r="DI44" s="54"/>
-      <c r="DJ44" s="54"/>
-      <c r="DK44" s="54"/>
-      <c r="DL44" s="54"/>
-      <c r="DM44" s="54"/>
-      <c r="DN44" s="54"/>
-      <c r="DO44" s="54"/>
-      <c r="DP44" s="54"/>
-      <c r="DQ44" s="54"/>
-      <c r="DR44" s="54"/>
-      <c r="DS44" s="54"/>
-      <c r="DT44" s="54"/>
-      <c r="DU44" s="54"/>
-      <c r="DV44" s="54"/>
-      <c r="DW44" s="54"/>
-      <c r="DX44" s="54"/>
-      <c r="DY44" s="54"/>
-      <c r="DZ44" s="54"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="59"/>
+      <c r="AG44" s="59"/>
+      <c r="AH44" s="59"/>
+      <c r="AI44" s="59"/>
+      <c r="AJ44" s="59"/>
+      <c r="AK44" s="59"/>
+      <c r="AL44" s="59"/>
+      <c r="AM44" s="59"/>
+      <c r="AN44" s="59"/>
+      <c r="AO44" s="59"/>
+      <c r="AP44" s="59"/>
+      <c r="AQ44" s="59"/>
+      <c r="AR44" s="59"/>
+      <c r="AS44" s="59"/>
+      <c r="AT44" s="59"/>
+      <c r="AU44" s="59"/>
+      <c r="AV44" s="59"/>
+      <c r="AW44" s="59"/>
+      <c r="AX44" s="59"/>
+      <c r="AY44" s="59"/>
+      <c r="AZ44" s="59"/>
+      <c r="BA44" s="59"/>
+      <c r="BB44" s="59"/>
+      <c r="BC44" s="59"/>
+      <c r="BD44" s="59"/>
+      <c r="BE44" s="59"/>
+      <c r="BF44" s="59"/>
+      <c r="BG44" s="59"/>
+      <c r="BH44" s="59"/>
+      <c r="BI44" s="59"/>
+      <c r="BJ44" s="59"/>
+      <c r="BK44" s="59"/>
+      <c r="BL44" s="59"/>
+      <c r="BM44" s="59"/>
+      <c r="BN44" s="59"/>
+      <c r="BO44" s="59"/>
+      <c r="BP44" s="59"/>
+      <c r="BQ44" s="59"/>
+      <c r="BR44" s="59"/>
+      <c r="BS44" s="59"/>
+      <c r="BT44" s="59"/>
+      <c r="BU44" s="59"/>
+      <c r="BV44" s="59"/>
+      <c r="BW44" s="59"/>
+      <c r="BX44" s="59"/>
+      <c r="BY44" s="59"/>
+      <c r="BZ44" s="59"/>
+      <c r="CA44" s="59"/>
+      <c r="CB44" s="59"/>
+      <c r="CC44" s="59"/>
+      <c r="CD44" s="59"/>
+      <c r="CE44" s="59"/>
+      <c r="CF44" s="59"/>
+      <c r="CG44" s="59"/>
+      <c r="CH44" s="59"/>
+      <c r="CI44" s="59"/>
+      <c r="CJ44" s="59"/>
+      <c r="CK44" s="59"/>
+      <c r="CL44" s="59"/>
+      <c r="CM44" s="59"/>
+      <c r="CN44" s="59"/>
+      <c r="CO44" s="59"/>
+      <c r="CP44" s="59"/>
+      <c r="CQ44" s="59"/>
+      <c r="CR44" s="59"/>
+      <c r="CS44" s="59"/>
+      <c r="CT44" s="59"/>
+      <c r="CU44" s="59"/>
+      <c r="CV44" s="59"/>
+      <c r="CW44" s="59"/>
+      <c r="CX44" s="59"/>
+      <c r="CY44" s="59"/>
+      <c r="CZ44" s="59"/>
+      <c r="DA44" s="59"/>
+      <c r="DB44" s="59"/>
+      <c r="DC44" s="59"/>
+      <c r="DD44" s="59"/>
+      <c r="DE44" s="59"/>
+      <c r="DF44" s="59"/>
+      <c r="DG44" s="59"/>
+      <c r="DH44" s="59"/>
+      <c r="DI44" s="59"/>
+      <c r="DJ44" s="59"/>
+      <c r="DK44" s="59"/>
+      <c r="DL44" s="59"/>
+      <c r="DM44" s="59"/>
+      <c r="DN44" s="59"/>
+      <c r="DO44" s="59"/>
+      <c r="DP44" s="59"/>
+      <c r="DQ44" s="59"/>
+      <c r="DR44" s="59"/>
+      <c r="DS44" s="59"/>
+      <c r="DT44" s="59"/>
+      <c r="DU44" s="59"/>
+      <c r="DV44" s="59"/>
+      <c r="DW44" s="59"/>
+      <c r="DX44" s="59"/>
+      <c r="DY44" s="59"/>
+      <c r="DZ44" s="59"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="41"/>
-      <c r="W45" s="41"/>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="41"/>
-      <c r="Z45" s="41"/>
-      <c r="AA45" s="41"/>
-      <c r="AB45" s="41"/>
-      <c r="AC45" s="41"/>
-      <c r="AD45" s="41"/>
-      <c r="AE45" s="41"/>
-      <c r="AF45" s="41"/>
-      <c r="AG45" s="41"/>
-      <c r="AH45" s="41"/>
-      <c r="AI45" s="41"/>
-      <c r="AJ45" s="41"/>
-      <c r="AK45" s="41"/>
-      <c r="AL45" s="41"/>
-      <c r="AM45" s="41"/>
-      <c r="AN45" s="41"/>
-      <c r="AO45" s="41"/>
-      <c r="AP45" s="41"/>
-      <c r="AQ45" s="41"/>
-      <c r="AR45" s="41"/>
-      <c r="AS45" s="41"/>
-      <c r="AT45" s="41"/>
-      <c r="AU45" s="41"/>
-      <c r="AV45" s="41"/>
-      <c r="AW45" s="41"/>
-      <c r="AX45" s="41"/>
-      <c r="AY45" s="41"/>
-      <c r="AZ45" s="41"/>
-      <c r="BA45" s="41"/>
-      <c r="BB45" s="41"/>
-      <c r="BC45" s="41"/>
-      <c r="BD45" s="41"/>
-      <c r="BE45" s="41"/>
-      <c r="BF45" s="41"/>
-      <c r="BG45" s="41"/>
-      <c r="BH45" s="41"/>
-      <c r="BI45" s="41"/>
-      <c r="BJ45" s="41"/>
-      <c r="BK45" s="41"/>
-      <c r="BL45" s="41"/>
-      <c r="BM45" s="41"/>
-      <c r="BN45" s="41"/>
-      <c r="BO45" s="41"/>
-      <c r="BP45" s="41"/>
-      <c r="BQ45" s="41"/>
-      <c r="BR45" s="41"/>
-      <c r="BS45" s="41"/>
-      <c r="BT45" s="41"/>
-      <c r="BU45" s="41"/>
-      <c r="BV45" s="41"/>
-      <c r="BW45" s="41"/>
-      <c r="BX45" s="41"/>
-      <c r="BY45" s="41"/>
-      <c r="BZ45" s="41"/>
-      <c r="CA45" s="41"/>
-      <c r="CB45" s="41"/>
-      <c r="CC45" s="41"/>
-      <c r="CD45" s="41"/>
-      <c r="CE45" s="41"/>
-      <c r="CF45" s="41"/>
-      <c r="CG45" s="41"/>
-      <c r="CH45" s="41"/>
-      <c r="CI45" s="41"/>
-      <c r="CJ45" s="41"/>
-      <c r="CK45" s="41"/>
-      <c r="CL45" s="41"/>
-      <c r="CM45" s="41"/>
-      <c r="CN45" s="41"/>
-      <c r="CO45" s="41"/>
-      <c r="CP45" s="41"/>
-      <c r="CQ45" s="41"/>
-      <c r="CR45" s="41"/>
-      <c r="CS45" s="41"/>
-      <c r="CT45" s="41"/>
-      <c r="CU45" s="41"/>
-      <c r="CV45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="42"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="42"/>
+      <c r="AH45" s="42"/>
+      <c r="AI45" s="42"/>
+      <c r="AJ45" s="42"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="42"/>
+      <c r="AM45" s="42"/>
+      <c r="AN45" s="42"/>
+      <c r="AO45" s="42"/>
+      <c r="AP45" s="42"/>
+      <c r="AQ45" s="42"/>
+      <c r="AR45" s="42"/>
+      <c r="AS45" s="42"/>
+      <c r="AT45" s="42"/>
+      <c r="AU45" s="42"/>
+      <c r="AV45" s="42"/>
+      <c r="AW45" s="42"/>
+      <c r="AX45" s="42"/>
+      <c r="AY45" s="42"/>
+      <c r="AZ45" s="42"/>
+      <c r="BA45" s="42"/>
+      <c r="BB45" s="42"/>
+      <c r="BC45" s="42"/>
+      <c r="BD45" s="42"/>
+      <c r="BE45" s="42"/>
+      <c r="BF45" s="42"/>
+      <c r="BG45" s="42"/>
+      <c r="BH45" s="42"/>
+      <c r="BI45" s="42"/>
+      <c r="BJ45" s="42"/>
+      <c r="BK45" s="42"/>
+      <c r="BL45" s="42"/>
+      <c r="BM45" s="42"/>
+      <c r="BN45" s="42"/>
+      <c r="BO45" s="42"/>
+      <c r="BP45" s="42"/>
+      <c r="BQ45" s="42"/>
+      <c r="BR45" s="42"/>
+      <c r="BS45" s="42"/>
+      <c r="BT45" s="42"/>
+      <c r="BU45" s="42"/>
+      <c r="BV45" s="42"/>
+      <c r="BW45" s="42"/>
+      <c r="BX45" s="42"/>
+      <c r="BY45" s="42"/>
+      <c r="BZ45" s="42"/>
+      <c r="CA45" s="42"/>
+      <c r="CB45" s="42"/>
+      <c r="CC45" s="42"/>
+      <c r="CD45" s="42"/>
+      <c r="CE45" s="42"/>
+      <c r="CF45" s="42"/>
+      <c r="CG45" s="42"/>
+      <c r="CH45" s="42"/>
+      <c r="CI45" s="42"/>
+      <c r="CJ45" s="42"/>
+      <c r="CK45" s="42"/>
+      <c r="CL45" s="42"/>
+      <c r="CM45" s="42"/>
+      <c r="CN45" s="42"/>
+      <c r="CO45" s="42"/>
+      <c r="CP45" s="42"/>
+      <c r="CQ45" s="42"/>
+      <c r="CR45" s="42"/>
+      <c r="CS45" s="42"/>
+      <c r="CT45" s="42"/>
+      <c r="CU45" s="42"/>
+      <c r="CV45" s="42"/>
       <c r="CW45" s="38"/>
       <c r="CX45" s="38"/>
-      <c r="CY45" s="38"/>
-      <c r="CZ45" s="38"/>
-      <c r="DA45" s="41"/>
-      <c r="DB45" s="41"/>
-      <c r="DC45" s="41"/>
-      <c r="DD45" s="41"/>
-      <c r="DE45" s="41"/>
-      <c r="DF45" s="41"/>
-      <c r="DG45" s="41"/>
-      <c r="DH45" s="41"/>
-      <c r="DI45" s="41"/>
-      <c r="DJ45" s="41"/>
-      <c r="DK45" s="41"/>
-      <c r="DL45" s="41"/>
-      <c r="DM45" s="41"/>
-      <c r="DN45" s="41"/>
-      <c r="DO45" s="41"/>
-      <c r="DP45" s="41"/>
-      <c r="DQ45" s="41"/>
-      <c r="DR45" s="41"/>
-      <c r="DS45" s="41"/>
-      <c r="DT45" s="41"/>
-      <c r="DU45" s="41"/>
-      <c r="DV45" s="41"/>
-      <c r="DW45" s="41"/>
-      <c r="DX45" s="41"/>
-      <c r="DY45" s="41"/>
-      <c r="DZ45" s="41"/>
+      <c r="CY45" s="39"/>
+      <c r="CZ45" s="39"/>
+      <c r="DA45" s="42"/>
+      <c r="DB45" s="42"/>
+      <c r="DC45" s="42"/>
+      <c r="DD45" s="42"/>
+      <c r="DE45" s="42"/>
+      <c r="DF45" s="42"/>
+      <c r="DG45" s="42"/>
+      <c r="DH45" s="42"/>
+      <c r="DI45" s="42"/>
+      <c r="DJ45" s="42"/>
+      <c r="DK45" s="42"/>
+      <c r="DL45" s="42"/>
+      <c r="DM45" s="42"/>
+      <c r="DN45" s="42"/>
+      <c r="DO45" s="42"/>
+      <c r="DP45" s="42"/>
+      <c r="DQ45" s="42"/>
+      <c r="DR45" s="42"/>
+      <c r="DS45" s="42"/>
+      <c r="DT45" s="42"/>
+      <c r="DU45" s="42"/>
+      <c r="DV45" s="42"/>
+      <c r="DW45" s="42"/>
+      <c r="DX45" s="42"/>
+      <c r="DY45" s="42"/>
+      <c r="DZ45" s="42"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="41"/>
-      <c r="Z46" s="41"/>
-      <c r="AA46" s="41"/>
-      <c r="AB46" s="41"/>
-      <c r="AC46" s="41"/>
-      <c r="AD46" s="41"/>
-      <c r="AE46" s="41"/>
-      <c r="AF46" s="41"/>
-      <c r="AG46" s="41"/>
-      <c r="AH46" s="41"/>
-      <c r="AI46" s="41"/>
-      <c r="AJ46" s="41"/>
-      <c r="AK46" s="41"/>
-      <c r="AL46" s="41"/>
-      <c r="AM46" s="41"/>
-      <c r="AN46" s="41"/>
-      <c r="AO46" s="41"/>
-      <c r="AP46" s="41"/>
-      <c r="AQ46" s="41"/>
-      <c r="AR46" s="41"/>
-      <c r="AS46" s="41"/>
-      <c r="AT46" s="41"/>
-      <c r="AU46" s="41"/>
-      <c r="AV46" s="41"/>
-      <c r="AW46" s="41"/>
-      <c r="AX46" s="41"/>
-      <c r="AY46" s="41"/>
-      <c r="AZ46" s="41"/>
-      <c r="BA46" s="41"/>
-      <c r="BB46" s="41"/>
-      <c r="BC46" s="41"/>
-      <c r="BD46" s="41"/>
-      <c r="BE46" s="41"/>
-      <c r="BF46" s="41"/>
-      <c r="BG46" s="41"/>
-      <c r="BH46" s="41"/>
-      <c r="BI46" s="41"/>
-      <c r="BJ46" s="41"/>
-      <c r="BK46" s="41"/>
-      <c r="BL46" s="41"/>
-      <c r="BM46" s="41"/>
-      <c r="BN46" s="41"/>
-      <c r="BO46" s="41"/>
-      <c r="BP46" s="41"/>
-      <c r="BQ46" s="41"/>
-      <c r="BR46" s="41"/>
-      <c r="BS46" s="41"/>
-      <c r="BT46" s="41"/>
-      <c r="BU46" s="41"/>
-      <c r="BV46" s="41"/>
-      <c r="BW46" s="41"/>
-      <c r="BX46" s="41"/>
-      <c r="BY46" s="41"/>
-      <c r="BZ46" s="41"/>
-      <c r="CA46" s="41"/>
-      <c r="CB46" s="41"/>
-      <c r="CC46" s="41"/>
-      <c r="CD46" s="41"/>
-      <c r="CE46" s="41"/>
-      <c r="CF46" s="41"/>
-      <c r="CG46" s="41"/>
-      <c r="CH46" s="41"/>
-      <c r="CI46" s="41"/>
-      <c r="CJ46" s="41"/>
-      <c r="CK46" s="41"/>
-      <c r="CL46" s="41"/>
-      <c r="CM46" s="41"/>
-      <c r="CN46" s="41"/>
-      <c r="CO46" s="41"/>
-      <c r="CP46" s="41"/>
-      <c r="CQ46" s="41"/>
-      <c r="CR46" s="41"/>
-      <c r="CS46" s="41"/>
-      <c r="CT46" s="41"/>
-      <c r="CU46" s="41"/>
-      <c r="CV46" s="41"/>
-      <c r="CW46" s="41"/>
-      <c r="CX46" s="41"/>
-      <c r="CY46" s="41"/>
-      <c r="CZ46" s="41"/>
-      <c r="DA46" s="38"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+      <c r="AC46" s="42"/>
+      <c r="AD46" s="42"/>
+      <c r="AE46" s="42"/>
+      <c r="AF46" s="42"/>
+      <c r="AG46" s="42"/>
+      <c r="AH46" s="42"/>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="42"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="42"/>
+      <c r="AO46" s="42"/>
+      <c r="AP46" s="42"/>
+      <c r="AQ46" s="42"/>
+      <c r="AR46" s="42"/>
+      <c r="AS46" s="42"/>
+      <c r="AT46" s="42"/>
+      <c r="AU46" s="42"/>
+      <c r="AV46" s="42"/>
+      <c r="AW46" s="42"/>
+      <c r="AX46" s="42"/>
+      <c r="AY46" s="42"/>
+      <c r="AZ46" s="42"/>
+      <c r="BA46" s="42"/>
+      <c r="BB46" s="42"/>
+      <c r="BC46" s="42"/>
+      <c r="BD46" s="42"/>
+      <c r="BE46" s="42"/>
+      <c r="BF46" s="42"/>
+      <c r="BG46" s="42"/>
+      <c r="BH46" s="42"/>
+      <c r="BI46" s="42"/>
+      <c r="BJ46" s="42"/>
+      <c r="BK46" s="42"/>
+      <c r="BL46" s="42"/>
+      <c r="BM46" s="42"/>
+      <c r="BN46" s="42"/>
+      <c r="BO46" s="42"/>
+      <c r="BP46" s="42"/>
+      <c r="BQ46" s="42"/>
+      <c r="BR46" s="42"/>
+      <c r="BS46" s="42"/>
+      <c r="BT46" s="42"/>
+      <c r="BU46" s="42"/>
+      <c r="BV46" s="42"/>
+      <c r="BW46" s="42"/>
+      <c r="BX46" s="42"/>
+      <c r="BY46" s="42"/>
+      <c r="BZ46" s="42"/>
+      <c r="CA46" s="42"/>
+      <c r="CB46" s="42"/>
+      <c r="CC46" s="42"/>
+      <c r="CD46" s="42"/>
+      <c r="CE46" s="42"/>
+      <c r="CF46" s="42"/>
+      <c r="CG46" s="42"/>
+      <c r="CH46" s="42"/>
+      <c r="CI46" s="42"/>
+      <c r="CJ46" s="42"/>
+      <c r="CK46" s="42"/>
+      <c r="CL46" s="42"/>
+      <c r="CM46" s="42"/>
+      <c r="CN46" s="42"/>
+      <c r="CO46" s="42"/>
+      <c r="CP46" s="42"/>
+      <c r="CQ46" s="42"/>
+      <c r="CR46" s="42"/>
+      <c r="CS46" s="42"/>
+      <c r="CT46" s="42"/>
+      <c r="CU46" s="42"/>
+      <c r="CV46" s="42"/>
+      <c r="CW46" s="42"/>
+      <c r="CX46" s="42"/>
+      <c r="CY46" s="42"/>
+      <c r="CZ46" s="42"/>
+      <c r="DA46" s="39"/>
       <c r="DB46" s="38"/>
-      <c r="DC46" s="41"/>
-      <c r="DD46" s="41"/>
-      <c r="DE46" s="41"/>
-      <c r="DF46" s="41"/>
-      <c r="DG46" s="41"/>
-      <c r="DH46" s="41"/>
-      <c r="DI46" s="41"/>
-      <c r="DJ46" s="41"/>
-      <c r="DK46" s="41"/>
-      <c r="DL46" s="41"/>
-      <c r="DM46" s="41"/>
-      <c r="DN46" s="41"/>
-      <c r="DO46" s="41"/>
-      <c r="DP46" s="41"/>
-      <c r="DQ46" s="41"/>
-      <c r="DR46" s="41"/>
-      <c r="DS46" s="41"/>
-      <c r="DT46" s="41"/>
-      <c r="DU46" s="41"/>
-      <c r="DV46" s="41"/>
-      <c r="DW46" s="41"/>
-      <c r="DX46" s="41"/>
-      <c r="DY46" s="41"/>
-      <c r="DZ46" s="41"/>
+      <c r="DC46" s="42"/>
+      <c r="DD46" s="42"/>
+      <c r="DE46" s="42"/>
+      <c r="DF46" s="42"/>
+      <c r="DG46" s="42"/>
+      <c r="DH46" s="42"/>
+      <c r="DI46" s="42"/>
+      <c r="DJ46" s="42"/>
+      <c r="DK46" s="42"/>
+      <c r="DL46" s="42"/>
+      <c r="DM46" s="42"/>
+      <c r="DN46" s="42"/>
+      <c r="DO46" s="42"/>
+      <c r="DP46" s="42"/>
+      <c r="DQ46" s="42"/>
+      <c r="DR46" s="42"/>
+      <c r="DS46" s="42"/>
+      <c r="DT46" s="42"/>
+      <c r="DU46" s="42"/>
+      <c r="DV46" s="42"/>
+      <c r="DW46" s="42"/>
+      <c r="DX46" s="42"/>
+      <c r="DY46" s="42"/>
+      <c r="DZ46" s="42"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="41"/>
-      <c r="W47" s="41"/>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="41"/>
-      <c r="Z47" s="41"/>
-      <c r="AA47" s="41"/>
-      <c r="AB47" s="41"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="41"/>
-      <c r="AE47" s="41"/>
-      <c r="AF47" s="41"/>
-      <c r="AG47" s="41"/>
-      <c r="AH47" s="41"/>
-      <c r="AI47" s="41"/>
-      <c r="AJ47" s="41"/>
-      <c r="AK47" s="41"/>
-      <c r="AL47" s="41"/>
-      <c r="AM47" s="41"/>
-      <c r="AN47" s="41"/>
-      <c r="AO47" s="41"/>
-      <c r="AP47" s="41"/>
-      <c r="AQ47" s="41"/>
-      <c r="AR47" s="41"/>
-      <c r="AS47" s="41"/>
-      <c r="AT47" s="41"/>
-      <c r="AU47" s="41"/>
-      <c r="AV47" s="41"/>
-      <c r="AW47" s="41"/>
-      <c r="AX47" s="41"/>
-      <c r="AY47" s="41"/>
-      <c r="AZ47" s="41"/>
-      <c r="BA47" s="41"/>
-      <c r="BB47" s="41"/>
-      <c r="BC47" s="41"/>
-      <c r="BD47" s="41"/>
-      <c r="BE47" s="41"/>
-      <c r="BF47" s="41"/>
-      <c r="BG47" s="41"/>
-      <c r="BH47" s="41"/>
-      <c r="BI47" s="41"/>
-      <c r="BJ47" s="41"/>
-      <c r="BK47" s="41"/>
-      <c r="BL47" s="41"/>
-      <c r="BM47" s="41"/>
-      <c r="BN47" s="41"/>
-      <c r="BO47" s="41"/>
-      <c r="BP47" s="41"/>
-      <c r="BQ47" s="41"/>
-      <c r="BR47" s="41"/>
-      <c r="BS47" s="41"/>
-      <c r="BT47" s="41"/>
-      <c r="BU47" s="41"/>
-      <c r="BV47" s="41"/>
-      <c r="BW47" s="41"/>
-      <c r="BX47" s="41"/>
-      <c r="BY47" s="41"/>
-      <c r="BZ47" s="41"/>
-      <c r="CA47" s="41"/>
-      <c r="CB47" s="41"/>
-      <c r="CC47" s="41"/>
-      <c r="CD47" s="41"/>
-      <c r="CE47" s="41"/>
-      <c r="CF47" s="41"/>
-      <c r="CG47" s="41"/>
-      <c r="CH47" s="41"/>
-      <c r="CI47" s="41"/>
-      <c r="CJ47" s="41"/>
-      <c r="CK47" s="41"/>
-      <c r="CL47" s="41"/>
-      <c r="CM47" s="41"/>
-      <c r="CN47" s="41"/>
-      <c r="CO47" s="41"/>
-      <c r="CP47" s="41"/>
-      <c r="CQ47" s="41"/>
-      <c r="CR47" s="41"/>
-      <c r="CS47" s="41"/>
-      <c r="CT47" s="41"/>
-      <c r="CU47" s="41"/>
-      <c r="CV47" s="41"/>
-      <c r="CW47" s="41"/>
-      <c r="CX47" s="41"/>
-      <c r="CY47" s="41"/>
-      <c r="CZ47" s="41"/>
-      <c r="DA47" s="41"/>
-      <c r="DB47" s="41"/>
-      <c r="DC47" s="41"/>
-      <c r="DD47" s="38"/>
-      <c r="DE47" s="38"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="42"/>
+      <c r="AB47" s="42"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
+      <c r="AH47" s="42"/>
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="42"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42"/>
+      <c r="AM47" s="42"/>
+      <c r="AN47" s="42"/>
+      <c r="AO47" s="42"/>
+      <c r="AP47" s="42"/>
+      <c r="AQ47" s="42"/>
+      <c r="AR47" s="42"/>
+      <c r="AS47" s="42"/>
+      <c r="AT47" s="42"/>
+      <c r="AU47" s="42"/>
+      <c r="AV47" s="42"/>
+      <c r="AW47" s="42"/>
+      <c r="AX47" s="42"/>
+      <c r="AY47" s="42"/>
+      <c r="AZ47" s="42"/>
+      <c r="BA47" s="42"/>
+      <c r="BB47" s="42"/>
+      <c r="BC47" s="42"/>
+      <c r="BD47" s="42"/>
+      <c r="BE47" s="42"/>
+      <c r="BF47" s="42"/>
+      <c r="BG47" s="42"/>
+      <c r="BH47" s="42"/>
+      <c r="BI47" s="42"/>
+      <c r="BJ47" s="42"/>
+      <c r="BK47" s="42"/>
+      <c r="BL47" s="42"/>
+      <c r="BM47" s="42"/>
+      <c r="BN47" s="42"/>
+      <c r="BO47" s="42"/>
+      <c r="BP47" s="42"/>
+      <c r="BQ47" s="42"/>
+      <c r="BR47" s="42"/>
+      <c r="BS47" s="42"/>
+      <c r="BT47" s="42"/>
+      <c r="BU47" s="42"/>
+      <c r="BV47" s="42"/>
+      <c r="BW47" s="42"/>
+      <c r="BX47" s="42"/>
+      <c r="BY47" s="42"/>
+      <c r="BZ47" s="42"/>
+      <c r="CA47" s="42"/>
+      <c r="CB47" s="42"/>
+      <c r="CC47" s="42"/>
+      <c r="CD47" s="42"/>
+      <c r="CE47" s="42"/>
+      <c r="CF47" s="42"/>
+      <c r="CG47" s="42"/>
+      <c r="CH47" s="42"/>
+      <c r="CI47" s="42"/>
+      <c r="CJ47" s="42"/>
+      <c r="CK47" s="42"/>
+      <c r="CL47" s="42"/>
+      <c r="CM47" s="42"/>
+      <c r="CN47" s="42"/>
+      <c r="CO47" s="42"/>
+      <c r="CP47" s="42"/>
+      <c r="CQ47" s="42"/>
+      <c r="CR47" s="42"/>
+      <c r="CS47" s="42"/>
+      <c r="CT47" s="42"/>
+      <c r="CU47" s="42"/>
+      <c r="CV47" s="42"/>
+      <c r="CW47" s="42"/>
+      <c r="CX47" s="42"/>
+      <c r="CY47" s="42"/>
+      <c r="CZ47" s="42"/>
+      <c r="DA47" s="42"/>
+      <c r="DB47" s="42"/>
+      <c r="DC47" s="42"/>
+      <c r="DD47" s="39"/>
+      <c r="DE47" s="39"/>
       <c r="DF47" s="38"/>
-      <c r="DG47" s="41"/>
-      <c r="DH47" s="41"/>
-      <c r="DI47" s="41"/>
-      <c r="DJ47" s="41"/>
-      <c r="DK47" s="41"/>
-      <c r="DL47" s="41"/>
-      <c r="DM47" s="41"/>
-      <c r="DN47" s="41"/>
-      <c r="DO47" s="41"/>
-      <c r="DP47" s="41"/>
-      <c r="DQ47" s="41"/>
-      <c r="DR47" s="41"/>
-      <c r="DS47" s="41"/>
-      <c r="DT47" s="41"/>
-      <c r="DU47" s="41"/>
-      <c r="DV47" s="41"/>
-      <c r="DW47" s="41"/>
-      <c r="DX47" s="41"/>
-      <c r="DY47" s="41"/>
-      <c r="DZ47" s="41"/>
+      <c r="DG47" s="38"/>
+      <c r="DH47" s="42"/>
+      <c r="DI47" s="42"/>
+      <c r="DJ47" s="42"/>
+      <c r="DK47" s="42"/>
+      <c r="DL47" s="42"/>
+      <c r="DM47" s="42"/>
+      <c r="DN47" s="42"/>
+      <c r="DO47" s="42"/>
+      <c r="DP47" s="42"/>
+      <c r="DQ47" s="42"/>
+      <c r="DR47" s="42"/>
+      <c r="DS47" s="42"/>
+      <c r="DT47" s="42"/>
+      <c r="DU47" s="42"/>
+      <c r="DV47" s="42"/>
+      <c r="DW47" s="42"/>
+      <c r="DX47" s="42"/>
+      <c r="DY47" s="42"/>
+      <c r="DZ47" s="42"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="41"/>
-      <c r="AF48" s="41"/>
-      <c r="AG48" s="41"/>
-      <c r="AH48" s="41"/>
-      <c r="AI48" s="41"/>
-      <c r="AJ48" s="41"/>
-      <c r="AK48" s="41"/>
-      <c r="AL48" s="41"/>
-      <c r="AM48" s="41"/>
-      <c r="AN48" s="41"/>
-      <c r="AO48" s="41"/>
-      <c r="AP48" s="41"/>
-      <c r="AQ48" s="41"/>
-      <c r="AR48" s="41"/>
-      <c r="AS48" s="41"/>
-      <c r="AT48" s="41"/>
-      <c r="AU48" s="41"/>
-      <c r="AV48" s="41"/>
-      <c r="AW48" s="41"/>
-      <c r="AX48" s="41"/>
-      <c r="AY48" s="41"/>
-      <c r="AZ48" s="41"/>
-      <c r="BA48" s="41"/>
-      <c r="BB48" s="41"/>
-      <c r="BC48" s="41"/>
-      <c r="BD48" s="41"/>
-      <c r="BE48" s="41"/>
-      <c r="BF48" s="41"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="41"/>
-      <c r="BI48" s="41"/>
-      <c r="BJ48" s="41"/>
-      <c r="BK48" s="41"/>
-      <c r="BL48" s="41"/>
-      <c r="BM48" s="41"/>
-      <c r="BN48" s="41"/>
-      <c r="BO48" s="41"/>
-      <c r="BP48" s="41"/>
-      <c r="BQ48" s="41"/>
-      <c r="BR48" s="41"/>
-      <c r="BS48" s="41"/>
-      <c r="BT48" s="41"/>
-      <c r="BU48" s="41"/>
-      <c r="BV48" s="41"/>
-      <c r="BW48" s="41"/>
-      <c r="BX48" s="41"/>
-      <c r="BY48" s="41"/>
-      <c r="BZ48" s="41"/>
-      <c r="CA48" s="41"/>
-      <c r="CB48" s="41"/>
-      <c r="CC48" s="41"/>
-      <c r="CD48" s="41"/>
-      <c r="CE48" s="41"/>
-      <c r="CF48" s="41"/>
-      <c r="CG48" s="41"/>
-      <c r="CH48" s="41"/>
-      <c r="CI48" s="41"/>
-      <c r="CJ48" s="41"/>
-      <c r="CK48" s="41"/>
-      <c r="CL48" s="41"/>
-      <c r="CM48" s="41"/>
-      <c r="CN48" s="41"/>
-      <c r="CO48" s="41"/>
-      <c r="CP48" s="41"/>
-      <c r="CQ48" s="41"/>
-      <c r="CR48" s="41"/>
-      <c r="CS48" s="41"/>
-      <c r="CT48" s="41"/>
-      <c r="CU48" s="41"/>
-      <c r="CV48" s="41"/>
-      <c r="CW48" s="41"/>
-      <c r="CX48" s="41"/>
-      <c r="CY48" s="41"/>
-      <c r="CZ48" s="41"/>
-      <c r="DA48" s="41"/>
-      <c r="DB48" s="41"/>
-      <c r="DC48" s="41"/>
-      <c r="DD48" s="41"/>
-      <c r="DE48" s="41"/>
-      <c r="DF48" s="41"/>
-      <c r="DG48" s="41"/>
-      <c r="DH48" s="41"/>
-      <c r="DI48" s="38"/>
-      <c r="DJ48" s="38"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="42"/>
+      <c r="AB48" s="42"/>
+      <c r="AC48" s="42"/>
+      <c r="AD48" s="42"/>
+      <c r="AE48" s="42"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="42"/>
+      <c r="AH48" s="42"/>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="42"/>
+      <c r="AO48" s="42"/>
+      <c r="AP48" s="42"/>
+      <c r="AQ48" s="42"/>
+      <c r="AR48" s="42"/>
+      <c r="AS48" s="42"/>
+      <c r="AT48" s="42"/>
+      <c r="AU48" s="42"/>
+      <c r="AV48" s="42"/>
+      <c r="AW48" s="42"/>
+      <c r="AX48" s="42"/>
+      <c r="AY48" s="42"/>
+      <c r="AZ48" s="42"/>
+      <c r="BA48" s="42"/>
+      <c r="BB48" s="42"/>
+      <c r="BC48" s="42"/>
+      <c r="BD48" s="42"/>
+      <c r="BE48" s="42"/>
+      <c r="BF48" s="42"/>
+      <c r="BG48" s="42"/>
+      <c r="BH48" s="42"/>
+      <c r="BI48" s="42"/>
+      <c r="BJ48" s="42"/>
+      <c r="BK48" s="42"/>
+      <c r="BL48" s="42"/>
+      <c r="BM48" s="42"/>
+      <c r="BN48" s="42"/>
+      <c r="BO48" s="42"/>
+      <c r="BP48" s="42"/>
+      <c r="BQ48" s="42"/>
+      <c r="BR48" s="42"/>
+      <c r="BS48" s="42"/>
+      <c r="BT48" s="42"/>
+      <c r="BU48" s="42"/>
+      <c r="BV48" s="42"/>
+      <c r="BW48" s="42"/>
+      <c r="BX48" s="42"/>
+      <c r="BY48" s="42"/>
+      <c r="BZ48" s="42"/>
+      <c r="CA48" s="42"/>
+      <c r="CB48" s="42"/>
+      <c r="CC48" s="42"/>
+      <c r="CD48" s="42"/>
+      <c r="CE48" s="42"/>
+      <c r="CF48" s="42"/>
+      <c r="CG48" s="42"/>
+      <c r="CH48" s="42"/>
+      <c r="CI48" s="42"/>
+      <c r="CJ48" s="42"/>
+      <c r="CK48" s="42"/>
+      <c r="CL48" s="42"/>
+      <c r="CM48" s="42"/>
+      <c r="CN48" s="42"/>
+      <c r="CO48" s="42"/>
+      <c r="CP48" s="42"/>
+      <c r="CQ48" s="42"/>
+      <c r="CR48" s="42"/>
+      <c r="CS48" s="42"/>
+      <c r="CT48" s="42"/>
+      <c r="CU48" s="42"/>
+      <c r="CV48" s="42"/>
+      <c r="CW48" s="42"/>
+      <c r="CX48" s="42"/>
+      <c r="CY48" s="42"/>
+      <c r="CZ48" s="42"/>
+      <c r="DA48" s="42"/>
+      <c r="DB48" s="42"/>
+      <c r="DC48" s="42"/>
+      <c r="DD48" s="42"/>
+      <c r="DE48" s="42"/>
+      <c r="DF48" s="42"/>
+      <c r="DG48" s="42"/>
+      <c r="DH48" s="42"/>
+      <c r="DI48" s="39"/>
+      <c r="DJ48" s="39"/>
       <c r="DK48" s="38"/>
       <c r="DL48" s="38"/>
-      <c r="DM48" s="41"/>
-      <c r="DN48" s="41"/>
-      <c r="DO48" s="41"/>
-      <c r="DP48" s="41"/>
-      <c r="DQ48" s="41"/>
-      <c r="DR48" s="41"/>
-      <c r="DS48" s="41"/>
-      <c r="DT48" s="41"/>
-      <c r="DU48" s="41"/>
-      <c r="DV48" s="41"/>
-      <c r="DW48" s="41"/>
-      <c r="DX48" s="41"/>
-      <c r="DY48" s="41"/>
-      <c r="DZ48" s="41"/>
+      <c r="DM48" s="42"/>
+      <c r="DN48" s="42"/>
+      <c r="DO48" s="42"/>
+      <c r="DP48" s="42"/>
+      <c r="DQ48" s="42"/>
+      <c r="DR48" s="42"/>
+      <c r="DS48" s="42"/>
+      <c r="DT48" s="42"/>
+      <c r="DU48" s="42"/>
+      <c r="DV48" s="42"/>
+      <c r="DW48" s="42"/>
+      <c r="DX48" s="42"/>
+      <c r="DY48" s="42"/>
+      <c r="DZ48" s="42"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="41"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="41"/>
-      <c r="AF49" s="41"/>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="41"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="41"/>
-      <c r="AK49" s="41"/>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="41"/>
-      <c r="AN49" s="41"/>
-      <c r="AO49" s="41"/>
-      <c r="AP49" s="41"/>
-      <c r="AQ49" s="41"/>
-      <c r="AR49" s="41"/>
-      <c r="AS49" s="41"/>
-      <c r="AT49" s="41"/>
-      <c r="AU49" s="41"/>
-      <c r="AV49" s="41"/>
-      <c r="AW49" s="41"/>
-      <c r="AX49" s="41"/>
-      <c r="AY49" s="41"/>
-      <c r="AZ49" s="41"/>
-      <c r="BA49" s="41"/>
-      <c r="BB49" s="41"/>
-      <c r="BC49" s="41"/>
-      <c r="BD49" s="41"/>
-      <c r="BE49" s="41"/>
-      <c r="BF49" s="41"/>
-      <c r="BG49" s="41"/>
-      <c r="BH49" s="41"/>
-      <c r="BI49" s="41"/>
-      <c r="BJ49" s="41"/>
-      <c r="BK49" s="41"/>
-      <c r="BL49" s="41"/>
-      <c r="BM49" s="41"/>
-      <c r="BN49" s="41"/>
-      <c r="BO49" s="41"/>
-      <c r="BP49" s="41"/>
-      <c r="BQ49" s="41"/>
-      <c r="BR49" s="41"/>
-      <c r="BS49" s="41"/>
-      <c r="BT49" s="41"/>
-      <c r="BU49" s="41"/>
-      <c r="BV49" s="41"/>
-      <c r="BW49" s="41"/>
-      <c r="BX49" s="41"/>
-      <c r="BY49" s="41"/>
-      <c r="BZ49" s="41"/>
-      <c r="CA49" s="41"/>
-      <c r="CB49" s="41"/>
-      <c r="CC49" s="41"/>
-      <c r="CD49" s="41"/>
-      <c r="CE49" s="41"/>
-      <c r="CF49" s="41"/>
-      <c r="CG49" s="41"/>
-      <c r="CH49" s="41"/>
-      <c r="CI49" s="41"/>
-      <c r="CJ49" s="41"/>
-      <c r="CK49" s="41"/>
-      <c r="CL49" s="41"/>
-      <c r="CM49" s="41"/>
-      <c r="CN49" s="41"/>
-      <c r="CO49" s="41"/>
-      <c r="CP49" s="41"/>
-      <c r="CQ49" s="41"/>
-      <c r="CR49" s="41"/>
-      <c r="CS49" s="41"/>
-      <c r="CT49" s="41"/>
-      <c r="CU49" s="41"/>
-      <c r="CV49" s="41"/>
-      <c r="CW49" s="41"/>
-      <c r="CX49" s="41"/>
-      <c r="CY49" s="41"/>
-      <c r="CZ49" s="41"/>
-      <c r="DA49" s="41"/>
-      <c r="DB49" s="41"/>
-      <c r="DC49" s="41"/>
-      <c r="DD49" s="41"/>
-      <c r="DE49" s="41"/>
-      <c r="DF49" s="41"/>
-      <c r="DG49" s="41"/>
-      <c r="DH49" s="41"/>
-      <c r="DI49" s="41"/>
-      <c r="DJ49" s="41"/>
-      <c r="DK49" s="41"/>
-      <c r="DL49" s="41"/>
-      <c r="DM49" s="41"/>
-      <c r="DN49" s="57"/>
-      <c r="DO49" s="41"/>
-      <c r="DP49" s="41"/>
-      <c r="DQ49" s="41"/>
-      <c r="DR49" s="41"/>
-      <c r="DS49" s="41"/>
-      <c r="DT49" s="41"/>
-      <c r="DU49" s="41"/>
-      <c r="DV49" s="41"/>
-      <c r="DW49" s="41"/>
-      <c r="DX49" s="41"/>
-      <c r="DY49" s="41"/>
-      <c r="DZ49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="42"/>
+      <c r="AB49" s="42"/>
+      <c r="AC49" s="42"/>
+      <c r="AD49" s="42"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="42"/>
+      <c r="AG49" s="42"/>
+      <c r="AH49" s="42"/>
+      <c r="AI49" s="42"/>
+      <c r="AJ49" s="42"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="42"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="42"/>
+      <c r="AO49" s="42"/>
+      <c r="AP49" s="42"/>
+      <c r="AQ49" s="42"/>
+      <c r="AR49" s="42"/>
+      <c r="AS49" s="42"/>
+      <c r="AT49" s="42"/>
+      <c r="AU49" s="42"/>
+      <c r="AV49" s="42"/>
+      <c r="AW49" s="42"/>
+      <c r="AX49" s="42"/>
+      <c r="AY49" s="42"/>
+      <c r="AZ49" s="42"/>
+      <c r="BA49" s="42"/>
+      <c r="BB49" s="42"/>
+      <c r="BC49" s="42"/>
+      <c r="BD49" s="42"/>
+      <c r="BE49" s="42"/>
+      <c r="BF49" s="42"/>
+      <c r="BG49" s="42"/>
+      <c r="BH49" s="42"/>
+      <c r="BI49" s="42"/>
+      <c r="BJ49" s="42"/>
+      <c r="BK49" s="42"/>
+      <c r="BL49" s="42"/>
+      <c r="BM49" s="42"/>
+      <c r="BN49" s="42"/>
+      <c r="BO49" s="42"/>
+      <c r="BP49" s="42"/>
+      <c r="BQ49" s="42"/>
+      <c r="BR49" s="42"/>
+      <c r="BS49" s="42"/>
+      <c r="BT49" s="42"/>
+      <c r="BU49" s="42"/>
+      <c r="BV49" s="42"/>
+      <c r="BW49" s="42"/>
+      <c r="BX49" s="42"/>
+      <c r="BY49" s="42"/>
+      <c r="BZ49" s="42"/>
+      <c r="CA49" s="42"/>
+      <c r="CB49" s="42"/>
+      <c r="CC49" s="42"/>
+      <c r="CD49" s="42"/>
+      <c r="CE49" s="42"/>
+      <c r="CF49" s="42"/>
+      <c r="CG49" s="42"/>
+      <c r="CH49" s="42"/>
+      <c r="CI49" s="42"/>
+      <c r="CJ49" s="42"/>
+      <c r="CK49" s="42"/>
+      <c r="CL49" s="42"/>
+      <c r="CM49" s="42"/>
+      <c r="CN49" s="42"/>
+      <c r="CO49" s="42"/>
+      <c r="CP49" s="42"/>
+      <c r="CQ49" s="42"/>
+      <c r="CR49" s="42"/>
+      <c r="CS49" s="42"/>
+      <c r="CT49" s="42"/>
+      <c r="CU49" s="42"/>
+      <c r="CV49" s="42"/>
+      <c r="CW49" s="42"/>
+      <c r="CX49" s="42"/>
+      <c r="CY49" s="42"/>
+      <c r="CZ49" s="42"/>
+      <c r="DA49" s="42"/>
+      <c r="DB49" s="42"/>
+      <c r="DC49" s="42"/>
+      <c r="DD49" s="42"/>
+      <c r="DE49" s="42"/>
+      <c r="DF49" s="42"/>
+      <c r="DG49" s="42"/>
+      <c r="DH49" s="42"/>
+      <c r="DI49" s="42"/>
+      <c r="DJ49" s="42"/>
+      <c r="DK49" s="42"/>
+      <c r="DL49" s="42"/>
+      <c r="DM49" s="42"/>
+      <c r="DN49" s="62"/>
+      <c r="DO49" s="42"/>
+      <c r="DP49" s="42"/>
+      <c r="DQ49" s="42"/>
+      <c r="DR49" s="42"/>
+      <c r="DS49" s="42"/>
+      <c r="DT49" s="42"/>
+      <c r="DU49" s="42"/>
+      <c r="DV49" s="42"/>
+      <c r="DW49" s="42"/>
+      <c r="DX49" s="42"/>
+      <c r="DY49" s="42"/>
+      <c r="DZ49" s="42"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="10"/>
@@ -7905,7 +7980,7 @@
       <c r="DU50" s="10"/>
       <c r="DV50" s="10"/>
       <c r="DW50" s="10"/>
-      <c r="DX50" s="58"/>
+      <c r="DX50" s="63"/>
       <c r="DY50" s="10"/>
       <c r="DZ50" s="10"/>
     </row>
@@ -8036,15 +8111,15 @@
       <c r="DU51" s="10"/>
       <c r="DV51" s="10"/>
       <c r="DW51" s="10"/>
-      <c r="DX51" s="58"/>
+      <c r="DX51" s="63"/>
       <c r="DY51" s="10"/>
       <c r="DZ51" s="10"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="65" t="s">
         <v>71</v>
       </c>
       <c r="D52" s="13"/>
@@ -8053,7 +8128,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="14"/>
-      <c r="J52" s="60" t="s">
+      <c r="J52" s="65" t="s">
         <v>72</v>
       </c>
       <c r="K52" s="13"/>
@@ -8067,7 +8142,7 @@
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
       <c r="U52" s="14"/>
-      <c r="V52" s="61"/>
+      <c r="V52" s="66"/>
       <c r="W52" s="10"/>
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
@@ -8173,15 +8248,15 @@
       <c r="DU52" s="10"/>
       <c r="DV52" s="10"/>
       <c r="DW52" s="10"/>
-      <c r="DX52" s="58"/>
+      <c r="DX52" s="63"/>
       <c r="DY52" s="10"/>
       <c r="DZ52" s="10"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="67" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="13"/>
@@ -8190,7 +8265,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="14"/>
-      <c r="J53" s="63" t="s">
+      <c r="J53" s="68" t="s">
         <v>75</v>
       </c>
       <c r="K53" s="13"/>
@@ -8204,7 +8279,7 @@
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
       <c r="U53" s="14"/>
-      <c r="V53" s="64"/>
+      <c r="V53" s="69"/>
       <c r="W53" s="10"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
@@ -8310,15 +8385,15 @@
       <c r="DU53" s="10"/>
       <c r="DV53" s="10"/>
       <c r="DW53" s="10"/>
-      <c r="DX53" s="58"/>
+      <c r="DX53" s="63"/>
       <c r="DY53" s="10"/>
       <c r="DZ53" s="10"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="65" t="s">
+      <c r="C54" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="13"/>
@@ -8327,7 +8402,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="14"/>
-      <c r="J54" s="66" t="s">
+      <c r="J54" s="71" t="s">
         <v>78</v>
       </c>
       <c r="K54" s="13"/>
@@ -8341,7 +8416,7 @@
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
       <c r="U54" s="14"/>
-      <c r="V54" s="67"/>
+      <c r="V54" s="72"/>
       <c r="W54" s="10"/>
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
@@ -8447,23 +8522,25 @@
       <c r="DU54" s="10"/>
       <c r="DV54" s="10"/>
       <c r="DW54" s="10"/>
-      <c r="DX54" s="58"/>
+      <c r="DX54" s="63"/>
       <c r="DY54" s="10"/>
       <c r="DZ54" s="10"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="68"/>
+      <c r="C55" s="73" t="s">
+        <v>80</v>
+      </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
       <c r="I55" s="14"/>
-      <c r="J55" s="69" t="s">
-        <v>80</v>
+      <c r="J55" s="74" t="s">
+        <v>81</v>
       </c>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
@@ -8476,7 +8553,7 @@
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
       <c r="U55" s="14"/>
-      <c r="V55" s="64"/>
+      <c r="V55" s="69"/>
       <c r="W55" s="10"/>
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
@@ -8582,200 +8659,298 @@
       <c r="DU55" s="10"/>
       <c r="DV55" s="10"/>
       <c r="DW55" s="10"/>
-      <c r="DX55" s="58"/>
+      <c r="DX55" s="63"/>
       <c r="DY55" s="10"/>
       <c r="DZ55" s="10"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="DX56" s="70"/>
+      <c r="B56" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="14"/>
+      <c r="DX56" s="77"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="DX57" s="70"/>
+      <c r="B57" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="14"/>
+      <c r="DX57" s="77"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="DX58" s="70"/>
+      <c r="B58" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="14"/>
+      <c r="DX58" s="77"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="DX59" s="70"/>
+      <c r="B59" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="14"/>
+      <c r="DX59" s="77"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="DX60" s="70"/>
+      <c r="DX60" s="77"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="DX61" s="70"/>
+      <c r="DX61" s="77"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="DX62" s="70"/>
+      <c r="DX62" s="77"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="DX63" s="70"/>
+      <c r="DX63" s="77"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="DX64" s="70"/>
+      <c r="DX64" s="77"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="DX65" s="70"/>
+      <c r="DX65" s="77"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="DX66" s="70"/>
+      <c r="DX66" s="77"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="DX67" s="70"/>
+      <c r="DX67" s="77"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="DX68" s="70"/>
+      <c r="DX68" s="77"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="DX69" s="70"/>
+      <c r="DX69" s="77"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="DX70" s="70"/>
+      <c r="DX70" s="77"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="DX71" s="70"/>
+      <c r="DX71" s="77"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="DX72" s="70"/>
+      <c r="DX72" s="77"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="DX73" s="70"/>
+      <c r="DX73" s="77"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="DX74" s="70"/>
+      <c r="DX74" s="77"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="DX75" s="70"/>
+      <c r="DX75" s="77"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="DX76" s="70"/>
+      <c r="DX76" s="77"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="DX77" s="70"/>
+      <c r="DX77" s="77"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="DX78" s="70"/>
+      <c r="DX78" s="77"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="DX79" s="70"/>
+      <c r="DX79" s="77"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="DX80" s="70"/>
+      <c r="DX80" s="77"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="DX81" s="70"/>
+      <c r="DX81" s="77"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="DX82" s="70"/>
+      <c r="DX82" s="77"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="DX83" s="70"/>
+      <c r="DX83" s="77"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="DX84" s="70"/>
+      <c r="DX84" s="77"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="DX85" s="70"/>
+      <c r="DX85" s="77"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="DX86" s="70"/>
+      <c r="DX86" s="77"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="DX87" s="70"/>
+      <c r="DX87" s="77"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="DX88" s="70"/>
+      <c r="DX88" s="77"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="DX89" s="70"/>
+      <c r="DX89" s="77"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="DX90" s="70"/>
+      <c r="DX90" s="77"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="DX91" s="70"/>
+      <c r="DX91" s="77"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="DX92" s="70"/>
+      <c r="DX92" s="77"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="DX93" s="70"/>
+      <c r="DX93" s="77"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="DX94" s="70"/>
+      <c r="DX94" s="77"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="DX95" s="70"/>
+      <c r="DX95" s="77"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="DX96" s="70"/>
+      <c r="DX96" s="77"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="DX97" s="70"/>
+      <c r="DX97" s="77"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="DX98" s="70"/>
+      <c r="DX98" s="77"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="DX99" s="70"/>
+      <c r="DX99" s="77"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="DX100" s="70"/>
+      <c r="DX100" s="77"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="DX101" s="70"/>
+      <c r="DX101" s="77"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="DX102" s="70"/>
+      <c r="DX102" s="77"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="DX103" s="70"/>
+      <c r="DX103" s="77"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="DX104" s="70"/>
+      <c r="DX104" s="77"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="DX105" s="70"/>
+      <c r="DX105" s="77"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="DX106" s="70"/>
+      <c r="DX106" s="77"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="DX107" s="70"/>
+      <c r="DX107" s="77"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="DX108" s="70"/>
+      <c r="DX108" s="77"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="DX109" s="70"/>
+      <c r="DX109" s="77"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="DX110" s="70"/>
+      <c r="DX110" s="77"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="DX111" s="70"/>
+      <c r="DX111" s="77"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="DX112" s="70"/>
+      <c r="DX112" s="77"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="DX113" s="70"/>
+      <c r="DX113" s="77"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="DX114" s="70"/>
+      <c r="DX114" s="77"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="DX115" s="70"/>
+      <c r="DX115" s="77"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="DX116" s="70"/>
+      <c r="DX116" s="77"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="DX117" s="70"/>
+      <c r="DX117" s="77"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="DX118" s="70"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1"/>
+      <c r="DX118" s="77"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="DX119" s="77"/>
+    </row>
     <row r="120" ht="15.75" customHeight="1"/>
     <row r="121" ht="15.75" customHeight="1"/>
     <row r="122" ht="15.75" customHeight="1"/>
@@ -9615,12 +9790,43 @@
     <row r="956" ht="15.75" customHeight="1"/>
     <row r="957" ht="15.75" customHeight="1"/>
     <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="52">
+    <mergeCell ref="J55:U55"/>
+    <mergeCell ref="J56:U56"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="J57:U57"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="J59:U59"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="J58:U58"/>
+    <mergeCell ref="Q9:W9"/>
+    <mergeCell ref="C10:V10"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="J52:U52"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="J53:U53"/>
+    <mergeCell ref="J54:U54"/>
+    <mergeCell ref="L6:AA6"/>
+    <mergeCell ref="C8:DZ8"/>
     <mergeCell ref="DD9:DJ9"/>
     <mergeCell ref="DK9:DQ9"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:V10"/>
+    <mergeCell ref="DR9:DZ9"/>
+    <mergeCell ref="BG9:BM9"/>
+    <mergeCell ref="BN9:BT9"/>
+    <mergeCell ref="BU9:CA9"/>
+    <mergeCell ref="CB9:CH9"/>
+    <mergeCell ref="CI9:CO9"/>
+    <mergeCell ref="CP9:CV9"/>
+    <mergeCell ref="CW9:DC9"/>
+    <mergeCell ref="D2:AA2"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:AA4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="L5:AA5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="W10:AZ10"/>
     <mergeCell ref="BA10:CE10"/>
     <mergeCell ref="CF10:DI10"/>
@@ -9628,39 +9834,17 @@
     <mergeCell ref="C17:DZ17"/>
     <mergeCell ref="C24:DZ24"/>
     <mergeCell ref="C30:DZ30"/>
-    <mergeCell ref="L4:AA4"/>
-    <mergeCell ref="L5:AA5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:DZ8"/>
-    <mergeCell ref="DR9:DZ9"/>
-    <mergeCell ref="D2:AA2"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="L6:AA6"/>
+    <mergeCell ref="C39:DZ39"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:W9"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="J52:U52"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="J53:U53"/>
-    <mergeCell ref="J54:U54"/>
-    <mergeCell ref="J55:U55"/>
     <mergeCell ref="X9:AD9"/>
     <mergeCell ref="AE9:AK9"/>
     <mergeCell ref="AL9:AR9"/>
     <mergeCell ref="AS9:AY9"/>
     <mergeCell ref="AZ9:BF9"/>
-    <mergeCell ref="BG9:BM9"/>
-    <mergeCell ref="BN9:BT9"/>
-    <mergeCell ref="BU9:CA9"/>
-    <mergeCell ref="CB9:CH9"/>
-    <mergeCell ref="CI9:CO9"/>
-    <mergeCell ref="CP9:CV9"/>
-    <mergeCell ref="CW9:DC9"/>
     <mergeCell ref="C54:I54"/>
     <mergeCell ref="C55:I55"/>
-    <mergeCell ref="C39:DZ39"/>
+    <mergeCell ref="C56:I56"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
